--- a/urban_type_creator/database_copy.xlsx
+++ b/urban_type_creator/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="561">
   <si>
     <t>ID</t>
   </si>
@@ -163,9 +163,6 @@
     <t>CBD</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBQUEhgSFBQYGRgYGBkYGBgYGBgZGBkaGBkbGRgZGRgbIS4kGx0rIRoaJTclKi4xNDQ0GiM6Pzo1Pi0zNDEBCwsLEA8QHxISHTMqJCozMzM1MzM8MzMzMzUzMzMzMzMzMzM1MzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzM//AABEIALUBFgMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAACBAMFAAEGB//EAEMQAAIBAwMBBAYHBQYGAwEAAAECEQADIQQSMUEFIlFhBhMycYGRI0JScqGx8BRissHRU2NzgsLhBxUzQ6LxJIOSNP/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACQRAAICAgICAwEBAQEAAAAAAAABAhESIQMxIkEEMlFhgXET/9oADAMBAAIRAxEAPwDnStCVqcrWite+eSQEVoipitaK0AQEVhWpitCVpiIStCVqYrQlaAIStAVpgrQlaAIStAVqcrQlaAICtDFTlaErQNEJFCVqYrWttAyErQlamIoYoEREUJFTFaEigLIorRFSEVoikWmRkUJFSkUJFIZERQkVMVoCKkCIisIoyK1FAyMitEUZFaIqGikwK1RxWiKQ7IyKEipaEipaGmRkVlFFZUlWd8UrRSmSlCUrps5qFilCUpkpQlKdhQsUoStMlKEpRYqFytCVpgpQlKLChcrQlaYKUJSiwoXK1orTBSgK0WAuVoStWNvRlk9YDjwIzMwB8T+dLabR3LihiyLuTeJJgrgmD1iQCKzfLFGi4pCpWtbadXs9ypYPbIHgaTQkkgiCD8wQCMdOaceRPQODW2AVoStTlam0Oia9dS0vLsFB8J5Y+QEn4VbddmdWIEUJWr/tSwnrGtphF7qjEQMKxM8mZPvNU5t0ozTKlHHTFytaK1MVoStOyCErQkVMUoStKyrISKEipitCVpAmQkUJFSlaErQURkUJFSlaEipAiIrRFSEVoipZVkZFDFSRWiKQ7IiKyjIrKQ7PR9lCUpkpQlK1sgWKUJSmSlaKUWAsUoSlMlKApRYqFilCUpkpWilFhQsVoCtMlKEpTsKKrXX2t3CsKMDxPSeaVbWvMAfgate2NdbS5sdWPdWYRMyoIhjn4jwoNB2g1w7bdl2dFXChAcDbuJaMRA+NcT5ZX2dy44/g1ogSlpTwyb298YHxmf8AJVRY0iNaRmWCFU7gBjGCSR7/AJmujKeqsi5cGw90BSQxEDCd2R9r5mqPQXbb7LYUDYigqYJdwO9lbfGBAM0k2xNIh0ttCxL2lkK0KQ4BnAcZxHQZjrNbS0FZwP3efuir652eGt+s9hgTEhp5J6W4IxBE1TWxLvPIKg88x0kDFXxPyoy5F4gla6r0N7PCzqm6C4iLB52Dc2PJ458a5wJmuxt6hRoLSLAEuGyJ3Escz8PnV/Jm4x17J+NBSlspL+lG/wBYQTvJUABskDAYkyB7PB684iqftO2BcbaIBMgQwiQCR3s9avb7Kbdpe4OoBKCZPIDeQmqjtGC7AZh2HnlUYefWs+HktpG3yOOlZWFa0VpgrQlK7LOGhcrQlanK0JWgYuVoStMFK0UoChcrQFaZKUBSpGLRQlaZKUJSgBYrWitTlKArSGQlaEipitCVpMZCRWqkIrKQHqJt0Jt02UoTbp5DoVKUBSnDboSlFhQmbdCUpspQm3RkFCZShNunClAUosKEylCUpw263a0zOdqiTExj+dGVDxsqO09Pba6N6AmF8eiL4KZq39FdDb9a5CbRtHEgmWPig8KU9IgbCjUXLfdUqoG5CxYrERGBgnmrL0S1IuI1xQADt6icScx1zXnz/TtVUa9MtOgtIkZLEj2vqiOQP3q4awm26pVd3fEL9oT03A9PGuz9Krq703CdqsYx9Yrn2D1Ty6+dclphFxCrAEmJEGAw2nBxwTW3H9TOX2LE6j1hItqu3MtsHd8V9gQ3wx8qitIA7gCANv5HyFNvYRQHtgAQQ6ghi5k9/OQ0c+PvqLTkM7kEEEIZH+anxvyJ5F4mbat+ymLWntgZT6QZgkYVh4+HHiaQKU52Q+y+ngx2H3ONh/OfhW3KsotGXE8ZJlcO2DbVZ8SwWAQSQEjI8V+U0mrM8uwG5zuO3iSAP5Cl+07eQp6M6/iT/qqx2VnwwS2a88m9CxShK00UoCldFnLQqUrRSmSla2UWFCxSh2U1srRt0WKhQpQslObOnj5UBSlY6FClAUpwpQG3RYCjJQMlNlKBkosBMpQMlOMlRlKAoUK1lMFKykOj1cpQlKcNuhNussjbETKVo26bKUJSnkGImUoClPG3QFKLDESNuhNum2K7tn1omPKitJ3qMh4FXqXS2Jc7RgSZAk8CeKsOwGV2dlYHaAD/AJs/yqo9NxOkI670/i8Kl/4f6d/2d7g2rvuEexMhFUAgLtAyWxFZT5H0aLjXYj/xPuxatW/Fyx/yiB/EflU/oJvOjEiRvYLkjAVR4+M1T/8AEjcbwDbiERYYLCbncyD5wBXTehXc0FnxIdj8XaPwiom/EIKpFd6R7je27UgIikkde83J8gB8T5VzVgH1ispCncAJbackwZny5q87b1dxtRcCGe8M7yNu0BQQA/M7uRVMobeqsu+GA2Alt3PdABzPHPWrhqIPsvLzlU3vcHekBFcNnd4esnx+GfOlez0PrLk8nYxzOTunMmePzrWnZ7cLcDTBVGIYqB/ZyWGes8tAnimuzxNy5923/r8zRB7Ca0SlKk0qfSJ99f4hUzJRaZPpE++v5it3LRhiUHb1oC+4/vn/ANFOG3UfpEPp2/xm/wBFPG3Ucb8TXlWxMpQG3Tpt1GUrTIxoVNutbaaKVr1dFixFvV1pkpv1dQ6tCLbkchWI+ANLIMRUgHj9YNYbdU/YN64bsEkgrmc+Hjx04ro/VUWwpehIpQMlPG3Qm3RYYiBt0DJTxt0DW6LFiItbqJkqwNuomt0WKhApWU2bdapWFHrJShKU2UoSlYZHXiKG3QlKDX64WyQUJgAk++q+56QKvtW2HvI/pRkPCyxKUBt02QInpzVD6Q9v2tOfVPv3sgYbVkBSSvM84NPIFEUv7jcNxeQYE8QMR+vGrZFW4Fkd05g+IxB/EVwXaPpU5UpZUKOjMDIHuiJqf0Z9JktWymod2YuXBgvghREnjI486z3T2aylFtJItfSPRWmuCVeQEA2EgwSYHskcknkdK63sPTC3p0VZjJyZPeJbmPP8K867Y7as6i6Aoba2xd0bWU7jJHcJ48Ir0u1o7du2oIMIgGWbhR4THSsY2m7KlTR5N6Zax31GoAWUFxU37TANsbY38TJPzFegejlkLpLAhsWUk45Kg/zrzHtcu1t3JtQzhyUneS0mCQI65nqtesaP6OwswNiAez9lPd5VpyvSMuNbZyGtuXAbrBWYOz43gbVJkcHve7pVYblwXNx3J3wQd2QZ+0AT8ffVsNPNsXHuKyq0A+pjvHaZEpxjxqg7Vuqzd1gWJnCQOY4jAxxVx/gpd2dAiNcDbidue4xcs2SJWUAJBzOI99Q9jMf2i8skoEQqW5I3PDEwJ6ieMVTaDUBmxbIXIeYbn94JIH5+VMdraxbb3lAK77VtVAjgPcJBIAHUdOMUQ20Keosi1XpNcGoO2PVqdu2B3hOWnx8K7LQsGKOpkEqwPkSCK8pBEz/T+ld36Ca8OBZPKMGWfskifkfzroklWjCLdqzXbxPrzH9sfzSKtylVfbY+nP8AjH/RV6bdZxdJG89sTZIyaW/aLZ4cU9qk+jf7jfkaoNMLcAdcAwAV98/PpVKS9mUkPnUW/titpftnhgfdNJrpUYH2hB6iOTzxUuk0aqjTPttmSF+EgCmpRbol2OoARIM+6otdb+jf7jfwmmOz07p9/iD0qTXJ9E/3H/hNJunQ1tHnfZupFphcgmJEY8OefOuj0va6PAYAT++kzIWNm/dM+XGa53s6+UDHcqqe6xKW3OQYAV87TGYxxM4qyftFQFBt6dpCOGS3aR1JBiTbPIIEqRPuok3ZMUv06Y2qBrVS6G96y36yIksIx9ViOhI6eNTlKnIuiva1QG3T5t0DJRkKivNqo3tVYMlRslGQYlabVZTxSsoyDE9QKUJSmSlKa7UerAO2Zn8I8vOuXI6sTlvSHVOl/aoBAVTkgZkxyM1y3akvG7iTI3q0kx0Aq79JdRZbUj1jsjMgAAQnqQJPma5d+09OON7e9OPD6wrWMfZDmurO87E7c/aS6er2bEmd0z08BFct6c6C5c1iIisWNoADv9GdjlgOgJovRf0htW7j790uoRAFnJPXPHFWPbbf/Psjb/22xtzMP02e/pRTTFafRwtjsm4/sDdg5BxiZ5oH7PcGCI95/wBvI1YabTOArKMOMts3AZZfsGeOnjTFm86dxDDMG3fRzIllJ2+rxxQ0hWyq0tjZcR2MQ6sTJiAQSYivXu2tYv7NcNsF2KEKqqxLFxtAGPMV5jb0/eG4DJIJNs9T/hmu99MGnRrbAYm41tBtmftzAUkgbQSAJieKidWqNIdOzzbW6K7sRXsm2HdADsChgx2LEDvHE/8A6Neg9pN9E5kxsYeQkR4VxdrQP62yncFtb1qP+ruMOSVUsirO3vHjBBHUV2fb18Jp2LEkHapnM94HqfKlN20VxpJM5HU2lFuSWA7gX7MNvlidkbuPhVEyruIBJG4gZXOcZiKvdVqLa2whLNBkiO6d2QI3kECqIupYmNoLeHA90/hWiZLRafsH0YuCZJIWQIgROAOsipNboQ9lbzrB7qKhIyE7zMYjGQvzNaXUWtu0AsyloMZfnaSu+FMGPLxq17UC2yllsBdNbeBJANws7YUjxA/zVfx6ctmXyJOMdHGDTgOVPQkDIzmOhxj31eeipW1r7RUnaz7MwCd0KJAJ6war9b6tLi3EEgHvJ3hx03TMESJHFWmmCtctG2oEMlwHeSRDgx3jzwOOtdTSpqjlzaaaei/7dt/T/wD3H/RXQG3Vd21bm9P99/Na6H1NcGekei47KjV2/o3+438JrjdIjwIe39XLXQCcnpv+eK9C1ln6N/uP/Ca840K2ygb1hxtBnYOfAG6J6VUZWjKcS30aMxZS6dJhwynvHH/UAj509bsjbAIjeeCOuSMMfzqs02q29y02w5BffsJAkiSL0T5RVhobrm3LXGMs2S8zx13mnB+RMl4j3Z9vun73TPT3mpNdb+jf7jfwmpey71sAo9xA7N3VZhuaYAgFjOcU72hY+if7j/wmlKVSCK8Ty3sS2Cmd0teVMMF9pGzyDOPdnms1qJsBgsYt5LE7ZDbhBbyjjr0kTH2Clud7sV2OpME7tgydq4BMhes+RyQWs09xV3MuCiQd3Ak7TtBxO3girl9+yElhZ1Hoq7vYJcknecnnMHofE1cG1XP+jfa1u1p4uMZZsAd4gKiDIHA/pSvbd24htKHP/SQyCQcSO8d3Oc/Coeuy00zpzaoGs1RWXuht3fjax6uCJWB7eDk11kKAAzrMDkgdPCalv8GqZWmzUbWqsmKSe8vSMikxrbJuerFwFpiMxMT7XHShNjpCps1urI2aylmGJ3RNUnpFqigtwCdz7TtGYMZ8qXPbDHgVVds9qz6susj1qrAI5Micg+H+9YqEkdDlE5r0vYHWIQD7Ce0ZPttXFz+Vdl6TXVfWIRBEIOMe2ZxTKdlqpa21nTmEAVzbALsSe7AbukKJ3eYFdcuRRiv+HHDjyk9+zkOzD9Ig/vE/Flx+H413vadk/t9mQPYfGz/EHBtfy/25rtbTBL1hgiJvZZRECwVdRmCZJ/U1edrWiNfa+jcDY3K/f5+jH5UnPKKZcYYyaOU1lkDZj6nh4u/XZR6PS71JFl32wWKcCZiQLZ5M0BsEm2RtA2Ew/Bi6/TbkH9eFSi+6QNqEMchEUzBPMpU5a0NrZH+zBx9Hac4ifbE4ni2PHx610XbXbqahLCvttBWcd92He2IqtItPAAZuRyfKqKwrXAWVFAU/2SmOIkhKj7W0dtNpV95ZYAg4aRMhkEg5gDNDVvYW0nQ12AN2ptEXFNtSTALk7hbOYKKJjaDHiPOun9J9eBaUesZe9ukAmNoOYDrxM/AYNc76K6b6QgpnYM7CArQu9Cdiw2VxPz5q07e06esQ3AdioQyhX7xcgKJGVylYyfkdHHHxE21SGzNu4zqATtO9AW3HGXkCVkGPLpXO6+6dxkESVMFmb6oPO7rP40/quxiwLJaZVzGHaFXAcmBzjEdR51V6vs9rSgvbK8czztBZeM5PPlVqvYpIs9HqrltxcJ3GWCqWklSMoYfcAQ3PXzg1d+nn/wDdddVIVStqBkAJbQ4x+/55BoOyez3fVWAy7j6633WBIjepIMuSIHSOldB6UWC9vUAWyzftDupVAT3SAPqExGOYp8E1GVow+RByjTOQvdm6pVKC28bZI2BpjvFg+3gc4PlUPYT3PWorDducMICkkhu8YA3AdelWfZl1LltlcIjEjv3FRUMQCo+gMFTAIXHfXmTWajQ7b9oiFDXEHJ7hVxuYpatKI7scHNdT5X7SORcfr0dZ2ik3B/jfzWuiNuuf7VwxYdLk/LbU3/NbmSYMjwHv/nXCk5LR6UpKPZYaq39E/wBxj/4mvMuzNdZRVtySCwOC+OhwDJ+fXpg13Oo7WbY6kfUP8JHh+prhrdu449YH2SV2qVfcVBgEBbYBgD8KJXFbI+z0XVq2hQPbvOhkqxCXiTkiCd/6j5taTWoE2HUF33nDblaTGILE1TabtBRbK+sDHcNrFGAwTnaUPGTyJg10Po9qUa05ZwR6widrIBO0iMT0PTxpcc3kEo+JRdvFjeQ7oO2Qx3YIYkGeRkVY+j+tuv6+3ccuBauHJJyMAycnr8/kv6UX0a7bCsp7pzuPG5gBJA/RoexNSEe9le9bu5BnnpPXj8ZruflA41qRyvZGlZ7blFaS2wsFdhBXdtIVGH1Z8cUfaNkjbuG0i0hHcI3bhM4QAHp4Y5NV+nJFsnbgtG8iVBCnu8ESZnyj400ttvVMBZMrtZ3Kudo4UexCTgyTn4xSa3YJ2qG+yINi7n/tgfK9bp30hcG5bhlBFtAZUyCvIMTnypTsdGFq8rCPokPBXDPaYYMdCM9eczJf7VtltguK9tAiky5IcKdoZYRvEx5VlyNJI141bNa/UiQo1Ac5G31IXyzuGIzP6hftG9b3sUfJBB3bSMjgDbg+YPxpz0VRUv7gC+0HKs67ZV5BJRcSF+Xvg9Fr7i6d1W05Xc5LoWEyQOisYESeOIniphOugnG9MprmpU21UsdykZi2BHdB4Enjk/Gj1AtuWe2SgZohohQ0ExsUAAZHxHFP2+0bpiLjKxGyCWUkmDvLbpJJbkjAjmMx6266gAXUcnDLO4EAA/aG62eOIwetaKTshx1Z1/o9qxqLO4KV2NsMmZKqsn8ayqj0D1bLaueBfjzgT/KsrNwNlMRTXmDBwBEEgAH3/wDutaXU+t2kRIvWsFwBguTB93ziuX1HaFxy9wIqq4AIX2FyDjOOOPOptNqNQyB00+5Vibi23IAQZYsJUEck485gVUpa6CHfZeelTgaxIM91CffvYnqaV7TvXrNwi45b1oRReNrYE2Md30bJLEBuke11IwiLty5cNy5vudzkAyApjJ2cf1qKz2Eot72Zgd4U7AjCSoYGSw8c4xUTelY4qm2hnXaz1lyz/wDIF6HADC0bW2WTG3aJ8ZrptYxbtOyLiwptu2E2zi5/dnqPsn+nGNpLdsht1xmQo8bBsOZjcCYGPCr9e0Bd1dm5sUD1b4KDEi4c92Ovh4VN6RaW2xHs09603eJVMKNu0xdY95WWSDwfGBmpNXft72ZrbDcZxbSB7U/U8ardNrypQFRtCTgR9c5kA1j6kMZUrGZVwSJ7xkAJgZqdjJtA63CyZUMYEKAcZHCYNWfa8PsLKsKp3bEAICkIC0J+f+1UOmvRuIVJGZC4wOndxz5VZvcNxLYFuWCEjYhDNLqWki024xgeE9eCRsJDfYtu2h9YHkso3CTIYkE4NtfIHJkg+VSdoWVv3Tufag2gmSBKtMBth6OPzil+ztIW9jaIARtzyCVJll+jXHIPOV5oWverZti2mYFtwuhSmGAUg4O+PHoaGlZcX4h6HsxkD3bbyVgo3fZCQ8EZtwcB4nxWqfXqQzb/AGi+6SCOeYBUGJn5VdaTUW2teruBV3gBtm0FS7nvNuMABQIPQg9Jqt7Rs28m2xKyAN7JvyWOQv3cnzHjTjVik3Q/2R2w1q6lw7sOrElm4DKTyeoEZpy36XSrgqzb7juSTkKThVyI91cvZ9oAcngjkHwACyffNSF+8SFACiQCpgwJ7wJP51fHGO2zLklK6Q4va1s72FtFZnDKCqFFAMuOC4nxB/KpbnpMjnc9sSrrsCKPZVgx3Mze13RwImaHW6ywLVvbafd5hAGhGQgkZ5Knj41zEVo69GKT9noOp9OrNwODbdCW3L7Lc+ORHH41Xf8AM2AAYlSJBAIAJHjHuHPWud0tgm2zmNoYZkSGALREzBAPlxVxqNWj6fTEEhraBCNoAnncCCSeOscDFEIqOkuy5Scu30TNfuspPeKwcwcYzkDyqXSdmOQBuSSwH/SOBwWlrHv+R8YpY9rXLa7UhyVTvFEO32mdZYNJBI73lEeCv/MnaN+2ZAICKDJmYUCIEfiKnl43PvQo8ij1suU7HVQbhuL3dwICupmWH9kBzNczdYu+0YXdCyygfeLEgfOOlW+s1LJbO5IFwdwsiCQDkg7B48g1T6FZYA3Ng3AkjMR19oGaz+NBpNsvnmm0l0TahF+ruMEglwoLQzBWG1iOBBzyDzzT/Y2pCllckAq0QQDJHAJOPeeKZ7X0F17guqblxLm8I2y8d257lwBWO6epIDH63vrn3vbCVOCCQQQZB4IIrsjPWzjnF3pFj2Pc9X3/AFe7axkFVYewedyOOAen9Q9qmJtPtVY2oCUQKvcYAlj6lTPQyw+NQdkacyfo3JDzG0Om1rbDvrtMmYj40HaAYKq+r2BlQeyVG+Wk+yIPE5n54527kbpVEb0TG361N6Ai0gUqyFWO60TBgBiRJ4PXJ5qPU3WfaNpG0Qv0luOhkqFHOMHNI6HUWVtOj+23sNsZisAEQ29Qs5B7rYqdNWFUQ0gEkhYXluJK9QZn933USi60hxkr2x3sq8y3Qbls3AFPd3rwcdJnp8vkXZYtm4fWWyUyG2m/3ySJE28blB93vqpXtXZc3bg0qRJEqN3Uqy5jwihbXFUKoAzbid0ArsI+zEhiYjPjihKlsG7dovjYtsRcW0qH1gBS491VKkdBu3n2Z568Unf7Pe2gDWdzNvI27yACq7ZO4RE4kTkzPRBrjzvGzvrChF3MC0bhEjzA+NVx7TuKeuD0MZB8DNUopb2JyvSo630cV1tuGBTvkjcCpIIHjzxWVyr6pb5m4hLAe0WJJEnECAOfCt08kKhnt/tW5qLge7s3AldqptKwFXJ2rMx1kyDgTmKxduR6u205wiq7O5KkmAEz1Hw8M0v2nd3GNiLDN3kEM0n60OwgdIx5nmiusiwLZbvIC+4oe/MsF28Lgc5zUKOqSou6d2avu+1lA3Ae0yqSAMZ3FZAlgOnNNaDtLZaNoq0K2/ckgrPj0HeKwaTFsm2zqRAKhsLzGOVHj/7qfQ6QG2Xh8ZIhTOD0kcGMHyNTTfZaf4OvrFFva6WnZnkO6uXCyQFJiNo28Dx+SVjtELdFzYsDd3VEDIPQiOv4Vb6Tsi3cRYv2vZU7WI3ZBbOeRuI+FUF1AbjoAg2FlnMGDG4edThvRTdK2NaNgWWQhlQpVlJPtkkgBSOn506lzShW9YjqdxCMkIBEgzKn7Jx51Veq8CgHMAt/Mk0LaUHllGPE/rrVvgZH/srLPQspdkFueFAKzwokxtmcTQ6i9sYIwQbRBDopOe8CA9tiPl8YNIdmF0dXQAnJWSpyJUSJnkcfHinta9y45uXEIZjEnaR3RtIgDoRFTGH6XKV9Fx2Lqk7zHu7mZgEQBYOfqqmOemBA6QKy4yEsy33B3b2ABBJPWS8YJjiYFVS6i5bY7Wwc9cDyn39KlGuvFNpckCAAQD3YgQSJHFPC+gzpUxqxqbYLF7l1gdsDbu3hcBXG8QIJHXnpUWq1dtwQpdfZgFcGN0z9ITORHOJ+JaEKbiJAHdJJxkjOfDw+NVm4bjEDkjI4E4wcU6RFssdBbVrioWgHqAoPH70D8ad1elFu27W2Zp7hMJEG2WiULCfLHvqu0Zt719YwCgyZWZx7MAj8xT2v1NtrLJbyAZEAwBsMwG3EZ5yP6yotFqSaE9beZksg5hTAAz05j3D9cqORsPMwvhHOf5VJqj3bfjtn4Hj9f+zCx7p+6vSOvuFaRejKa2SdnLNyD9l/4TUtkM6KkGIkbQSWYQIHiYPFR9loTdAkey5yQBhCeT1xx14pjSaiNrMwGxVAC8kTJJzAf300TIl0NoqovMqMikySpbvbSAp3DbMkGPcaElHcspRZdmGEBAksvdwox0mOgotRr96lBsC7TymZMnABIBwADjp4Ug9zJZQFE4AyRmcMRPWkru2DqqRc6ljuG9lYojMMWmByI3KrMsR4gcUelvKi7BZsbXDMGYI7gbvYJNwREiDg445ql9a5ICv0I646mDH5U3Y1FwAH16LEqJZpUHaGI2qcQAPd0oYJNMtbOtKn1Xq7TInBe2Lm4njcPXbTEkCCYE+dVWutMGS4ttUMeyiqANpwYDsZM9Y461Be1DyZfcYj27mNpie8RkxPh3unAOxduH66KMd53YAmM/WycgkR0HTkpdjtvRZLeYWiFLj6RRCErEJB9knnJ95qsNxsncZBOZM+BzTgDeoVn2ks6mQR9k89DVfOG95/OtYGM0QhiWEmff7qnnuMfMfjP9KgBEj8Z93Spifo2P7y/k365/2V6YNbQmOtOabta5bwpPswO++DiGADDIjrI8qRDVoH86yezZFz+2m44YjbCldss2Qp3NLA5J8vlzVLdOAI6kz1zGJ/XNPoiqdoYMYMlSCuV6Y599IOeKH0hRVSZLoSAxnGPLxrKismGPT4x194rKVltMsEfZDq+11O9SCQRGRtie9PXHSoLjAtJZSTJJk5JzBxzUg1/dhlRjAEsJIOZM7uTP4CoDqpJ+qG9oLgGMjE+OatysSjRbaewW01zYN8ug7gY94+ysQMmPDMUfZrxa2zyrN0wDuP2vIfMUlZ1ZWy6Axu2tjrBxkdc1LptQRZhT9SMH94kiJx/sfGkWtE2m1Q9YLXe6Ju3DoOdpBxiYnrSvaNtUuttJEiSSfE56fhW9E1s6xd77U395+SMHoTnOK12m6m4T7WBBBxznilobboJHtLt3QRs7y7nB3QOoHX5VPY1iKE3qHhCMl+ZWDmJOKrXddgMEPMcthQMQCYqMk5kfiCcZ8aQroa7NJkQ4EEAZWRvJyqk5jkwKd17sgXfc3d54G0DhyGOPE58uKrdM+0ztUxySMiPDwotRqg7ZBx7OcAkyTkGZNPoF+EbsDkY5nHPHX51NbeBlsCCe6CMALEhsg+MUSX1Z5KDGYIT6g7qnucd0AiIPUU1pbqHcURQwXBDpgxA4AiqjsmWmDoH+mSTHcbnAAgyOn59arrSjvMTEBviSGge+n9MuzUKs+yHE8cSJ6R86Rt+w/x8vtccfrpWZQxqTtCMh271Mx8Jyc8z16UD6om2UgYnM5zWa5/o7PGEI8Jz+v1gLFsck93r05MDJxM/wBKqyWMagQEkcrPvkeYNDbt7oVV52D4sYHTzFaujup5g/r9fhWkeB4+yfiCRiD5z0/qRYSVsetaBkuKLiuihxu7sHbPifFevn1qHUQHdQg2gsAQSRAMCD16UBXdJMnHWTnwmPL8KxdwXHBHTpBHl51qq6Mna2YNYAIFteCJIk8nOeuanJQwSozBIG0DgSM+YNbtXDyhaR3j3hGPGguJ6x2YsMgEzE8Cng10yck+0N6HV2kJFy0HBA2y2wrzJ3IRPtRHl5UDa20QQLLBgcEXHIjpAmMeZzNINZBB2xA6znp9o568Cm37MuW7a3chGwH3LEMvEAzBG6jd9Bqg0uBwYstMYbc5IJJMwGgmMfyqN7B2hgckbjlxjcVAzzx+PyktF7RKyASNpEnjunJAIiQOvhU964fU2hHQCIWTAGSSJnP/AJUYq6JbdWhY34thNnDbt3fIPTmfyqBhg+cnE9TUl7UOE2z3cDaYK9DG3jkzQpcO0sAJ+AgR0gVSSTE22kyGwH3YJUHltpIGPIGoHD5GSJ5AMHwqYX2AJBPiYYH3kgHzqK9eJAEnHOTHgPd1rFtfpul/CGDnn5UMHwPPhUlu27OFUSx4A5OJ/KtvbdSAQwPgQ2c4jxqSjaXCMknggSSYHhk++ofrASB5np8qO8xXutIInmoCRHnP4UpNLRUVeydYXvSMyIEzzz7qyljmsqMh4jH7S8hpyMDyGcfifnTOlvMSTMYwPAZMDyrKymil2R9oafY0TPwjoD/Oiu6P1ew7p3pu4iJHHOaysp1t/wCEp6X+gWrMrvJ68f70LttMD9YrdZRL0EXtg3GIM/yA/KhB3HNZWVIycnp0o9NqDbbiZ8yPyNZWU4jZLe1IPCgGWkgmT3fHn8a1o9UYIzgfaNZWVtH0Yy6ZJpr83Q5HRjGPA+UdfCldMki5mIUn3xOKysrL0aeyfVk7LUEiFaPLx+YxSpGD7p+c1qsqkSwis7RxINaGAfID8yK1WUkOQzdusYEmAKc1miKKnfncCeI8Mc5rKytYGUvZAL5C8CRABEgwfHOaXF9iRnkgfyrdZV2LFUWd7s8q5X1hI9wFKXdMQpO448h+utZWVVaMr8hcW2ADbzkkR8vPzq0uJFu23TiMjoM8x08K3WVnHtGs/qys1Ps/L+VauN3OMwDMnnfHE+FZWUT7YodI32X3geRiMGMGJB8QfCrE6K2FwDJzO4z7vP41lZRisUJyecl/BM6pgAQTMxkkjmJjxz+FOajs9mti41yTAjBxxx3qysoXYPSRRapNpEHmo7YBJnwJ/KtVlYT+zOmHSJLtoAwKysrKQz//2Q==</t>
-  </si>
-  <si>
     <t>Rural Town</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Urban Sprawl</t>
   </si>
   <si>
-    <t>https://996realty.com/_media/Images/Zones%20Images/CUL-DE-SAC.jpg</t>
-  </si>
-  <si>
     <t>Highrise Urban</t>
   </si>
   <si>
@@ -217,15 +211,9 @@
     <t>Great Palace</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
     <t>testyear</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/1/13/Buckingham_Palace_from_gardens%2C_London%2C_UK_-_Diliff_%28cropped%29.jpg</t>
-  </si>
-  <si>
     <t>Veg8</t>
   </si>
   <si>
@@ -235,1519 +223,1498 @@
     <t>Typical swedish wooden homes</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxQUExYUFBQYGBYZGh0dGhoZGiIfIB0iIB0fHBodJBsiIisiHx0oHyEfIzQjKCwuMjExHyM3PDcvOyswMS4BCwsLDw4PHBERHTsoIigyMDkwMDkyMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIAN8A4gMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAIFBgEAB//EAE8QAAECBAQDBQUDBwgIBQUAAAECEQADITEEEkFRBSJhEzJxgZEGobHR8EJSwRQjYnKy4fEVQ1OCkpOi0gcWMzVjc8LiJCU0hLNUZKPD8v/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACwRAAICAQQBAgQHAQEAAAAAAAABAhEhAxIxQVEEEyJhccEyQlKBobHwIzP/2gAMAwEAAhEDEQA/APmc2eBzBer9ToBoza/g0J9rmIc0HW/VzaDTMIpxlqGZydgHDswG340cK8PzlOr1cim9Sb+msISoL+WuA9K94XbajP8AJoekmmblIUSQCxOg16N9AwNeHQlNUg7kCrs7Udmo3wiS5QRLyh1P9mtbXFaipel4CcAp+HzLACho4ceel3+N4IiYEukJytbK5NRdyxLFvUQgMWQXFBsAALNUBhHEzCpRL9Q9Re1X0ep2godD8ueFKALgg0JLPd/leusNKCUihA2FaklqkFyH0Gm8I4chS0sQqhcMSE7EOGf3eMPolpWWLgnQDbY+DX9bxLEyeJw3ZgFk2LtcKzEbVFhYW8hHD4d1PpqTceG/jTVrQ1jcRlAVdQSwo5J0tY94sNhHVTMoGYMWckH1NfNrfExLbEQxBmBCjLZvAF922BtSu5hEKWAnOMoFVNUm+3gB4bQ4MUoqKS9rPW++311gfZFSqNl0DBT6DvUJfd/DcT8lILgJRCSpiHLAEF2Cmd6guNQ9tTUTWs/ZcAZh40Sw91/FgXgxJJTctVyNBTZmP40ERxE4pSCQ9SLszVIPobbxN2xCs1JCXNAxtUuWYilqsfhUmG+LSD2s4vmJmzCWplBUSm7MWcOK/gniVJZAUHJVuxDFnHw6g+MNcSmAzZoNHWu5ADBRsLkUdvAGgDPoD0uWAmiQCLBg9mtezHqlhsYLLllNTchnA9Tu30+sCwyqFzX3jbS16ltRuYKpw5SoD/CH0q1fda8Q30VFXkTTMKzc3dmILA7+besOokhkuOY8rEvr6ByoWHXpEpKy6Q6dHrUhw7O43vr4RBBICVKukKLUL0ofUA+cF2XRCYpycpcEu9qVa9TvfaPTauLuA9j8QSdPdCsmUAWUsktViSCxD6Uq1DUvtB5ijTu1SK23ccx6dB4xVZIYniQQQl3Ia6WJoDS516Ve0DmS85CATYEgJ0Z61u9Pw29iXLELItTl2FO8Pe7Q1hMOHKj3lBNSxsAwYUNOml4u6QBJcoAhgWSWZ2BBDPu/mPGz8nTmNBYWY1vXXqz/AMDJADEqLh2oRdt67enlEJySpLpAVXWrh9ailXeuvnFksrp01XKkGqjvRy1Hrq9PChaGpExieYEZXcsQHdwT06tYeTOIk0fMSfmaFqUGg8IWVLcEpYEsQSS5LAiuvndzRqF2mBL8oRsI9EfJXp/3R6CkBXTpyEm1xSlD1bWtfO0ElodSiQlXXvGgs1aAN5PWjCuxEtT3JZ6+DFgTcgFPrbfqByJW7qzEANtlNT/WjSh0WKhtzdC7Fwdks7tc3aJUcgAb38diza208ISGJ7WYB9kVGlgTbd21hleCCuYGrgAlwOlW5ixG3lohUFmSBU5GA2Dm/Tyoem8JYqSkjMilKgitLk76Oa+sTxE5aVAqAAOoF+YvSoBd3+jCsydV00BI5fBtHOsNIaQ1gJaQkkXpUsR0DesWWGkrBzZUsLNWupNKD013hLAzyVVbLWzJ6ta9w9XtDnaoKw1VOw5Q51ahA9b9dZYmeSkgvmJIJommalRSpHU7b0gOJxRIz6NlSCK1JJ1Jqz16Wg8zEBOUOFTALAB/xIPT4xTT5y1liHvlYevjb3QIaVjkiYQbsVVfp4+X8Is8G/ZULEhgp827GmlQBrfrFRhApnEt2SbgmlnA2vWGcHgJikO8xNc2XLsaM9RZ3tClRVMsEzswc1LFiHqLUchxbcWrAAvIguNU+bvU2dgE0+UdncLnPyoUxBNASA9XDWqGY7DcMYcMnlCgqUpTqTQIINpjgJNjUVfUbiFjyGx+BJDZ0EjMXDMmlwH/AH7v0MbjhXs9JxCBPUjIVKXcrLstST3ZydQ7ZQATRwHOTwXBcRnQDJKXLOtkpTrzFRGUdSa6Vofo/AhLlSJaFzpLgEsJiAxUorUHCiCxU0TKXg009PPxIouI+ziUFQSEqSwPeWitSr7S0sfCkY9c3Mch5XYjxdVCSL0vuNo+k8VnyyaTZZBDHKsFtK+tI+en2fmmygzEgBabmv3qipubDrApLsqem0/hQCctQUGFHsWF70Fh7r0g05H5t1AkOpKQTRJ7SWTWznMNtdbFRwTEZMrpeoBzjwBLV6ai3WLLE8MUQ47wUpQo7BeQkuAa8rAWhqUV2S9OXgoQpVE7WYtqafg3zieImhOXMlvzcslhZ5aVEe+nSLH+Q5wcApT4ZzowB5KU6+UEXwSaq6g2VKSGU7pAT91moDoQBC3xJ9qfgzePnS85oSabEFwDZqtFgmbQAlyRp+qCaAbFvfF5gvY9c5eXOBtylgpj9osWDOaUA+1aM/jcL2M1QmUWksUn7JSADVtSH6v1i8NEtVhkkICk5iKPYbc5PlRPg4hxJ0AaltG8CfqmsLYdYIuWpq1m0Jv1H7icLHi16fXh/CM5kshPDJbwLb2Jbe7U1pCfbcyCXqkbCupJu3WgtoIcxChlU5JIBBHrbX6EJLWxSyi2U6V7yrV0GlBrrFQ4AYzfon1P+WPQoJkv+kP9lXzjsOhFTPmgmooRTcbbOQwG1LR5WFIGiv1f4daeB8DxUqlXYenk41q34waTNCmSQWALUD0YgJI112jUoX/KVMkPRJcCjDelj19IJ+WzAXKq1DbOxP4ekDnBQZKkgG7kcxetfrxieEwyphCakJuXHKHqanxgYBcyijMSCOlx402/DpHRKcp0Ju9Pdd7+hhleHKQBzhnoBtuQNn0ox6xLhcpUyYMpUtVks/RgBRz0+UKwDoSAEhKVLUVcv3nOzXqQ1HtGr4HwtUnmmLKputaS9wnQzN1WTYVrHeD8LEhlKIXNZipx+bFlJSrf7y/IQ6o0br97zt4aaXMc+rqViJ06OhfxSJEAfxPl/DzMTM0/eVv3l+Xl8TaALrtbc6kadfU+ESArff7R9X33I8BHMdoXOrdTeKvOu+5sI8CTvd7Kvuz329TEXo3hv5U+A9Y9k366Hz/eYBncr3HhT1Lk+p8ogJQuE/4RTaj32HV47l8GpdB8j62Edy1t/hOtf7R1OkKxUdysLEeSdLh/Vz84IlZbVv6o820GwgS0aMLj7J008Bf6rEoGz0N0FtK+A0gHkKVEfeHpTr+sfxgaiT971FP0fHcxACh9XyH+0epsI9loeVh+qaDXzMFBZIk+PmKnbokR4E7jxKr9T0GkczEXBoGLJ9Ej8Y8rUMetL7JH4wxWeBG481nzUfGJoS5ABDtqTQan62gZRu9L0FToPAfh0i2w4RhpKsTOPKiodqqBAAA1YsG1XlFMpjTThvdGWrqbYintNxxPDZCQlIViJlkKslIIJCh1pmG5SmoSYrPbjh0vF4eVxDDjlUkCYBcAcof9KWr82enZmMHx7ikzEzlzpneVYPRIFkv031JJ1jVf6NOOJkz1YKarNJnnKyxlCZhGXKQbJWOQnfIdI7apUjgabyyjwUvIAFav4fZHqbs+kMhQZwfX529x90Ne0HA1YefNlrJKU5VSyR30qmoSknRwnMCGDKSdKQmmWJisyboCnBoCAM2U+FCPWMpLJLRDtCjMSWTUhhagfxs3h0hefhAoBYJBvSpAzTAQwufOr0rd2akrSQBmKkkAC5cUbx/DWATO6eXlZTEhwbHu0LfvhxYFF+b/AEvQfOPR6ZhC5ua7D5R6NMAOKmMkN30mgcqobvoT4DWnSWBlAOtZylQAs1HAWTqCQKtoowNGJK1sMoUQ79WJfcEXF6gWg2Ys5AdJdVQpty41NPdvDA7iClXOUAgm6gxawtWw3q2sEwk1IV2colSTXWpbrUDT+MdnYggXJe9HF67PpXSmsT9nMOqavJLlpJBfbzrQJapJt1iHlAODhy1kJSCVKUwQDUhmZy3iX2cxpeFcPEhJA5lnvrFtsqP0dCq6tGDCDyJKZacqauGUtiQofdTqJfvWdhHlD6y7Xr01P2dKxzz1OkdWlofmkFJP6XqB+75RxvFvEfD8NbmBhI6eaD5U+A1uYKR0/wAPrX4nyEYcHZycFf8A+vWvxPkI6fqvpT4J01iJFK/sHy8thHW2/Zr1HjudIQzgT9Zvc++58okT1/xH4bbC5jz+m2Whb/pHvjhLVf1T7z8AIAJN1H9o66/rH3COgU93ePoOvX6HD4mle7b/ALj9deD65bdB1+tKAEQfP+satp4Df6PmPj/WLeP6ojrhq5dqD0SPnHC1yU7UFz90Vt9bwCPNt6lX+I9On0IhyzOBcOr1UfrUx1QGuU70vsBsPrd/BKd0XrS528B9awxM8E+I/rWGqj1iQTYgNSjqNBufGOFI/RvVhc7XsPrWDYXC51AAA1GbKKk6AfXWwMNZdIJNJWxvg/D86goulKdbsHZ2P2iaAb6HKYouPcWk42YqUyuwlLSiXkUwJyrdT6pABAOvMr7VGP8ASH7QDDSRhJCvziw8xSfspIamzh0p/RzKuoGM57AySs5Al801CT0GRZJ/Dzju04KCo83Vm5Ow+M9npUtMqchCglRWRmUS5TlFjpV/TrFRx7AZlZ0Dmo7a9fERvfbqR2eGwSQ1UTiW6rQW8gW8oyM9IU4IoUtGc5NTs7NHTUtKn2aaTiTxLAFRD4vD0mJbmXR3Zv5wJe3fQofbjM+zC0zEr0OUkuSaMU96rtmF61F4S9nOLr4fi0zHJlqGVYF1IJq36aSAodUjeNX7Q8LRInCfJCOznJUpK0DlJUHUNWSSpMwdCB9kxpKqs43FqVGVw+DecJKVEuO0mKOqQe63U0/rG5MWnYAMMgOagUMoAs5Kqt5kUEH4bKYgpcTTqzgBwEh7k3Pn5l9HD5lGLNW//TdN3pGTbfILBVfkCvvL/ty/lHIv/wCT/wDiK/vP+yPQDwfLkFUtRIA7rVqzgEmnXzYwbDYmrF1BqjRg7ne1fI7x2fKynNQjxGuhGo8x6RySGWFIUUqDECzk0KXFqULbq2joMyYl9ogspi/duAA9XZxQE+XWm54dhE4dBlSpSi7dos3mauAH/N2ypdjcvrh0yiEkXT+sAAXG9NukdlzFTVJSAFlgkFRBIRQZQCXCQ7O+pZqxLSayEW07Rv0Yos/ZzDq4J+Pg1euke7c6ypmmn4OzDQeZeM4rgpnImAkFKJeZBNklw6dyCHIuO90eo/1aV95HoflGOzT7OrTlrTVxyb5M4n+am+QOp3e53jvbED/Zzf7NNrPYbRgP9WVfeR6H5R3/AFdmffT7/lC2aXk1r1Hg35n0fs5t9q+N79dI4Z4f/ZzbbG3rbf6EZPhPslPnJMmSAtZmIUGJoMswKJLUD5amPpHs9/o/weBl9rjJqFqPKVzF5JaSaZUvdT6w1owfBlLW1IupUUasSkfYm/2T8HoB8THE4tGgmX+4u/3iW9B9DV8Y4CqQM0qXKmS7uJSMwG5ZLEfpCm4Gua4rhhPSywRsqWQgjbmTfzcecROEIvNlw1NSfFfyA/LUbrA6oVTr3ak19Y4MdK/pCPEGl/0aqLfC7h6HiHsxiEl8PiVkfdXNUFeoofQecVEyRjh/Ozf74/5oa09OXEh7tVP8P9m1OPl2EzoOlxtUn6uHkMYj77ULdB0bU9PlGEMvGn+cnf3p/wA8RyY3+knf3p/zQe1p/q/ofuav6f4Zvk8QQ1JiRtWwr6q0p8ngnGo/pEDaqaDU371IwoGOH85O/vT/AJo7/wCO/pJ/96r/ADQ/ah+r+ifc1f0/wb2VikqKUomJKjRKQRTye/yPWLTHcQl4HCmetlLUGlptmJBDjUZmNbhAUbqY4ngeAxnYzcTMM5cuQcykqmEgskLYjMaW0b3xV+2PtErGTyvmEtLiWlTOH7xLUzFhawCRo50hpxi7WTHU1JT+FqirxuLXNmKmzFZlrJKj1PTQaAaAAR9D/wBGkmRKllc8pzomhYClIT/NLQKqIonOTrVow3CMJmOc2Fupr8Gi7RR/P4CCepTo109DdG2ar2+4hJmowyJK0q7JC0nKpCrmWx5FEB2N4yqxWOrN/AR43jCTt2dmnDZHacn4QKw85TJK0qlBJUHHN2mYdHYV6CLb2OxapmGmYKczoGaSoF2ucj6FJJID91UwUpCmFLYaeSKdpJv4TtqwTBYqgUEyyl+YEd5tn0FncecaRnSo4PUyvUaITJC5bhZcpsEEtoO+ALP9CLHDzcRMSMqyl7WVqD5DSK/iBBKipKQSAXc7gnlehIcAClDFpwqegpQAlJZ6OzsXHTS8Cowtgh+Vf0w/sj/NHosfypP9CB0zW/wx6KpBbPnE2WkgAh2diAQKO4v0Ow9KiQuYVMJZJYsSLODrTrV61vDC5SdUh9K6tWr+PQM2xgiEBOXuqLEMbW3GlmvYRdmVikrhjqdRsQHSzNrTo3vtpFjKQlKgQEAhznqwoKhmzV12iMpqkFKk35aGp+8CT1cD4VnLmAgjKxUW6tceg19DRomTbAvfZ9WaXidggMH6TAXqQ9BX3wu3wg/syAE4oN/Ntr92a2g90CIjHUXB6noX8D+oTC4ZUxaUIGZSiyQ4DlrOaRo+A+w86Yv8+FSkJajOpXRLculzaKn2d/8AVSP+dL/aTH0LD4X/AMXMV2ihVQKBMGUvLDDI/idN4NOCeWV6rXlDEeyu4/7SyOGo7CRJ7SbT82miQS7KmTD3jQ0D9WvHzzH4idipgnYuZnWO6gUly+iUW+epN41OMzK4XKmLWVqVMllTrSsBQlzAsBSaEONzBZCZMrASJysLKmrWuYg5jkNFKynMAdA1o0m3e1YMdJQjHfJW7K72Y9qp2EZI/OSQ35olsvWWr7B/RPKW+y5Ma1WAw2OQZ+FUlKx30KDMrZSboV+kmhvV3jNyOKYdakoPDpQzKSCU4hVHLO3ZdbR3geECeJiWhS5YE2cgFKqhKc7Bz3hQUUCCwcGJTwlLKHJRm3KGGsnsShUuYZczkWGdBFehDEgpOhFKaRCfhO0BJSuwrlI9XFfpoXnYyYvE4yZPzLKJvZpShSkpZAWkMjMwcSwS71MLcS4KJnEsFKMsJlrQhR5RZS5oUX+0SlKQCdwdYXsR5sleondVkryBmOUuA4fdix99PLUVjhR8I+pTsI84yxg8OZYUlIWpnYsCcnZ6EsBmrS2iPDESJ8+ZKGBllMqaqUtYSgNl1y5nYitAddoHoPo1j65VlHzsprHgn68hDXEkATpoSGSJiwBsAsgD0hdvryjCjvTtWaz2aH/lXEPBX/xiPlE/h57RKU2U3lZ/R/hH1f2d/wB1cQ/rf/GIwCU1B8P/ANXyjeM3FI4dinKV+TklASABYAfEwwmQpirKoJY1YtZOsaH2PwvaCUh8pmTwgqDvlEqYtQFWfl1eG/anhgl8Pw01YBnTZmZSmqxlLIS+zGvWDb8O4XvVNQSMidfD8Y7r5fKOfKJbRB0jGHSfyablv2sn9mef3+ED7VKUlzo50KW5np4F9GBuLtcPlA4eaoqZpsq5AFprX9d7mE1T0B6Bi5JI60JOxAuXFIbt0eX6hf8ARgJiwosSQdb73D+6nkKxa+zuOKJpKgSCGLkMCC4JLq08L6MYRCZYAKGIZ2SRyv067/CDIlE5WUG0QBXR3PuFm60YbrgxNH/LCf8A6dJ6sa/4I9GX/I+k3+8Hzj0PfIqijlAE2IBcXBFql9LFjTyjyw6gSAEpB1cWcgdQaaW2aLKXwsvVSQCRrpdRFHLPobt4xEYBaipyWLBWYGlTm6UcHSwrWNd8fJCiwM12HStWuzGrM+/h0pKRJmZnFEk7nc5aENc/CDzcIlPUl9QWG/vLPHFrW2cJJGiUilqPs3SjMbCJ3eCXgueCp5J5BqZaiWev5te+jWaFCdoN7LKUfygKSpP5lVxc9lM1/CkQ+RiNRUl/uz0/Q/gf1HfZ9bYqQT/Syv20xq8T7QJ/lROE/OBfalROUFJHYkgZs+Yb0ToOpOQ4dOCJ0tanIRMQotflUFUfwjaf6y8NVPGJVhlpngkiYUJzUTluldeWkPSlFch6uEpNNKzJcJRl4atCTMUkTkLBXL7M8yFhqLVmFHene9LjFf7rw23azPiuG+Oz8GrAlOETlSiZLSoFJB7qylyXKjU1cwrP/wB1Yb/nr/6zFSdydeCUq00mqz9inwCvzsv9dH7Qi74P/vf/ANxP/amRR4L/AGiL99P7Qi74V/vf/wBxO/amRC6+o4d/RgkJJViQADm4iU1JFD21iFJrQXLfhacflZeM4MU5ZUsU6TFi20KYORNWvF9lmzJx+Y5Hdh2oNtHIeHPaQNxrCM/+zlj/APIuNZcL6mUf/SX0+xpOJzjKOc1zTpSEgJqSuYhN7sHzE6BJjFey/G8nG8VhiEJ7VcwggqdSkLWUiqiHyFdgHMaT2v4FiJuIwc6SpTSp4VNSF5QUZ5ZKiCoAsEKDByQoiKaTwLHji3bqXNGH7UqCUzFFCgVkAFGdgAlQVZqRs2cxk+IP2s179ov9owtu31SHeJ/7ab/zF/tmFzf62Eee+T3VwjS8BU3Csd/WH+BIjCgU+v8Ahxv+Bj/ynHfrH9lMYTMyWeru3kitm031100f4Uc0MSl9TUew5U+HZTD8pVmGfLmaRNYX5ubLyh7dCYt/9IiWwWEDvz1PUSVP9dIS/wBH+GzJRMq0qepZZClEvJXLFEijZ3f5wT2+xsv8mkSErSpUpbHnSVH82oOUgkpr95jXW8a/kOav+5igLeBjw0jw/Ax56CMDuDrSo4aZlSpX56U+UPTs5/ppWKYrzEagnuksXL0FWra+nnGt9npaTKmZv6WUxex7OaH2N9f3FmbgMKQEmYVTFUClEZe8DmLBRQWBADhy1wC2sWkjy/UK5sy+DwK1IUtigBqE6FxatSSapLW1eLTDT5slCVLDuXJIqACCzNUOALGhLmsW/GMBJcoQpCitGZKAgKTZaUqCysJIIc9093Xumu4zgmlqTmzlKc9SzMTnOUEklknmLEMKDKGTyZ0qBfy9M3/wfvj0UP5BMNc8utdD72rHorb8zPJqyFaEt4H690TS41J8S3utHCpmbUtQk3fQOW6wSVUm9C1xHJYkdlK2byaCBR2hZcxlZeY7BmA6k1atnbo7iGUIY95W931iordJLyDbo8Jqcsx8oUUTABQEvKWKDWpApvFA+/X4xqMdLw80JMzGJkrlqFDKUqqFcpzAgOWB6Exo5shB/nkkAMcyVVpsXpaOvW0oqlF4Or0us9OLTR82Pyjqrf2o36uBSS9MOTeuUGpoe7+MAmezMotyS2r3Jher6ZhqfoRh7bOxerj2jO4L/wBFP/50r9hcWUz/AHVhx/8AcL+C4jxjhv5PKKAnKJhSrLmcKKHBLHMoMFbsxNCziuxmOUiSjDrcZT2jJ5kjMkl2S57qgTcijAPDWHXy+5hqa8ZLHn7AZCWWkk/aHxEWmBnAcUKgxHbzSK0LqW1a3cb31tFXMQoJJSrM1e4oWI3AOo6Bw9w4JOP7VSprXWQTXK6wSXcEZS+qiDXzTdELWUbXlFgOMz5c3FJlKlhM2apThlO6ld0mhSxoSg3BasVasXOXOz9ooqlulK0cpSOUgDLYupVidam0ezkOpJdwDcOxvVJZqAuaXuwjmFACFMQpSlKJAIZxlHMKM9bCrnwiXNtGa1mnfZcDjE9SMi561BTUUoLSRR6KCi4ULe7WDSfanFy1ZhMckOolAOpIBJ7oZqBtXJamdxK0sUlRcpUkt3hUZmDsSKC7XBy1c0maUAJC1MA50IZwE6hgKvUUIHQ3SXZXvJy3NftR2esrWtZZySpVQmpJJYE+6IrSxINxf06QwtYoEsSHplN6q7w7oIKRQXr0IJmIzi6mH3i/4n0oekZpts7tP1CnKksGp4OW4Rjf1z8Exgl/h/kja4HGJTw7FSj9okoU/eIAzJAu4DHz3EZLEraUkFADAHPqwAo/Wh9I2bwqJhNOUmu2CRMOXI5ykklL0Jdnaz9Y4LAfXcEDE4aOqp7of7X74YxJHLlDAUN9qM5oB5uxMPa26HLWhHsGnSC4bCTJg5EKUNwKetvJ4e4JgQJoUt2S5Y7kctLEVBr7ou+3QyUqLhIukgXd32pA0lyzGXqvCM/iFLkSkjLVc0LDEGiZa0b3zLBA2B2qPEzQU9okh1BiKa1D1Z23cmnm97RylzRL7NCORwUmgysBVQBUatX5kFY4BK0sUISoCyVklNraG22juKGCW3BxTnuk2xOfiRdZIAcCuUgd5Ts7VLgA16wth8ScpBSVObABQFizVBNt+tGh+ZwxS0ATA29gaU+ySHFdbqcNERhAKpMwLSwzM7eiXv8ATGHFxI4OyJpypaXRgzAszU8o7C/8mH7w9Ff5Y7BjyK2XM+aSkgACm5LvflpRtY4MSrKoEqoo1Aq2xoAGfLUgW3DrJ7zB6Mw9BcVbrAp05zzaEkFSiGyhlc/mzVsYzUQHJQdlKL5jQvUszVBp5FutWic3MSEukOQApyG89a+PpSEpJZQJA5UuasC+ofmU5L2oxMLonZlAKUKqysQ7O1yHaxYGlqOSIajkEXaeGSpyikKSUualWUAZiwF3YBNmv4tajg+JHdUFObpmgk6atFJh+HKSoqTUEcwzBhsQHceFYllX9xF9VKB1/RBbrbrDlO3nP7lU10XQ4bixUy1s1woH4H3dIVnYaeXBSsdSCQfIO4HlFemXOBfK3h8+0Hq0MSeI4hBoqYWLsVqamjDMW6RGP8yk32Gn4FeSiSARUgAP66a7Wilx2EZiSlT0IvUMSxLvoagtq7gxbjjOIasyYWfvDMahvtIS9n9XeFOMYlZlKmr3IsKkB7Je+/TpDvISaZXYfEqYjtVlLkFyQCEkscvKCKbMwZyxYMoJlqCcxCSTkdTgBOoDuGIVWt9BQzwbBJSWS6gdMzsSkEmjsB4PDEuVlBJG4BABJrYNQkswqWDw5SyyaBYhBnBkEJCXCFAOWqWzPzBj9lgSSQRElLcVy1DDMGCqAFxZTF3SFbAu4bktYFMtbhVNaFlOCWLAJIYsq7PAQXJISEosaF1AA8rZgvKCEhmOtALz8gIpUiZMUkJKiGWQpRLaa5iLZWFPIwWXjgVAJcBlUYJSoHKCdCUukuTqCOhApIRzEtmBcZTVyH7tHDtS1PMGGxDk9m6kpbKSoJAJJrVWUGpLEF828XSYxzEKcKIS4YigIUK2yguKKJJc0OjtDciakywhSASoUKaMGI+zWmlSCyRQsRVIChRKQpRBsetaWQlzcl3JoAYnLxKMqFpmtMNTlFMzBTNdTsAAHJrtzG3AJ1waJMxOVH2kKzEyxnSCSz8wV91I1ozvqQoweFKlCZh6McgTNUFJBc3rnoWze+K1HERlzKIaxKXBocrZLmgJIcEbEVh8TElJWkirC9C4JLuASbX6eWacoux7xteAwRSeSaCxAqGra4c26H4QghSAoAX6JHqGvdm69RA8diiBQJUoEAOooDq5R5gnN0AL2BgPatmmFrMklSQk0dnIYmpYG9bUMO5PLHdoIOKP3U1dnozkm9HBA8anqYnPxygFWASKuWAY6+W12IDlhCmIStK8zhjzjMGIJDnmBdrAJI/CIE5lJUgLIJzICTZwHc0Idi9dau4i1GLyZtsv8DLmKVkcSwRzdpyOHDdS5ANAwpWzuzuDLSkqC5Km0TMqW2dNfWKBGJIJbKARmSBdT0bR1au+28EXiWyhR5lUqWBcaM9KXZvOM3Xgrcyw4XJViF5ENmyvlJZgDWu96fOr+J9m8QEqJlAhIUSxCqV894zap5AdgGUpKNXZzTRu87apN6w5JnAuUku4FQRpUW31+blUkuAcvJLs5f3R6D5R6Bflc77/AL1fKPQU/IUQl4QTkjs1d8Aga5TTN41atnSbUKfGcMpASlRQpajlf7SjqAlrlTWq77h/TZGJmz0ZPzQksoqUE5S1EjKCCoFyNAxNYnxWZJkKM1bLmyxyc62BYizFNXa716COtQSDaKzpvYBlILCWUrd0nMplgWqpkqbwFbxX4jFOgrlpOaY5ZZUSx5Us4YhiGqfeIseDTpgmTV4olK0t+bUkBqPnCdXGZPLVsz6MxgcH20xcxKgEAgozAaCvKbEkPpRt2h0ohQnw7iMzIXStCg4INqpKszNcsbdHFYjiMXMUVMFqflUGIoLai761vF7P4WpR+wkKZsobY2ar3qat6xRgUIOVknKWCilwwAdiQzAbWcxk1m0goFgcdNLBQUgWYJNeuaobqIsV4otVxtb69YiqcFMxNgQW190R7fckn99vSOd56DKCDF0dn+mgU/FIIIykAAm9LMfrpAp5OlLkkBvH0jiplQHfrXwhBuZV4lYyqUEMEpLBrkWFXvVLhgBm0jqpy1IP85rmBBbK2gHMKkUazs0WmOwSshWkOqjDzpUsBVr/AMa7haEqlU1SSTQkqDFspZ1FyRpQNW+sWpIKYuviaMhWogEMSVE8xBDJyfZPMA+gUYFiJmVKZys+UBlHMCFlQCK2ygNmyHNRZNGIiYXiEiY5VLDFKAQAxDBN3JcAczv3mYmvcPhc8shKU5UpRkCy/Zk5krmMUsSVBRAJ+zRswi6UciaAoxiFOp1ukDMVJUxILlLAh9bitTumIrmTVS1TJalkTEgJSARRwkA5crEkpZRdwDpFhxKWoSyVqDh+ZLhzmK0p5jlJoWoFAesB4lRLlJKn5UpptnDvloC+zgN3YUZIQOVOUJXaKdOqs9FUoSElgHyvvXWwlhMWVu2aWcwC6AqD/aCdzRrPYA0gHHJoSkpUlSRYpqCNMzEEBylg9mDMzQDhM5Il5JSe0JNc5yM9A7K2atnfdzSjcbCrLNM4ijjvHvAg2GQGjUqejjcwGZikySksnJQMlyquuV9HO9hQFoIKUExISGGQZaEgMA4YqFTUF60sIqsfjFIHadmuhIBmVA0qGBehGUszPpCjG3QUWyp5y8gKncsCg1YnmClJV8gAzgV5KkLUlMxKqqIWRlJoauNNPs23YPFXxDDqniTnWnNkOjZgVs4pa21xSLBfDlJly5ZmTMt1pFSHASCGqPCwBL2itqXeS4xaJYmaiYwSXs9CE6ZQCbEmtdqUj2DnhM0lRACCpNGZ7F8xZug0b+tzhKEzFTFlQCAsJSAzkJL60DgtrHZnDEodSdbhRLG4drOXts8LFOIOD5Hw4oFAggnKVIalfs+LUV+1EJS0rlghAKgS71KcqspdAGYixZy/ugvAuFLRLKFZTzZgrIQhiHy8zOASavVgIbRwkoSH/OKSSQvKE1U1WDuWHeNWiNj6JoUmzHcgd4jVLCgNwylAh72NqF4OkEpXnlqcE5OUuXo5YuQBe9AQ2kHkSpcsh8pXRnuk5izMNTWuredlLxqGVypDFsytSS1GNnfSBaaayNIp+wP/ABP7P/ZHYP8AyvM+4rzNf4x6NNgbUV2Bx2HM8zVYhKJplqkmWrlAqD3iCCpxoRp1gfG+Ccq1BSAhQGeYUklKQxccxzGgoGjM8Nl9oUFSQszJgRkIaiiXqHZINXZxkIsKaLE8JTKSsFapctYQhScxyIBHOohRyvlIFqKG2ZuhoY1wfDIRJly5SklWYlRp+cqSVZ7KDEA/q7AR6QS6y1yxJAsAcoK+j+QeF18MmSgqUmW8qWkAzVKlKJQ4UkBKVscwIroH3pTIxasRNMhE1pTDlIHOzEgqNgK1Gj3iasDQY5eImyk9mhipIKCVJGV2KVXoxrYxCViQEZpjZ099m7zvMSkCj5n5RV23oaepXaMsLUAFFKk5V2DM+aiXcNo5axgfshIZU95HKZhUCZYLOlgxqzHb5CF0MfxGG7GWCteZRPcAHKSe5Srp7r6kUaI1ZxYUru37or/bnFImmRJRMSpRmpSoBYLABjQE5Q6qe4Q1xbiEuRJoUJCU/m5YYEto1+lGub1jOekm8E0E7NxoALwWSgpqSG8oLw/iqVolqClhMyiNSl6MWLO9PEQDGzpi5gliqCVUSkkilFs9gQ1vtARm9H5jon+VqBDHwYs/zg+DKTMSSkEMbgEVSoWatzTwhGdi5JVLQmWrOubkKQkhgA5WygTlDp8Xi0kGVLqpAdNe8wHVm08BCWlJOxpsrcN7P4lWVSAez0JW6mYk1Kily/3RbWxjP4POV2ktSDLUuhWA1GFlMxAch+98S8v2lmonyVSZClYcgpmrSkFgpiMtqJISc55bxYYjj0tcsoQlS1KsopypS9y6jUt91xFuHzK2xfZmuNcHUiUT2iVlRcjsyQC2Uky0glQdyNQouaCiuKQlA5VKRnVQkhIUosLzAz/opDOVU2uZiApcuVOKUqZlAOylM6gkkVpYEWehZo5xbGGVKmKDEISWd8oIJYkgPau5Y7xSgTKMbwZnEYWevMESpi0FPOEKQolmKXTmOVjmqB+MLS+GzJag+HXLSQoJUtBmOphUkZSAxvUUoN96MZlTlSSS9wz1qfxI3udTCuE9opywEOJ6UzEhRWQxIY5QcqnVuNPOKXFIEkYjh+KWVBPZzQXJZSAtKOVlKGcAigFybOYueDcOmYxSgicQJa/ziVoYA/ZA5WJBFQ+pPK4EbPi3EVqQhMpISc3MHDBILWyuQKlm0HjFciehKsqUNmfNSlRW1iCGctcXgdPNDpFRxb2cnJLylIUscuqSHDi1Azux9Ing/ZiX+TqRMnTBPUAVqBoK1SR3lJalTWhYRYy8YldJcoApuxBIOt616veIrxKnydxZ0dJIbRgTzUPmYQheRwXDSwFCUkqSGBIqCNQSKF3Oor0hnAcQlqzFikIYOcwFKECgcCj0aAyJUsy1qnrUo5nyjMAMrlLjMyyXevRgGclxU8WJWVBTmlFN30liaEhmGhFYYiSeJEqFTcZSRRQsasaanYDxiqxuLmhSw5UknmYMxuHOhelj3fRqZMQpeYEAlQCUm5vTUUt72aI4vD9mUBdSrUJIAbKUVuXIsaWpeB8DQkVTMgxGZORCgClPeBsAQ1QT11dixhuWorGYOQom5uWzaahKj46Wp04WZVQWlJIAypQADRknMwO9Q2Z/Mu4KSQljMolsvIBlqSWIoCXbWzsIi0NpgvySXuT1rX3R6JSuFrYMmjBuV6aVJc+cdiqCzB8ImzJWJSoIJDskKpRgxGamYp9czPWH/aWdipqAlcjskJNbAEjlDh6HQP4u1luHzppWhRYhGtnvQ11JNR47PoZePE4FCCErNge6qgoC53qL0vQRruyQU+G4uVSZeElImKmBLEGinfMb2QLAH7ID7RY4XClOIkHEFKVKlzE5kkF1KnZgkb0UwHX1Rl45YmBFcoNBQFCszcqhYZbmochrQbEqSpYKjnynl5icrVc0AJF3ua3hSl0Oy4xsgPSYtqulUtwQaEWqRfyHhAOAL7ORNUrtVzM6zkCedrIS1spbMSAznygf8ppZSFTClb5XCXA1oyPfAcKhSWClgoFHAdwCO8cyWLa9IiLVDu8nuB4lGJnmYrDyylIKFdoylhVCggEUIqK7nUQz7TYCTLaamRKOZYQc6QwzKACiyasoMS1ifCGeGYbKpSAv/a5plaDQEZX8D4Gpo8C4twVU0KlzKIcZbguCaMCyjl1NtBFXkKBzilKpQADS2KcvKkMDmZIuRZzuKDVvgwliWrsMrdopyXcsxd6l2UzA6FmeBnDoK0qCEqWSEua5QSAOQuAweoHvNXJryiCCwJAIAY96pDaAPUbGBvAAcOSiesk51zQAkJQQE5cxUKEmo1/RG8D4tKnTJqTmZJftCWJZnSwU9XAD6RLEY/s5iZpHIkEbFjSr6i7Xt0EcxWJmFUxwEgqaWFAhRTyg0LXOY1NiLaJMCGFkdnKlplKVkTlGZJ5mrmOhelq1NqNBZGBQCoFgOZlMCXe5IqkN520ofYbLkBTPQqahyvmHKCva2Vy1tB5LSkLmkAzFS5S3PZpGRywISVvnygZnAIc9BCwuQ5K5UozsZKEkAGXzTFpcJAtly1AJqMoDh1DQgPcXE6alUrs1EqSEDKAUgE5iTMFE0oczGh6PY4jDskJkryFGUOPsVDnKPsizelYVwaViYJyllayCguWTzM4a7kBBc6AUh32OugfE52HklMpXaICgsJYLLMnlCS5saFIqHBasN8OmSjKAk8qUEAOnLUCpq1XJfqYjh+LzTMlJk5kpJWFKUUkrZ0lAAJIOYFTlqJDXifEZJXnLEGqFipJqCCGuCHFHps4MDdKgQU4wLQCh1ZSt1DlcZlBBBJD8rWehheU0tJUVAKKlPzZrqIDAl/7IF/UeM4uy8pQhIT3qkOapHKE1HK+hv4x0YhSUFBSCmqhl+0TbcggGgNLGJbQbbC/lJSHSoVUKu9Wct6iJ4NclBC1JZgoqU5oo8xLAsaPoO8WhLDSlTZRm9rMQkrIRYAhIYh1IJDkKDhrOxd4ZxeEnKUhQ7OVJQuXmSkqUohJe51LajUly8NYwHIpImzJnaTSCl2MqWs5QpvtkBsrmoBHi5aG8KpSQEKWo5mMwJCQCbhnsmjXcnWC8RSVTSlI5QBmWTRyRy7uwB6OK7r4yYhCitKiVFRAQGYHLTTTx+14REp5pFKOMhJssNpQZqhzSneNAakFnNaG0Fw0wzDLBfKCPn8QIlLnhcr9Igu1g4oH6U/fQwvNm0ZnGwDAU3+Q/CFLUSVGbaTB4mcEiYAoKWCAz3q+b9VzXwrAZKJpJUteW4ABzUBBDt4D1EFmMAWAHgBvvvEELJck6218CfSMnNvglzC9sreZ6iPQPIfvGPRO6XknezE4XFaHUhz6+61KWEWMhYUSSCzGm58i7CvrFNikJcVff+L/Xk8O4eYR6C9evwpWO6UeyyymSwolFU6A1c1dn3p87RIYUAkAHapf+B8zDOBlFIB1A7wrRQ6A+msEw2HzZvV/RzZy5N/hGN9IdCScKXUQHO+7PYdB7njiVKzULVv8Aw6Q8uSl2zZa11CvS2h8oH+Tixcl3s9jUve3x00Vk0QHEpiCir5SFi16ghxWoJDe6LD+WlTUBK2FnOZyAasD7nsNqRXLwjvlY1bXrfyG1YhMwCk8wYht9/o/GK3YGm0W5VmOVKhmJJ1AKS9KAkEUOjv5h/jWMyISeagSEmhUUkpBA0cuRU6pjPYSaoqBKg4Jym24pWzH60fxeJCuzVMZkHMGLh9CQ7AB7MKttCUq5KUkxnF4FKkELfICFFANC3dBa4fyJj3EuxGHUUyULIBKRkQKkjIS7OCope5vtSPEJxyBvtZWZWXqOYA6PodbXgcpCuyV2kxKyWS7EBkgtQklRza0rpBvzbLaXQ3hcAhJz5JaZ+V1LRLCeimAACQACKbeLexXEi8sTEvMWopdgLMXIsLu4FWVsHJNmG6nLhw1ailw+1vvdRCBQVKcksmqS7uXIYlq1I8vGHGTSt8iazgNMx5IUgcqlXJPdDkkgGj8uzWJj03EEuZNGIUCwJfIEFjmYJOUEULl33jkrKTmBOag9KdHF4fTkAAAJIJ+0daO1tbfKI3tu7BqxThnZywgUBl91z61duars1TZxDIJSvM7oWyhq7EDyMRRiTnKiHoA5eu1Ha4u371TKIUspbKVHKOj0u5+hBv2q7sVA8TJV2ilBIVmJcqYvRsx3dgLPDElGXvAZcwNC5PuBBvWtI4lSzYHzp9ax2Yk1BYRk5tiuuAk+e8vIScoLhyCQH7rs7NS3vicvGrysohYYJZgNXFmfasAyfqnYt8v4R4pJ2D2+fxtBvl5DIEynFLszMOpBpetYmqTTugkbuddjq3yiRSrp0arXbT6aIiQa0NjY/u8XhWyW2eUtxV3femrhm+XvEeCyxe3jt18Wjgl+Ir9X18/SOqCQ1L+n74RNAy3l4xxUurmh00iSVJDH4ghvdtA/yhiwGbpm+vhAINXc+kehftj9z3iPQwwZKbwlSVvQhy1Rozgj3eXhFtiVgrzBKUuQADWoDd4jMWT5ECjQVSXGYsAXI8U3JDfeZmPXSAplELIqbhi2hLA3cZtuhjq32smrGQoEggAhNEtWlGLMGNtfR6tyCDXQ7bingXo27wgTy6ULUG+73IPwHjBEzCU1DjUClH9NXiO75AalkEAqLFqUvpuRSlYlMkp25gz012axL1gUopYOKUYkm1GcCrDK7PDSG7pcqJe+o8aWL39YkFkAsAF3LMX3d6tvb6aITJ6iDllmgduj1o30Ibw8vOsIBa9TWzab6tb3wHGgS1MCTmcACgoHqCGbpW0FXlj4E81WIDkVYa1F9H6au8dKVA8poBYW0AZgb6j50cElOWxIGx8NzpSBzZLkGugAzFmfwaz6fhD6slrsIiwUWLkNprf08fxgoy7O1amm9A3TbxgeKTypJev2Q29egok+sLJeiLqID67PejZvc20S1Ymx6SxVlTd9raliQK9eh6ROgfXfVqlh4uPdAFIXLJFHBq250sHbf6DAxCkrypq7AAlrsDX0PkYNvTGn0zzgdDao3FWHXoRZvCcvN90+hb9r3/OFpWMVlGY0cfub0Pp4CDflAU5KlHeurOoxnQtwYAkOw9BZreFIkZVDUv40r+9/oQph5r5vB/wPvjqp24B9bs7QslMOmSHu7/ePhvEZxSAC710Y63r0jmR3bMNL/X17o4jCNpf46i7Q0xOw4nJbpW1oipZ0SWPiPWIICUsSHFqk+/6/cMGtDY+W/jBiicjCH2I8/poKJiTRRqdzeBKo923ubteOKI1D7val+sIE6DLkjf8AD3Nv12gS8Mk6n1bWOyVsO6Ppz6m/nvBghROhDBh41OuzwUVaF/yYVZlAWcdd/CIpAtRuhDeHhDJAAqG8CfK3lpHly0n8fr6/AhDaFu0G316R2C9nL+6PfHIdC3H/2Q==</t>
-  </si>
-  <si>
     <t>Veg7</t>
   </si>
   <si>
     <t>Shire</t>
   </si>
   <si>
+    <t>Bilbo Baggins inherited the home from his parents, Bungo and Belladonna (Took) Baggins. It was Bungo who built the smial for Belladonna around the year TA 2889. The hobbit hole was noted to have a green door with a round brass knob, all but countless rooms with round windows, and a garden. Although hobbits were of small stature, larger visitors were commonly seen. The grounds and home were kept by the Gamgee family, most notably Hamfast ("The Gaffer") and later his son, Samwise.</t>
+  </si>
+  <si>
+    <t>First Age</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>authoryear</t>
+  </si>
+  <si>
+    <t>Ref1</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>Oke, T. R.</t>
+  </si>
+  <si>
+    <t>Boundary Layer Climates</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Oke, T. R. (1987)</t>
+  </si>
+  <si>
+    <t>Ref2</t>
+  </si>
+  <si>
+    <t>journalArticle</t>
+  </si>
+  <si>
+    <t>Ward, H. C.; Kotthaus, S.; Järvi, L.; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>Surface Urban Energy and Water Balance Scheme (SUEWS): Development and evaluation at two UK sites</t>
+  </si>
+  <si>
+    <t>Urban Climate</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
+    <t>Ward, H. C.; Kotthaus, S.; Järvi, L.; Grimmond, C. S. B. (2016)</t>
+  </si>
+  <si>
+    <t>Ref3</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R.</t>
+  </si>
+  <si>
+    <t>An evapotranspiration-interception model for urban areas</t>
+  </si>
+  <si>
+    <t>Water Resources Research</t>
+  </si>
+  <si>
+    <t>1739-1755</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R. (1991)</t>
+  </si>
+  <si>
+    <t>Ref4</t>
+  </si>
+  <si>
+    <t>Offerle, B.; Grimmond, C. S. B.; Oke, T. R.</t>
+  </si>
+  <si>
+    <t>Parameterization of Net All-Wave Radiation for Urban Areas</t>
+  </si>
+  <si>
+    <t>Journal of Applied Meteorology and Climatology</t>
+  </si>
+  <si>
+    <t>1157-1173</t>
+  </si>
+  <si>
+    <t>Offerle, B.; Grimmond, C. S. B.; Oke, T. R. (2003)</t>
+  </si>
+  <si>
+    <t>Ref5</t>
+  </si>
+  <si>
+    <t>Loridan, Thomas; Grimmond, Christine; Offerle, B.; Young, Duick; Smith, Thomas; Järvi, Leena; Lindberg, Fredrik</t>
+  </si>
+  <si>
+    <t>Local-Scale Urban Meteorological Parameterization Scheme (LUMPS): Longwave Radiation Parameterization and Seasonality-Related Developments</t>
+  </si>
+  <si>
+    <t>185-202</t>
+  </si>
+  <si>
+    <t>Loridan, Thomas; Grimmond, Christine; Offerle, B.; Young, Duick; Smith, Thomas; Järvi, Leena; Lindberg, Fredrik (2011)</t>
+  </si>
+  <si>
+    <t>Ref6</t>
+  </si>
+  <si>
+    <t>Lindberg, F.; Grimmond, C. S. B.; Yogeswaran, N.; Kotthaus, S.; Allen, L.</t>
+  </si>
+  <si>
+    <t>Impact of city changes and weather on anthropogenic heat flux in Europe 1995–2015</t>
+  </si>
+  <si>
+    <t>Lindberg, F.; Grimmond, C. S. B.; Yogeswaran, N.; Kotthaus, S.; Allen, L. (2013)</t>
+  </si>
+  <si>
+    <t>Ref7</t>
+  </si>
+  <si>
+    <t>Iamarino, Mario; Beevers, Sean; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>High-resolution (space, time) anthropogenic heat emissions: London 1970–2025</t>
+  </si>
+  <si>
+    <t>International Journal of Climatology</t>
+  </si>
+  <si>
+    <t>1754-1767</t>
+  </si>
+  <si>
+    <t>Iamarino, Mario; Beevers, Sean; Grimmond, C. S. B. (2012)</t>
+  </si>
+  <si>
+    <t>Ref8</t>
+  </si>
+  <si>
+    <t>Allen, L.; Lindberg, F.; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>Global to city scale urban anthropogenic heat flux: model and variability</t>
+  </si>
+  <si>
+    <t>1990-2005</t>
+  </si>
+  <si>
+    <t>Allen, L.; Lindberg, F.; Grimmond, C. S. B. (2011)</t>
+  </si>
+  <si>
+    <t>Ref9</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Cleugh, H. A.; Oke, T. R.</t>
+  </si>
+  <si>
+    <t>An objective urban heat storage model and its comparison with other schemes</t>
+  </si>
+  <si>
+    <t>Atmospheric Environment Part B</t>
+  </si>
+  <si>
+    <t>311-326</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Cleugh, H. A.; Oke, T. R. (1991)</t>
+  </si>
+  <si>
+    <t>Ref10</t>
+  </si>
+  <si>
+    <t>1999a</t>
+  </si>
+  <si>
+    <t>Heat Storage in Urban Areas: Local-Scale Observations and Evaluation of a Simple Model</t>
+  </si>
+  <si>
+    <t>922-940</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R. (1999a)</t>
+  </si>
+  <si>
+    <t>Ref11</t>
+  </si>
+  <si>
+    <t>Grimmond, C S B; Oke, T R</t>
+  </si>
+  <si>
+    <t>Turbulent Heat Fluxes in Urban Areas: Observations and a Local-Scale Urban Meteorological Parameterization Scheme (LUMPS)</t>
+  </si>
+  <si>
+    <t>JOURNAL OF APPLIED METEOROLOGY</t>
+  </si>
+  <si>
+    <t>Grimmond, C S B; Oke, T R (2002)</t>
+  </si>
+  <si>
+    <t>Ref12</t>
+  </si>
+  <si>
+    <t>Sun, Ting; Wang, Zhi-Hua; Oechel, Walter C.; Grimmond, Sue</t>
+  </si>
+  <si>
+    <t>The Analytical Objective Hysteresis Model (AnOHM v1.0): methodology to determine bulk storage heat flux coefficients</t>
+  </si>
+  <si>
+    <t>Geoscientific Model Development</t>
+  </si>
+  <si>
+    <t>2875-2890</t>
+  </si>
+  <si>
+    <t>Sun, Ting; Wang, Zhi-Hua; Oechel, Walter C.; Grimmond, Sue (2017)</t>
+  </si>
+  <si>
+    <t>Ref13</t>
+  </si>
+  <si>
+    <t>Offerle, B.; Grimmond, C. S. B.; Fortuniak, K.</t>
+  </si>
+  <si>
+    <t>Heat storage and anthropogenic heat flux in relation to the energy balance of a central European city centre</t>
+  </si>
+  <si>
+    <t>1405-1419</t>
+  </si>
+  <si>
+    <t>Offerle, B.; Grimmond, C. S. B.; Fortuniak, K. (2005)</t>
+  </si>
+  <si>
+    <t>Ref14</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R.; Steyn, D. G.</t>
+  </si>
+  <si>
+    <t>Urban Water Balance: 1. A Model for Daily Totals</t>
+  </si>
+  <si>
+    <t>1397-1403</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R.; Steyn, D. G. (1986)</t>
+  </si>
+  <si>
+    <t>Ref15</t>
+  </si>
+  <si>
+    <t>Järvi, L.; Grimmond, C. S. B.; Taka, M.; Nordbo, A.; Setälä, H.; Strachan, I. B.</t>
+  </si>
+  <si>
+    <t>Development of the Surface Urban Energy and Water Balance Scheme (SUEWS) for cold climate cities</t>
+  </si>
+  <si>
+    <t>1691-1711</t>
+  </si>
+  <si>
+    <t>Järvi, L.; Grimmond, C. S. B.; Taka, M.; Nordbo, A.; Setälä, H.; Strachan, I. B. (2014)</t>
+  </si>
+  <si>
+    <t>Ref16</t>
+  </si>
+  <si>
+    <t>Cleugh, H. A.; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>Modelling Regional Scale Surface Energy Exchanges And Cbl Growth In A Heterogeneous, Urban-Rural Landscape</t>
+  </si>
+  <si>
+    <t>Boundary-Layer Meteorology</t>
+  </si>
+  <si>
+    <t>Cleugh, H. A.; Grimmond, C. S. B. (2001)</t>
+  </si>
+  <si>
+    <t>Ref17</t>
+  </si>
+  <si>
+    <t>Onomura, S.; Grimmond, C. S. B.; Lindberg, F.; Holmer, B.; Thorsson, S.</t>
+  </si>
+  <si>
+    <t>Meteorological forcing data for urban outdoor thermal comfort models from a coupled convective boundary layer and surface energy balance scheme</t>
+  </si>
+  <si>
+    <t>Onomura, S.; Grimmond, C. S. B.; Lindberg, F.; Holmer, B.; Thorsson, S. (2015)</t>
+  </si>
+  <si>
+    <t>Ref18</t>
+  </si>
+  <si>
+    <t>Kokkonen, T. V.; Grimmond, C. S. B.; Räty, O.; Ward, H. C.; Christen, A.; Oke, T. R.; Kotthaus, S.; Järvi, L.</t>
+  </si>
+  <si>
+    <t>Sensitivity of Surface Urban Energy and Water Balance Scheme (SUEWS) to downscaling of reanalysis forcing data</t>
+  </si>
+  <si>
+    <t>Kokkonen, T. V.; Grimmond, C. S. B.; Räty, O.; Ward, H. C.; Christen, A.; Oke, T. R.; Kotthaus, S.; Järvi, L. (2018)</t>
+  </si>
+  <si>
+    <t>Ref19</t>
+  </si>
+  <si>
+    <t>Best, M. J.; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>Importance of initial state and atmospheric conditions for urban land surface models’ performance</t>
+  </si>
+  <si>
+    <t>387-406</t>
+  </si>
+  <si>
+    <t>ICUC8: The 8th International Conference on Urban Climate and the 10th Symposium on the Urban Environment</t>
+  </si>
+  <si>
+    <t>Best, M. J.; Grimmond, C. S. B. (2014)</t>
+  </si>
+  <si>
+    <t>Ref20</t>
+  </si>
+  <si>
+    <t>Dyer, A. J.</t>
+  </si>
+  <si>
+    <t>A review of flux-profile relationships</t>
+  </si>
+  <si>
+    <t>363-372</t>
+  </si>
+  <si>
+    <t>Dyer, A. J. (1974)</t>
+  </si>
+  <si>
+    <t>Ref21</t>
+  </si>
+  <si>
+    <t>Ulden, A. P. Van; Holtslag, A. a. M.</t>
+  </si>
+  <si>
+    <t>Estimation of Atmospheric Boundary Layer Parameters for Diffusion Applications</t>
+  </si>
+  <si>
+    <t>1196-1207</t>
+  </si>
+  <si>
+    <t>Ulden, A. P. Van; Holtslag, A. a. M. (1985)</t>
+  </si>
+  <si>
+    <t>Ref22</t>
+  </si>
+  <si>
+    <t>Campbell, Gaylon S.; Norman, John</t>
+  </si>
+  <si>
+    <t>An Introduction to Environmental Biophysics</t>
+  </si>
+  <si>
+    <t>Springer Science &amp; Business Media</t>
+  </si>
+  <si>
+    <t>Campbell, Gaylon S.; Norman, John (2012)</t>
+  </si>
+  <si>
+    <t>Ref23</t>
+  </si>
+  <si>
+    <t>Businger, J. A.; Wyngaard, J. C.; Izumi, Y.; Bradley, E. F.</t>
+  </si>
+  <si>
+    <t>Flux-Profile Relationships in the Atmospheric Surface Layer</t>
+  </si>
+  <si>
+    <t>Journal of the Atmospheric Sciences</t>
+  </si>
+  <si>
+    <t>181-189</t>
+  </si>
+  <si>
+    <t>Businger, J. A.; Wyngaard, J. C.; Izumi, Y.; Bradley, E. F. (1971)</t>
+  </si>
+  <si>
+    <t>Ref24</t>
+  </si>
+  <si>
+    <t>Voogt, James; Grimmond, Christine</t>
+  </si>
+  <si>
+    <t>Modeling Surface Sensible Heat Flux Using Surface Radiative Temperatures in a Simple Urban Area</t>
+  </si>
+  <si>
+    <t>Journal of Applied Meteorology</t>
+  </si>
+  <si>
+    <t>Voogt, James; Grimmond, Christine (2000)</t>
+  </si>
+  <si>
+    <t>Ref25</t>
+  </si>
+  <si>
+    <t>Kawai, Toru; Ridwan, Mohammad Kholid; Kanda, Manabu</t>
+  </si>
+  <si>
+    <t>Evaluation of the Simple Urban Energy Balance Model Using Selected Data from 1-yr Flux Observations at Two Cities</t>
+  </si>
+  <si>
+    <t>693-715</t>
+  </si>
+  <si>
+    <t>Kawai, Toru; Ridwan, Mohammad Kholid; Kanda, Manabu (2009)</t>
+  </si>
+  <si>
+    <t>Ref26</t>
+  </si>
+  <si>
+    <t>Kanda, M.; Kanega, M.; Kawai, T.; Moriwaki, R.; Sugawara, H.</t>
+  </si>
+  <si>
+    <t>Roughness Lengths for Momentum and Heat Derived from Outdoor Urban Scale Models</t>
+  </si>
+  <si>
+    <t>1067-1079</t>
+  </si>
+  <si>
+    <t>Kanda, M.; Kanega, M.; Kawai, T.; Moriwaki, R.; Sugawara, H. (2007)</t>
+  </si>
+  <si>
+    <t>Ref27</t>
+  </si>
+  <si>
+    <t>1999b</t>
+  </si>
+  <si>
+    <t>Aerodynamic Properties of Urban Areas Derived from Analysis of Surface Form</t>
+  </si>
+  <si>
+    <t>1262 - 1292</t>
+  </si>
+  <si>
+    <t>Grimmond, C. S. B.; Oke, T. R. (1999b)</t>
+  </si>
+  <si>
+    <t>Ref28</t>
+  </si>
+  <si>
+    <t>Macdonald, R. W.; Griffiths, R. F.; Hall, D. J.</t>
+  </si>
+  <si>
+    <t>An improved method for the estimation of surface roughness of obstacle arrays</t>
+  </si>
+  <si>
+    <t>Atmospheric Environment</t>
+  </si>
+  <si>
+    <t>1857-1864</t>
+  </si>
+  <si>
+    <t>Macdonald, R. W.; Griffiths, R. F.; Hall, D. J. (1998)</t>
+  </si>
+  <si>
+    <t>Ref29</t>
+  </si>
+  <si>
+    <t>Falk, J; Niemczynowicz, J</t>
+  </si>
+  <si>
+    <t>Characteristics of the above-ground runoff in sewered catchments." Urban storm drainage</t>
+  </si>
+  <si>
+    <t>Urban storm drainage</t>
+  </si>
+  <si>
+    <t>159-171</t>
+  </si>
+  <si>
+    <t>Falk, J; Niemczynowicz, J (1978)</t>
+  </si>
+  <si>
+    <t>Ref30</t>
+  </si>
+  <si>
+    <t>bookSection</t>
+  </si>
+  <si>
+    <t>Halldin, S.; Grip, H.; Perttu, K.</t>
+  </si>
+  <si>
+    <t>Model for Energy Exchange of a Pine Forest Canopy</t>
+  </si>
+  <si>
+    <t>Developments in Agricultural and Managed Forest Ecology</t>
+  </si>
+  <si>
+    <t>59-75</t>
+  </si>
+  <si>
+    <t>Comparison of Forest Water and Energy Exchange Models</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Halldin, S.; Grip, H.; Perttu, K. (1979)</t>
+  </si>
+  <si>
+    <t>Ref31</t>
+  </si>
+  <si>
+    <t>Breuer, Lutz; Eckhardt, Klaus; Frede, Hans-Georg</t>
+  </si>
+  <si>
+    <t>Plant parameter values for models in temperate climates</t>
+  </si>
+  <si>
+    <t>Ecological Modelling</t>
+  </si>
+  <si>
+    <t>237-293</t>
+  </si>
+  <si>
+    <t>Breuer, Lutz; Eckhardt, Klaus; Frede, Hans-Georg (2003)</t>
+  </si>
+  <si>
+    <t>Ref32</t>
+  </si>
+  <si>
+    <t>Calder, I. R.; Wright, I. R.</t>
+  </si>
+  <si>
+    <t>Gamma Ray Attenuation Studies of Interception From Sitka Spruce: Some Evidence for an Additional Transport Mechanism</t>
+  </si>
+  <si>
+    <t>409-417</t>
+  </si>
+  <si>
+    <t>Calder, I. R.; Wright, I. R. (1986)</t>
+  </si>
+  <si>
+    <t>Ref33</t>
+  </si>
+  <si>
+    <t>Jarvis, P. G.; Monteith, John Lennox; Weatherley, Paul Egerton</t>
+  </si>
+  <si>
+    <t>The interpretation of the variations in leaf water potential and stomatal conductance found in canopies in the field</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society of London. B, Biological Sciences</t>
+  </si>
+  <si>
+    <t>593-610</t>
+  </si>
+  <si>
+    <t>Jarvis, P. G.; Monteith, John Lennox; Weatherley, Paul Egerton (1976)</t>
+  </si>
+  <si>
+    <t>Ref34</t>
+  </si>
+  <si>
+    <t>Auer, August H.</t>
+  </si>
+  <si>
+    <t>The Rain versus Snow Threshold Temperatures</t>
+  </si>
+  <si>
+    <t>Weatherwise</t>
+  </si>
+  <si>
+    <t>67-67</t>
+  </si>
+  <si>
+    <t>Auer, August H. (1974)</t>
+  </si>
+  <si>
+    <t>Ref35</t>
+  </si>
+  <si>
+    <t>Sailor, David J.; Vasireddy, Chittaranjan</t>
+  </si>
+  <si>
+    <t>Correcting aggregate energy consumption data to account for variability in local weather</t>
+  </si>
+  <si>
+    <t>Environmental Modelling &amp; Software</t>
+  </si>
+  <si>
+    <t>733-738</t>
+  </si>
+  <si>
+    <t>Sailor, David J.; Vasireddy, Chittaranjan (2006)</t>
+  </si>
+  <si>
+    <t>Ref36</t>
+  </si>
+  <si>
+    <t>Konarska, Janina; Lindberg, Fredrik; Larsson, Annika; Thorsson, Sofia; Holmer, Björn</t>
+  </si>
+  <si>
+    <t>Transmissivity of solar radiation through crowns of single urban trees—application for outdoor thermal comfort modelling</t>
+  </si>
+  <si>
+    <t>Theoretical And Applied Climatology</t>
+  </si>
+  <si>
+    <t>Konarska, Janina; Lindberg, Fredrik; Larsson, Annika; Thorsson, Sofia; Holmer, Björn (2013)</t>
+  </si>
+  <si>
+    <t>Ref37</t>
+  </si>
+  <si>
+    <t>Reindl, D. T.; Beckman, W. A.; Duffie, J. A.</t>
+  </si>
+  <si>
+    <t>Diffuse fraction correlations</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>Reindl, D. T.; Beckman, W. A.; Duffie, J. A. (1990)</t>
+  </si>
+  <si>
+    <t>Ref38</t>
+  </si>
+  <si>
+    <t>Loridan, Thomas; Grimmond, C S B</t>
+  </si>
+  <si>
+    <t>Characterization of Energy Flux Partitioning in Urban Environments: Links with Surface Seasonal Properties</t>
+  </si>
+  <si>
+    <t>Journal of Applied Meteorology and Climatolog</t>
+  </si>
+  <si>
+    <t>219-241</t>
+  </si>
+  <si>
+    <t>Loridan, Thomas; Grimmond, C S B (2012)</t>
+  </si>
+  <si>
+    <t>Ref39</t>
+  </si>
+  <si>
+    <t>Högström, Ulf</t>
+  </si>
+  <si>
+    <t>Non-dimensional wind and temperature profiles in the atmospheric surface layer: A re-evaluation</t>
+  </si>
+  <si>
+    <t>55-78</t>
+  </si>
+  <si>
+    <t>Högström, Ulf (1988)</t>
+  </si>
+  <si>
+    <t>Ref40</t>
+  </si>
+  <si>
+    <t>Kent, Christoph W.; Grimmond, Sue; Barlow, Janet; Gatey, David; Kotthaus, Simone; Lindberg, Fredrik; Halios, Christos H.</t>
+  </si>
+  <si>
+    <t>Evaluation of Urban Local-Scale Aerodynamic Parameters: Implications for the Vertical Profile of Wind Speed and for Source Areas</t>
+  </si>
+  <si>
+    <t>183-213</t>
+  </si>
+  <si>
+    <t>Kent, Christoph W.; Grimmond, Sue; Barlow, Janet; Gatey, David; Kotthaus, Simone; Lindberg, Fredrik; Halios, Christos H. (2017)</t>
+  </si>
+  <si>
+    <t>Ref41</t>
+  </si>
+  <si>
+    <t>Kent, Christoph W.; Grimmond, Sue; Gatey, David</t>
+  </si>
+  <si>
+    <t>Aerodynamic roughness parameters in cities: Inclusion of vegetation</t>
+  </si>
+  <si>
+    <t>Journal of Wind Engineering and Industrial Aerodynamics</t>
+  </si>
+  <si>
+    <t>168-176</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Kent, Christoph W.; Grimmond, Sue; Gatey, David (2017)</t>
+  </si>
+  <si>
+    <t>Ref42</t>
+  </si>
+  <si>
+    <t>Schmid, Hans; Grimmond, Christine; Cropley, Ford; Offerle, B.; Su, Hong-Bing</t>
+  </si>
+  <si>
+    <t>Measurements of CO2 and Energy Fluxes over a Mixed Hardwood Forest in the Mid-Western United States</t>
+  </si>
+  <si>
+    <t>Agricultural and Forest Meteorology</t>
+  </si>
+  <si>
+    <t>357-374</t>
+  </si>
+  <si>
+    <t>Schmid, Hans; Grimmond, Christine; Cropley, Ford; Offerle, B.; Su, Hong-Bing (2000)</t>
+  </si>
+  <si>
+    <t>Ref43</t>
+  </si>
+  <si>
+    <t>Ruimy, A.; Jarvis, P.G.; Baldocchi, D.D.; Saugier, Bernard</t>
+  </si>
+  <si>
+    <t>CO2 Fluxes over Plant Canopies and Solar Radiation: A Review Advances in Ecological Research</t>
+  </si>
+  <si>
+    <t>Ruimy, A.; Jarvis, P.G.; Baldocchi, D.D.; Saugier, Bernard (1995)</t>
+  </si>
+  <si>
+    <t>Ref44</t>
+  </si>
+  <si>
+    <t>Sailor, David J.; Lu, Lu</t>
+  </si>
+  <si>
+    <t>A top-down methodology for developing diurnal and seasonal anthropogenic heating profiles for urban areas</t>
+  </si>
+  <si>
+    <t>2737-2748</t>
+  </si>
+  <si>
+    <t>Sailor, David J.; Lu, Lu (2004)</t>
+  </si>
+  <si>
+    <t>Ref45</t>
+  </si>
+  <si>
+    <t>Bellucco, Veronica; Marras, Serena; Grimmond, C. Susan B.; Järvi, Leena; Sirca, Costantino; Spano, Donatella</t>
+  </si>
+  <si>
+    <t>Modelling the biogenic CO2 exchange in urban and non-urban ecosystems through the assessment of light-response curve parameters</t>
+  </si>
+  <si>
+    <t>113-122</t>
+  </si>
+  <si>
+    <t>Bellucco, Veronica; Marras, Serena; Grimmond, C. Susan B.; Järvi, Leena; Sirca, Costantino; Spano, Donatella (2017)</t>
+  </si>
+  <si>
+    <t>Ref46</t>
+  </si>
+  <si>
+    <t>Flanagan, Lb; Weaver, La; Carlson, Pj</t>
+  </si>
+  <si>
+    <t>Seasonal and interannual variation in carbon dioxide exchange and carbon balance in a northern temperate grassland.</t>
+  </si>
+  <si>
+    <t>Global Change biology.</t>
+  </si>
+  <si>
+    <t>599-615</t>
+  </si>
+  <si>
+    <t>Flanagan, Lb; Weaver, La; Carlson, Pj (2002)</t>
+  </si>
+  <si>
+    <t>Ref47</t>
+  </si>
+  <si>
+    <t>Järvi, L.; Nordbo, A.; Junninen, H.; Riikonen, A.; Moilanen, J.; Nikinmaa, E.; Vesala, T.</t>
+  </si>
+  <si>
+    <t>Seasonal and annual variation of carbon dioxide surface fluxes in Helsinki, Finland, in 2006–2010</t>
+  </si>
+  <si>
+    <t>Atmospheric Chemistry and Physics</t>
+  </si>
+  <si>
+    <t>8475-8489</t>
+  </si>
+  <si>
+    <t>Järvi, L.; Nordbo, A.; Junninen, H.; Riikonen, A.; Moilanen, J.; Nikinmaa, E.; Vesala, T. (2012)</t>
+  </si>
+  <si>
+    <t>Ref48</t>
+  </si>
+  <si>
+    <t>Brutsaert, Wilfried</t>
+  </si>
+  <si>
+    <t>Hydrology: An Introduction</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Brutsaert, Wilfried (2005)</t>
+  </si>
+  <si>
+    <t>Ref49</t>
+  </si>
+  <si>
+    <t>Harman, Ian N.; Finnigan, John J.</t>
+  </si>
+  <si>
+    <t>A simple unified theory for flow in the canopy and roughness sublayer</t>
+  </si>
+  <si>
+    <t>339-363</t>
+  </si>
+  <si>
+    <t>Harman, Ian N.; Finnigan, John J. (2007)</t>
+  </si>
+  <si>
+    <t>Ref50</t>
+  </si>
+  <si>
+    <t>Theeuwes, Natalie E.; Ronda, Reinder J.; Harman, Ian N.; Christen, Andreas; Grimmond, C. Sue B.</t>
+  </si>
+  <si>
+    <t>Parametrizing Horizontally-Averaged Wind and Temperature Profiles in the Urban Roughness Sublayer</t>
+  </si>
+  <si>
+    <t>321-348</t>
+  </si>
+  <si>
+    <t>Theeuwes, Natalie E.; Ronda, Reinder J.; Harman, Ian N.; Christen, Andreas; Grimmond, C. Sue B. (2019)</t>
+  </si>
+  <si>
+    <t>Ref51</t>
+  </si>
+  <si>
+    <t>Järvi, Leena; Havu, Minttu; Ward, Helen C.; Bellucco, Veronica; McFadden, Joseph P.; Toivonen, Tuuli; Heikinheimo, Vuokko; Kolari, Pasi; Riikonen, Anu; Grimmond, C. Sue B.</t>
+  </si>
+  <si>
+    <t>Spatial Modeling of Local-Scale Biogenic and Anthropogenic Carbon Dioxide Emissions in Helsinki</t>
+  </si>
+  <si>
+    <t>Journal of Geophysical Research: Atmospheres</t>
+  </si>
+  <si>
+    <t>8363-8384</t>
+  </si>
+  <si>
+    <t>Järvi, Leena; Havu, Minttu; Ward, Helen C.; Bellucco, Veronica; McFadden, Joseph P.; Toivonen, Tuuli; Heikinheimo, Vuokko; Kolari, Pasi; Riikonen, Anu; Grimmond, C. Sue B. (2019)</t>
+  </si>
+  <si>
+    <t>Ref52</t>
+  </si>
+  <si>
+    <t>Lindberg, Fredrik; Grimmond, C. S. B.</t>
+  </si>
+  <si>
+    <t>The influence of vegetation and building morphology on shadow patterns and mean radiant temperatures in urban areas: model development and evaluation</t>
+  </si>
+  <si>
+    <t>Theoretical and Applied Climatology</t>
+  </si>
+  <si>
+    <t>311-323</t>
+  </si>
+  <si>
+    <t>Lindberg, Fredrik; Grimmond, C. S. B. (2011)</t>
+  </si>
+  <si>
+    <t>Ref53</t>
+  </si>
+  <si>
+    <t>Lindberg, Fredrik; Holmer, Björn; Thorsson, Sofia</t>
+  </si>
+  <si>
+    <t>SOLWEIG 1.0 – Modelling spatial variations of 3D radiant fluxes and mean radiant temperature in complex urban settings</t>
+  </si>
+  <si>
+    <t>International Journal of Biometeorology</t>
+  </si>
+  <si>
+    <t>697-713</t>
+  </si>
+  <si>
+    <t>Lindberg, Fredrik; Holmer, Björn; Thorsson, Sofia (2008)</t>
+  </si>
+  <si>
+    <t>General Type</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Emissivity</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Em1</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Em2</t>
+  </si>
+  <si>
+    <t>NonVeg</t>
+  </si>
+  <si>
+    <t>Buidling</t>
+  </si>
+  <si>
+    <t>Brick Wall</t>
+  </si>
+  <si>
+    <t>Swindon, UK</t>
+  </si>
+  <si>
+    <t>Em3</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Moscow, Russia</t>
+  </si>
+  <si>
+    <t>Em4</t>
+  </si>
+  <si>
+    <t>Bare Soil</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>Brisbane, Australia</t>
+  </si>
+  <si>
+    <t>Em5</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Em6</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEst</t>
+  </si>
+  <si>
+    <t>Em7</t>
+  </si>
+  <si>
+    <t>Testsite</t>
+  </si>
+  <si>
+    <t>Em8</t>
+  </si>
+  <si>
+    <t>Em9</t>
+  </si>
+  <si>
+    <t>Mixed Evergreens</t>
+  </si>
+  <si>
+    <t>Sundsvall, Sweden</t>
+  </si>
+  <si>
+    <t>Em10</t>
+  </si>
+  <si>
+    <t>Cobblestone</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>Em11</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>OHM1</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>OHM2</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>OHM3</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>OHM4</t>
+  </si>
+  <si>
+    <t>Alb_min</t>
+  </si>
+  <si>
+    <t>Alb_max</t>
+  </si>
+  <si>
+    <t>Alb_wall_min</t>
+  </si>
+  <si>
+    <t>Alb_wall_max</t>
+  </si>
+  <si>
+    <t>Alb_roof_min</t>
+  </si>
+  <si>
+    <t>Alb_roof_max</t>
+  </si>
+  <si>
+    <t>Alb1</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Alb2</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Alb3</t>
+  </si>
+  <si>
+    <t>Alb4</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Alb5</t>
+  </si>
+  <si>
+    <t>Alb6</t>
+  </si>
+  <si>
+    <t>Alb7</t>
+  </si>
+  <si>
+    <t>Alb8</t>
+  </si>
+  <si>
+    <t>Alb9</t>
+  </si>
+  <si>
+    <t>Alb10</t>
+  </si>
+  <si>
+    <t>Alb11</t>
+  </si>
+  <si>
+    <t>Alb12</t>
+  </si>
+  <si>
+    <t>LAIEq</t>
+  </si>
+  <si>
+    <t>LAIMin</t>
+  </si>
+  <si>
+    <t>LAIMax</t>
+  </si>
+  <si>
+    <t>LAI1</t>
+  </si>
+  <si>
+    <t>LAI2</t>
+  </si>
+  <si>
+    <t>LAI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long </t>
+  </si>
+  <si>
+    <t>StorageMin</t>
+  </si>
+  <si>
+    <t>StorageMax</t>
+  </si>
+  <si>
+    <t>St1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>St2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>St3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Cnd1</t>
+  </si>
+  <si>
+    <t>Cnd2</t>
+  </si>
+  <si>
+    <t>Cnd3</t>
+  </si>
+  <si>
+    <t>Cnd4</t>
+  </si>
+  <si>
+    <t>Alb</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>OHM</t>
+  </si>
+  <si>
+    <t>LGP</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>LGP1</t>
+  </si>
+  <si>
+    <t>Dr1</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>LGP2</t>
+  </si>
+  <si>
+    <t>Dr2</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>LGP3</t>
+  </si>
+  <si>
+    <t>Dr3</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>St4</t>
+  </si>
+  <si>
+    <t>LAI4</t>
+  </si>
+  <si>
+    <t>LGP4</t>
+  </si>
+  <si>
+    <t>Dr4</t>
+  </si>
+  <si>
+    <t>Fir</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Wisley</t>
+  </si>
+  <si>
+    <t>Larch</t>
+  </si>
+  <si>
+    <t>Elm</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequoia </t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>NonVeg5</t>
+  </si>
+  <si>
+    <t>NonVeg6</t>
+  </si>
+  <si>
+    <t>NonVeg7</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>NonVeg8</t>
+  </si>
+  <si>
+    <t>NonVeg9</t>
+  </si>
+  <si>
+    <t>LeafGrowthPower1</t>
+  </si>
+  <si>
+    <t>LeafGrowthPower2</t>
+  </si>
+  <si>
+    <t>LeafOffPower1</t>
+  </si>
+  <si>
+    <t>LeafOffPower2</t>
+  </si>
+  <si>
+    <t>Swindon, Uk</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Gothenburg, Sweden</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>DrainageCoef1</t>
+  </si>
+  <si>
+    <t>DrainageCoef2</t>
+  </si>
+  <si>
+    <t>DrainageEq</t>
+  </si>
+  <si>
+    <t>WetThreshold</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>London,Uk</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>RoofWall</t>
+  </si>
+  <si>
+    <t>NonVeg10</t>
+  </si>
+  <si>
+    <t>Copacabanana</t>
+  </si>
+  <si>
+    <t>NonVeg11</t>
+  </si>
+  <si>
+    <t>Skogaryd, Sweden</t>
+  </si>
+  <si>
+    <t>NonVeg12</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Hindås, Sweden</t>
+  </si>
+  <si>
+    <t>Bsoil11</t>
+  </si>
+  <si>
+    <t>Bsoil12</t>
+  </si>
+  <si>
+    <t>SoilDepth</t>
+  </si>
+  <si>
+    <t>Water1</t>
+  </si>
+  <si>
+    <t>ESTM</t>
+  </si>
+  <si>
+    <t>ANOHM</t>
+  </si>
+  <si>
+    <t>ANOHM1</t>
+  </si>
+  <si>
+    <t>ESTM5</t>
+  </si>
+  <si>
+    <t>Water Depth</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Em12</t>
+  </si>
+  <si>
+    <t>elm</t>
+  </si>
+  <si>
+    <t>Really nice Palace!</t>
+  </si>
+  <si>
+    <t>Victorian Age</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/DSCF7116.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/DSCF7148.JPG</t>
+  </si>
+  <si>
+    <t>Blandstad</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/DSCF7151.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/fixfabriken.png</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/palace-4289117_1280.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/gusbacos/UTDB/blob/main/ref_photos/test.png</t>
+  </si>
+  <si>
     <t>Bag End</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins inherited the home from his parents, Bungo and Belladonna (Took) Baggins. It was Bungo who built the smial for Belladonna around the year TA 2889. The hobbit hole was noted to have a green door with a round brass knob, all but countless rooms with round windows, and a garden. Although hobbits were of small stature, larger visitors were commonly seen. The grounds and home were kept by the Gamgee family, most notably Hamfast ("The Gaffer") and later his son, Samwise.</t>
-  </si>
-  <si>
-    <t>First Age</t>
-  </si>
-  <si>
-    <t>https://static.wikia.nocookie.net/lotr/images/e/e4/Vlcsnap-2013-05-19-19h49m07s0.png/revision/latest?cb=20130519155935</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>Publication Year</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>authoryear</t>
-  </si>
-  <si>
-    <t>Ref1</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>Oke, T. R.</t>
-  </si>
-  <si>
-    <t>Boundary Layer Climates</t>
-  </si>
-  <si>
-    <t>Routledge</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Oke, T. R. (1987)</t>
-  </si>
-  <si>
-    <t>Ref2</t>
-  </si>
-  <si>
-    <t>journalArticle</t>
-  </si>
-  <si>
-    <t>Ward, H. C.; Kotthaus, S.; Järvi, L.; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>Surface Urban Energy and Water Balance Scheme (SUEWS): Development and evaluation at two UK sites</t>
-  </si>
-  <si>
-    <t>Urban Climate</t>
-  </si>
-  <si>
-    <t>1-32</t>
-  </si>
-  <si>
-    <t>Ward, H. C.; Kotthaus, S.; Järvi, L.; Grimmond, C. S. B. (2016)</t>
-  </si>
-  <si>
-    <t>Ref3</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R.</t>
-  </si>
-  <si>
-    <t>An evapotranspiration-interception model for urban areas</t>
-  </si>
-  <si>
-    <t>Water Resources Research</t>
-  </si>
-  <si>
-    <t>1739-1755</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R. (1991)</t>
-  </si>
-  <si>
-    <t>Ref4</t>
-  </si>
-  <si>
-    <t>Offerle, B.; Grimmond, C. S. B.; Oke, T. R.</t>
-  </si>
-  <si>
-    <t>Parameterization of Net All-Wave Radiation for Urban Areas</t>
-  </si>
-  <si>
-    <t>Journal of Applied Meteorology and Climatology</t>
-  </si>
-  <si>
-    <t>1157-1173</t>
-  </si>
-  <si>
-    <t>Offerle, B.; Grimmond, C. S. B.; Oke, T. R. (2003)</t>
-  </si>
-  <si>
-    <t>Ref5</t>
-  </si>
-  <si>
-    <t>Loridan, Thomas; Grimmond, Christine; Offerle, B.; Young, Duick; Smith, Thomas; Järvi, Leena; Lindberg, Fredrik</t>
-  </si>
-  <si>
-    <t>Local-Scale Urban Meteorological Parameterization Scheme (LUMPS): Longwave Radiation Parameterization and Seasonality-Related Developments</t>
-  </si>
-  <si>
-    <t>185-202</t>
-  </si>
-  <si>
-    <t>Loridan, Thomas; Grimmond, Christine; Offerle, B.; Young, Duick; Smith, Thomas; Järvi, Leena; Lindberg, Fredrik (2011)</t>
-  </si>
-  <si>
-    <t>Ref6</t>
-  </si>
-  <si>
-    <t>Lindberg, F.; Grimmond, C. S. B.; Yogeswaran, N.; Kotthaus, S.; Allen, L.</t>
-  </si>
-  <si>
-    <t>Impact of city changes and weather on anthropogenic heat flux in Europe 1995–2015</t>
-  </si>
-  <si>
-    <t>Lindberg, F.; Grimmond, C. S. B.; Yogeswaran, N.; Kotthaus, S.; Allen, L. (2013)</t>
-  </si>
-  <si>
-    <t>Ref7</t>
-  </si>
-  <si>
-    <t>Iamarino, Mario; Beevers, Sean; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>High-resolution (space, time) anthropogenic heat emissions: London 1970–2025</t>
-  </si>
-  <si>
-    <t>International Journal of Climatology</t>
-  </si>
-  <si>
-    <t>1754-1767</t>
-  </si>
-  <si>
-    <t>Iamarino, Mario; Beevers, Sean; Grimmond, C. S. B. (2012)</t>
-  </si>
-  <si>
-    <t>Ref8</t>
-  </si>
-  <si>
-    <t>Allen, L.; Lindberg, F.; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>Global to city scale urban anthropogenic heat flux: model and variability</t>
-  </si>
-  <si>
-    <t>1990-2005</t>
-  </si>
-  <si>
-    <t>Allen, L.; Lindberg, F.; Grimmond, C. S. B. (2011)</t>
-  </si>
-  <si>
-    <t>Ref9</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Cleugh, H. A.; Oke, T. R.</t>
-  </si>
-  <si>
-    <t>An objective urban heat storage model and its comparison with other schemes</t>
-  </si>
-  <si>
-    <t>Atmospheric Environment Part B</t>
-  </si>
-  <si>
-    <t>311-326</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Cleugh, H. A.; Oke, T. R. (1991)</t>
-  </si>
-  <si>
-    <t>Ref10</t>
-  </si>
-  <si>
-    <t>1999a</t>
-  </si>
-  <si>
-    <t>Heat Storage in Urban Areas: Local-Scale Observations and Evaluation of a Simple Model</t>
-  </si>
-  <si>
-    <t>922-940</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R. (1999a)</t>
-  </si>
-  <si>
-    <t>Ref11</t>
-  </si>
-  <si>
-    <t>Grimmond, C S B; Oke, T R</t>
-  </si>
-  <si>
-    <t>Turbulent Heat Fluxes in Urban Areas: Observations and a Local-Scale Urban Meteorological Parameterization Scheme (LUMPS)</t>
-  </si>
-  <si>
-    <t>JOURNAL OF APPLIED METEOROLOGY</t>
-  </si>
-  <si>
-    <t>Grimmond, C S B; Oke, T R (2002)</t>
-  </si>
-  <si>
-    <t>Ref12</t>
-  </si>
-  <si>
-    <t>Sun, Ting; Wang, Zhi-Hua; Oechel, Walter C.; Grimmond, Sue</t>
-  </si>
-  <si>
-    <t>The Analytical Objective Hysteresis Model (AnOHM v1.0): methodology to determine bulk storage heat flux coefficients</t>
-  </si>
-  <si>
-    <t>Geoscientific Model Development</t>
-  </si>
-  <si>
-    <t>2875-2890</t>
-  </si>
-  <si>
-    <t>Sun, Ting; Wang, Zhi-Hua; Oechel, Walter C.; Grimmond, Sue (2017)</t>
-  </si>
-  <si>
-    <t>Ref13</t>
-  </si>
-  <si>
-    <t>Offerle, B.; Grimmond, C. S. B.; Fortuniak, K.</t>
-  </si>
-  <si>
-    <t>Heat storage and anthropogenic heat flux in relation to the energy balance of a central European city centre</t>
-  </si>
-  <si>
-    <t>1405-1419</t>
-  </si>
-  <si>
-    <t>Offerle, B.; Grimmond, C. S. B.; Fortuniak, K. (2005)</t>
-  </si>
-  <si>
-    <t>Ref14</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R.; Steyn, D. G.</t>
-  </si>
-  <si>
-    <t>Urban Water Balance: 1. A Model for Daily Totals</t>
-  </si>
-  <si>
-    <t>1397-1403</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R.; Steyn, D. G. (1986)</t>
-  </si>
-  <si>
-    <t>Ref15</t>
-  </si>
-  <si>
-    <t>Järvi, L.; Grimmond, C. S. B.; Taka, M.; Nordbo, A.; Setälä, H.; Strachan, I. B.</t>
-  </si>
-  <si>
-    <t>Development of the Surface Urban Energy and Water Balance Scheme (SUEWS) for cold climate cities</t>
-  </si>
-  <si>
-    <t>1691-1711</t>
-  </si>
-  <si>
-    <t>Järvi, L.; Grimmond, C. S. B.; Taka, M.; Nordbo, A.; Setälä, H.; Strachan, I. B. (2014)</t>
-  </si>
-  <si>
-    <t>Ref16</t>
-  </si>
-  <si>
-    <t>Cleugh, H. A.; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>Modelling Regional Scale Surface Energy Exchanges And Cbl Growth In A Heterogeneous, Urban-Rural Landscape</t>
-  </si>
-  <si>
-    <t>Boundary-Layer Meteorology</t>
-  </si>
-  <si>
-    <t>Cleugh, H. A.; Grimmond, C. S. B. (2001)</t>
-  </si>
-  <si>
-    <t>Ref17</t>
-  </si>
-  <si>
-    <t>Onomura, S.; Grimmond, C. S. B.; Lindberg, F.; Holmer, B.; Thorsson, S.</t>
-  </si>
-  <si>
-    <t>Meteorological forcing data for urban outdoor thermal comfort models from a coupled convective boundary layer and surface energy balance scheme</t>
-  </si>
-  <si>
-    <t>Onomura, S.; Grimmond, C. S. B.; Lindberg, F.; Holmer, B.; Thorsson, S. (2015)</t>
-  </si>
-  <si>
-    <t>Ref18</t>
-  </si>
-  <si>
-    <t>Kokkonen, T. V.; Grimmond, C. S. B.; Räty, O.; Ward, H. C.; Christen, A.; Oke, T. R.; Kotthaus, S.; Järvi, L.</t>
-  </si>
-  <si>
-    <t>Sensitivity of Surface Urban Energy and Water Balance Scheme (SUEWS) to downscaling of reanalysis forcing data</t>
-  </si>
-  <si>
-    <t>Kokkonen, T. V.; Grimmond, C. S. B.; Räty, O.; Ward, H. C.; Christen, A.; Oke, T. R.; Kotthaus, S.; Järvi, L. (2018)</t>
-  </si>
-  <si>
-    <t>Ref19</t>
-  </si>
-  <si>
-    <t>Best, M. J.; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>Importance of initial state and atmospheric conditions for urban land surface models’ performance</t>
-  </si>
-  <si>
-    <t>387-406</t>
-  </si>
-  <si>
-    <t>ICUC8: The 8th International Conference on Urban Climate and the 10th Symposium on the Urban Environment</t>
-  </si>
-  <si>
-    <t>Best, M. J.; Grimmond, C. S. B. (2014)</t>
-  </si>
-  <si>
-    <t>Ref20</t>
-  </si>
-  <si>
-    <t>Dyer, A. J.</t>
-  </si>
-  <si>
-    <t>A review of flux-profile relationships</t>
-  </si>
-  <si>
-    <t>363-372</t>
-  </si>
-  <si>
-    <t>Dyer, A. J. (1974)</t>
-  </si>
-  <si>
-    <t>Ref21</t>
-  </si>
-  <si>
-    <t>Ulden, A. P. Van; Holtslag, A. a. M.</t>
-  </si>
-  <si>
-    <t>Estimation of Atmospheric Boundary Layer Parameters for Diffusion Applications</t>
-  </si>
-  <si>
-    <t>1196-1207</t>
-  </si>
-  <si>
-    <t>Ulden, A. P. Van; Holtslag, A. a. M. (1985)</t>
-  </si>
-  <si>
-    <t>Ref22</t>
-  </si>
-  <si>
-    <t>Campbell, Gaylon S.; Norman, John</t>
-  </si>
-  <si>
-    <t>An Introduction to Environmental Biophysics</t>
-  </si>
-  <si>
-    <t>Springer Science &amp; Business Media</t>
-  </si>
-  <si>
-    <t>Campbell, Gaylon S.; Norman, John (2012)</t>
-  </si>
-  <si>
-    <t>Ref23</t>
-  </si>
-  <si>
-    <t>Businger, J. A.; Wyngaard, J. C.; Izumi, Y.; Bradley, E. F.</t>
-  </si>
-  <si>
-    <t>Flux-Profile Relationships in the Atmospheric Surface Layer</t>
-  </si>
-  <si>
-    <t>Journal of the Atmospheric Sciences</t>
-  </si>
-  <si>
-    <t>181-189</t>
-  </si>
-  <si>
-    <t>Businger, J. A.; Wyngaard, J. C.; Izumi, Y.; Bradley, E. F. (1971)</t>
-  </si>
-  <si>
-    <t>Ref24</t>
-  </si>
-  <si>
-    <t>Voogt, James; Grimmond, Christine</t>
-  </si>
-  <si>
-    <t>Modeling Surface Sensible Heat Flux Using Surface Radiative Temperatures in a Simple Urban Area</t>
-  </si>
-  <si>
-    <t>Journal of Applied Meteorology</t>
-  </si>
-  <si>
-    <t>Voogt, James; Grimmond, Christine (2000)</t>
-  </si>
-  <si>
-    <t>Ref25</t>
-  </si>
-  <si>
-    <t>Kawai, Toru; Ridwan, Mohammad Kholid; Kanda, Manabu</t>
-  </si>
-  <si>
-    <t>Evaluation of the Simple Urban Energy Balance Model Using Selected Data from 1-yr Flux Observations at Two Cities</t>
-  </si>
-  <si>
-    <t>693-715</t>
-  </si>
-  <si>
-    <t>Kawai, Toru; Ridwan, Mohammad Kholid; Kanda, Manabu (2009)</t>
-  </si>
-  <si>
-    <t>Ref26</t>
-  </si>
-  <si>
-    <t>Kanda, M.; Kanega, M.; Kawai, T.; Moriwaki, R.; Sugawara, H.</t>
-  </si>
-  <si>
-    <t>Roughness Lengths for Momentum and Heat Derived from Outdoor Urban Scale Models</t>
-  </si>
-  <si>
-    <t>1067-1079</t>
-  </si>
-  <si>
-    <t>Kanda, M.; Kanega, M.; Kawai, T.; Moriwaki, R.; Sugawara, H. (2007)</t>
-  </si>
-  <si>
-    <t>Ref27</t>
-  </si>
-  <si>
-    <t>1999b</t>
-  </si>
-  <si>
-    <t>Aerodynamic Properties of Urban Areas Derived from Analysis of Surface Form</t>
-  </si>
-  <si>
-    <t>1262 - 1292</t>
-  </si>
-  <si>
-    <t>Grimmond, C. S. B.; Oke, T. R. (1999b)</t>
-  </si>
-  <si>
-    <t>Ref28</t>
-  </si>
-  <si>
-    <t>Macdonald, R. W.; Griffiths, R. F.; Hall, D. J.</t>
-  </si>
-  <si>
-    <t>An improved method for the estimation of surface roughness of obstacle arrays</t>
-  </si>
-  <si>
-    <t>Atmospheric Environment</t>
-  </si>
-  <si>
-    <t>1857-1864</t>
-  </si>
-  <si>
-    <t>Macdonald, R. W.; Griffiths, R. F.; Hall, D. J. (1998)</t>
-  </si>
-  <si>
-    <t>Ref29</t>
-  </si>
-  <si>
-    <t>Falk, J; Niemczynowicz, J</t>
-  </si>
-  <si>
-    <t>Characteristics of the above-ground runoff in sewered catchments." Urban storm drainage</t>
-  </si>
-  <si>
-    <t>Urban storm drainage</t>
-  </si>
-  <si>
-    <t>159-171</t>
-  </si>
-  <si>
-    <t>Falk, J; Niemczynowicz, J (1978)</t>
-  </si>
-  <si>
-    <t>Ref30</t>
-  </si>
-  <si>
-    <t>bookSection</t>
-  </si>
-  <si>
-    <t>Halldin, S.; Grip, H.; Perttu, K.</t>
-  </si>
-  <si>
-    <t>Model for Energy Exchange of a Pine Forest Canopy</t>
-  </si>
-  <si>
-    <t>Developments in Agricultural and Managed Forest Ecology</t>
-  </si>
-  <si>
-    <t>59-75</t>
-  </si>
-  <si>
-    <t>Comparison of Forest Water and Energy Exchange Models</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>Halldin, S.; Grip, H.; Perttu, K. (1979)</t>
-  </si>
-  <si>
-    <t>Ref31</t>
-  </si>
-  <si>
-    <t>Breuer, Lutz; Eckhardt, Klaus; Frede, Hans-Georg</t>
-  </si>
-  <si>
-    <t>Plant parameter values for models in temperate climates</t>
-  </si>
-  <si>
-    <t>Ecological Modelling</t>
-  </si>
-  <si>
-    <t>237-293</t>
-  </si>
-  <si>
-    <t>Breuer, Lutz; Eckhardt, Klaus; Frede, Hans-Georg (2003)</t>
-  </si>
-  <si>
-    <t>Ref32</t>
-  </si>
-  <si>
-    <t>Calder, I. R.; Wright, I. R.</t>
-  </si>
-  <si>
-    <t>Gamma Ray Attenuation Studies of Interception From Sitka Spruce: Some Evidence for an Additional Transport Mechanism</t>
-  </si>
-  <si>
-    <t>409-417</t>
-  </si>
-  <si>
-    <t>Calder, I. R.; Wright, I. R. (1986)</t>
-  </si>
-  <si>
-    <t>Ref33</t>
-  </si>
-  <si>
-    <t>Jarvis, P. G.; Monteith, John Lennox; Weatherley, Paul Egerton</t>
-  </si>
-  <si>
-    <t>The interpretation of the variations in leaf water potential and stomatal conductance found in canopies in the field</t>
-  </si>
-  <si>
-    <t>Philosophical Transactions of the Royal Society of London. B, Biological Sciences</t>
-  </si>
-  <si>
-    <t>593-610</t>
-  </si>
-  <si>
-    <t>Jarvis, P. G.; Monteith, John Lennox; Weatherley, Paul Egerton (1976)</t>
-  </si>
-  <si>
-    <t>Ref34</t>
-  </si>
-  <si>
-    <t>Auer, August H.</t>
-  </si>
-  <si>
-    <t>The Rain versus Snow Threshold Temperatures</t>
-  </si>
-  <si>
-    <t>Weatherwise</t>
-  </si>
-  <si>
-    <t>67-67</t>
-  </si>
-  <si>
-    <t>Auer, August H. (1974)</t>
-  </si>
-  <si>
-    <t>Ref35</t>
-  </si>
-  <si>
-    <t>Sailor, David J.; Vasireddy, Chittaranjan</t>
-  </si>
-  <si>
-    <t>Correcting aggregate energy consumption data to account for variability in local weather</t>
-  </si>
-  <si>
-    <t>Environmental Modelling &amp; Software</t>
-  </si>
-  <si>
-    <t>733-738</t>
-  </si>
-  <si>
-    <t>Sailor, David J.; Vasireddy, Chittaranjan (2006)</t>
-  </si>
-  <si>
-    <t>Ref36</t>
-  </si>
-  <si>
-    <t>Konarska, Janina; Lindberg, Fredrik; Larsson, Annika; Thorsson, Sofia; Holmer, Björn</t>
-  </si>
-  <si>
-    <t>Transmissivity of solar radiation through crowns of single urban trees—application for outdoor thermal comfort modelling</t>
-  </si>
-  <si>
-    <t>Theoretical And Applied Climatology</t>
-  </si>
-  <si>
-    <t>Konarska, Janina; Lindberg, Fredrik; Larsson, Annika; Thorsson, Sofia; Holmer, Björn (2013)</t>
-  </si>
-  <si>
-    <t>Ref37</t>
-  </si>
-  <si>
-    <t>Reindl, D. T.; Beckman, W. A.; Duffie, J. A.</t>
-  </si>
-  <si>
-    <t>Diffuse fraction correlations</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>Reindl, D. T.; Beckman, W. A.; Duffie, J. A. (1990)</t>
-  </si>
-  <si>
-    <t>Ref38</t>
-  </si>
-  <si>
-    <t>Loridan, Thomas; Grimmond, C S B</t>
-  </si>
-  <si>
-    <t>Characterization of Energy Flux Partitioning in Urban Environments: Links with Surface Seasonal Properties</t>
-  </si>
-  <si>
-    <t>Journal of Applied Meteorology and Climatolog</t>
-  </si>
-  <si>
-    <t>219-241</t>
-  </si>
-  <si>
-    <t>Loridan, Thomas; Grimmond, C S B (2012)</t>
-  </si>
-  <si>
-    <t>Ref39</t>
-  </si>
-  <si>
-    <t>Högström, Ulf</t>
-  </si>
-  <si>
-    <t>Non-dimensional wind and temperature profiles in the atmospheric surface layer: A re-evaluation</t>
-  </si>
-  <si>
-    <t>55-78</t>
-  </si>
-  <si>
-    <t>Högström, Ulf (1988)</t>
-  </si>
-  <si>
-    <t>Ref40</t>
-  </si>
-  <si>
-    <t>Kent, Christoph W.; Grimmond, Sue; Barlow, Janet; Gatey, David; Kotthaus, Simone; Lindberg, Fredrik; Halios, Christos H.</t>
-  </si>
-  <si>
-    <t>Evaluation of Urban Local-Scale Aerodynamic Parameters: Implications for the Vertical Profile of Wind Speed and for Source Areas</t>
-  </si>
-  <si>
-    <t>183-213</t>
-  </si>
-  <si>
-    <t>Kent, Christoph W.; Grimmond, Sue; Barlow, Janet; Gatey, David; Kotthaus, Simone; Lindberg, Fredrik; Halios, Christos H. (2017)</t>
-  </si>
-  <si>
-    <t>Ref41</t>
-  </si>
-  <si>
-    <t>Kent, Christoph W.; Grimmond, Sue; Gatey, David</t>
-  </si>
-  <si>
-    <t>Aerodynamic roughness parameters in cities: Inclusion of vegetation</t>
-  </si>
-  <si>
-    <t>Journal of Wind Engineering and Industrial Aerodynamics</t>
-  </si>
-  <si>
-    <t>168-176</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Kent, Christoph W.; Grimmond, Sue; Gatey, David (2017)</t>
-  </si>
-  <si>
-    <t>Ref42</t>
-  </si>
-  <si>
-    <t>Schmid, Hans; Grimmond, Christine; Cropley, Ford; Offerle, B.; Su, Hong-Bing</t>
-  </si>
-  <si>
-    <t>Measurements of CO2 and Energy Fluxes over a Mixed Hardwood Forest in the Mid-Western United States</t>
-  </si>
-  <si>
-    <t>Agricultural and Forest Meteorology</t>
-  </si>
-  <si>
-    <t>357-374</t>
-  </si>
-  <si>
-    <t>Schmid, Hans; Grimmond, Christine; Cropley, Ford; Offerle, B.; Su, Hong-Bing (2000)</t>
-  </si>
-  <si>
-    <t>Ref43</t>
-  </si>
-  <si>
-    <t>Ruimy, A.; Jarvis, P.G.; Baldocchi, D.D.; Saugier, Bernard</t>
-  </si>
-  <si>
-    <t>CO2 Fluxes over Plant Canopies and Solar Radiation: A Review Advances in Ecological Research</t>
-  </si>
-  <si>
-    <t>Ruimy, A.; Jarvis, P.G.; Baldocchi, D.D.; Saugier, Bernard (1995)</t>
-  </si>
-  <si>
-    <t>Ref44</t>
-  </si>
-  <si>
-    <t>Sailor, David J.; Lu, Lu</t>
-  </si>
-  <si>
-    <t>A top-down methodology for developing diurnal and seasonal anthropogenic heating profiles for urban areas</t>
-  </si>
-  <si>
-    <t>2737-2748</t>
-  </si>
-  <si>
-    <t>Sailor, David J.; Lu, Lu (2004)</t>
-  </si>
-  <si>
-    <t>Ref45</t>
-  </si>
-  <si>
-    <t>Bellucco, Veronica; Marras, Serena; Grimmond, C. Susan B.; Järvi, Leena; Sirca, Costantino; Spano, Donatella</t>
-  </si>
-  <si>
-    <t>Modelling the biogenic CO2 exchange in urban and non-urban ecosystems through the assessment of light-response curve parameters</t>
-  </si>
-  <si>
-    <t>113-122</t>
-  </si>
-  <si>
-    <t>Bellucco, Veronica; Marras, Serena; Grimmond, C. Susan B.; Järvi, Leena; Sirca, Costantino; Spano, Donatella (2017)</t>
-  </si>
-  <si>
-    <t>Ref46</t>
-  </si>
-  <si>
-    <t>Flanagan, Lb; Weaver, La; Carlson, Pj</t>
-  </si>
-  <si>
-    <t>Seasonal and interannual variation in carbon dioxide exchange and carbon balance in a northern temperate grassland.</t>
-  </si>
-  <si>
-    <t>Global Change biology.</t>
-  </si>
-  <si>
-    <t>599-615</t>
-  </si>
-  <si>
-    <t>Flanagan, Lb; Weaver, La; Carlson, Pj (2002)</t>
-  </si>
-  <si>
-    <t>Ref47</t>
-  </si>
-  <si>
-    <t>Järvi, L.; Nordbo, A.; Junninen, H.; Riikonen, A.; Moilanen, J.; Nikinmaa, E.; Vesala, T.</t>
-  </si>
-  <si>
-    <t>Seasonal and annual variation of carbon dioxide surface fluxes in Helsinki, Finland, in 2006–2010</t>
-  </si>
-  <si>
-    <t>Atmospheric Chemistry and Physics</t>
-  </si>
-  <si>
-    <t>8475-8489</t>
-  </si>
-  <si>
-    <t>Järvi, L.; Nordbo, A.; Junninen, H.; Riikonen, A.; Moilanen, J.; Nikinmaa, E.; Vesala, T. (2012)</t>
-  </si>
-  <si>
-    <t>Ref48</t>
-  </si>
-  <si>
-    <t>Brutsaert, Wilfried</t>
-  </si>
-  <si>
-    <t>Hydrology: An Introduction</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Brutsaert, Wilfried (2005)</t>
-  </si>
-  <si>
-    <t>Ref49</t>
-  </si>
-  <si>
-    <t>Harman, Ian N.; Finnigan, John J.</t>
-  </si>
-  <si>
-    <t>A simple unified theory for flow in the canopy and roughness sublayer</t>
-  </si>
-  <si>
-    <t>339-363</t>
-  </si>
-  <si>
-    <t>Harman, Ian N.; Finnigan, John J. (2007)</t>
-  </si>
-  <si>
-    <t>Ref50</t>
-  </si>
-  <si>
-    <t>Theeuwes, Natalie E.; Ronda, Reinder J.; Harman, Ian N.; Christen, Andreas; Grimmond, C. Sue B.</t>
-  </si>
-  <si>
-    <t>Parametrizing Horizontally-Averaged Wind and Temperature Profiles in the Urban Roughness Sublayer</t>
-  </si>
-  <si>
-    <t>321-348</t>
-  </si>
-  <si>
-    <t>Theeuwes, Natalie E.; Ronda, Reinder J.; Harman, Ian N.; Christen, Andreas; Grimmond, C. Sue B. (2019)</t>
-  </si>
-  <si>
-    <t>Ref51</t>
-  </si>
-  <si>
-    <t>Järvi, Leena; Havu, Minttu; Ward, Helen C.; Bellucco, Veronica; McFadden, Joseph P.; Toivonen, Tuuli; Heikinheimo, Vuokko; Kolari, Pasi; Riikonen, Anu; Grimmond, C. Sue B.</t>
-  </si>
-  <si>
-    <t>Spatial Modeling of Local-Scale Biogenic and Anthropogenic Carbon Dioxide Emissions in Helsinki</t>
-  </si>
-  <si>
-    <t>Journal of Geophysical Research: Atmospheres</t>
-  </si>
-  <si>
-    <t>8363-8384</t>
-  </si>
-  <si>
-    <t>Järvi, Leena; Havu, Minttu; Ward, Helen C.; Bellucco, Veronica; McFadden, Joseph P.; Toivonen, Tuuli; Heikinheimo, Vuokko; Kolari, Pasi; Riikonen, Anu; Grimmond, C. Sue B. (2019)</t>
-  </si>
-  <si>
-    <t>Ref52</t>
-  </si>
-  <si>
-    <t>Lindberg, Fredrik; Grimmond, C. S. B.</t>
-  </si>
-  <si>
-    <t>The influence of vegetation and building morphology on shadow patterns and mean radiant temperatures in urban areas: model development and evaluation</t>
-  </si>
-  <si>
-    <t>Theoretical and Applied Climatology</t>
-  </si>
-  <si>
-    <t>311-323</t>
-  </si>
-  <si>
-    <t>Lindberg, Fredrik; Grimmond, C. S. B. (2011)</t>
-  </si>
-  <si>
-    <t>Ref53</t>
-  </si>
-  <si>
-    <t>Lindberg, Fredrik; Holmer, Björn; Thorsson, Sofia</t>
-  </si>
-  <si>
-    <t>SOLWEIG 1.0 – Modelling spatial variations of 3D radiant fluxes and mean radiant temperature in complex urban settings</t>
-  </si>
-  <si>
-    <t>International Journal of Biometeorology</t>
-  </si>
-  <si>
-    <t>697-713</t>
-  </si>
-  <si>
-    <t>Lindberg, Fredrik; Holmer, Björn; Thorsson, Sofia (2008)</t>
-  </si>
-  <si>
-    <t>General Type</t>
-  </si>
-  <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Emissivity</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Em1</t>
-  </si>
-  <si>
-    <t>Veg</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>London, UK</t>
-  </si>
-  <si>
-    <t>Em2</t>
-  </si>
-  <si>
-    <t>NonVeg</t>
-  </si>
-  <si>
-    <t>Buidling</t>
-  </si>
-  <si>
-    <t>Brick Wall</t>
-  </si>
-  <si>
-    <t>Swindon, UK</t>
-  </si>
-  <si>
-    <t>Em3</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Moscow, Russia</t>
-  </si>
-  <si>
-    <t>Em4</t>
-  </si>
-  <si>
-    <t>Bare Soil</t>
-  </si>
-  <si>
-    <t>Gravel</t>
-  </si>
-  <si>
-    <t>Brisbane, Australia</t>
-  </si>
-  <si>
-    <t>Em5</t>
-  </si>
-  <si>
-    <t>Oak</t>
-  </si>
-  <si>
-    <t>Em6</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TEst</t>
-  </si>
-  <si>
-    <t>Em7</t>
-  </si>
-  <si>
-    <t>Testsite</t>
-  </si>
-  <si>
-    <t>Em8</t>
-  </si>
-  <si>
-    <t>Em9</t>
-  </si>
-  <si>
-    <t>Mixed Evergreens</t>
-  </si>
-  <si>
-    <t>Sundsvall, Sweden</t>
-  </si>
-  <si>
-    <t>Em10</t>
-  </si>
-  <si>
-    <t>Cobblestone</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>Em11</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>OHM1</t>
-  </si>
-  <si>
-    <t>Roof</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>OHM2</t>
-  </si>
-  <si>
-    <t>Tiles</t>
-  </si>
-  <si>
-    <t>OHM3</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>OHM4</t>
-  </si>
-  <si>
-    <t>Alb_min</t>
-  </si>
-  <si>
-    <t>Alb_max</t>
-  </si>
-  <si>
-    <t>Alb_wall_min</t>
-  </si>
-  <si>
-    <t>Alb_wall_max</t>
-  </si>
-  <si>
-    <t>Alb_roof_min</t>
-  </si>
-  <si>
-    <t>Alb_roof_max</t>
-  </si>
-  <si>
-    <t>Alb1</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>Alb2</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Alb3</t>
-  </si>
-  <si>
-    <t>Alb4</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Alb5</t>
-  </si>
-  <si>
-    <t>Alb6</t>
-  </si>
-  <si>
-    <t>Alb7</t>
-  </si>
-  <si>
-    <t>Alb8</t>
-  </si>
-  <si>
-    <t>Alb9</t>
-  </si>
-  <si>
-    <t>Alb10</t>
-  </si>
-  <si>
-    <t>Alb11</t>
-  </si>
-  <si>
-    <t>Alb12</t>
-  </si>
-  <si>
-    <t>LAIEq</t>
-  </si>
-  <si>
-    <t>LAIMin</t>
-  </si>
-  <si>
-    <t>LAIMax</t>
-  </si>
-  <si>
-    <t>LAI1</t>
-  </si>
-  <si>
-    <t>LAI2</t>
-  </si>
-  <si>
-    <t>LAI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long </t>
-  </si>
-  <si>
-    <t>StorageMin</t>
-  </si>
-  <si>
-    <t>StorageMax</t>
-  </si>
-  <si>
-    <t>St1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>St2</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>St3</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>Cnd1</t>
-  </si>
-  <si>
-    <t>Cnd2</t>
-  </si>
-  <si>
-    <t>Cnd3</t>
-  </si>
-  <si>
-    <t>Cnd4</t>
-  </si>
-  <si>
-    <t>Alb</t>
-  </si>
-  <si>
-    <t>Em</t>
-  </si>
-  <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>LAI</t>
-  </si>
-  <si>
-    <t>OHM</t>
-  </si>
-  <si>
-    <t>LGP</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t>LGP1</t>
-  </si>
-  <si>
-    <t>Dr1</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>LGP2</t>
-  </si>
-  <si>
-    <t>Dr2</t>
-  </si>
-  <si>
-    <t>Pine</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>LGP3</t>
-  </si>
-  <si>
-    <t>Dr3</t>
-  </si>
-  <si>
-    <t>Birch</t>
-  </si>
-  <si>
-    <t>St4</t>
-  </si>
-  <si>
-    <t>LAI4</t>
-  </si>
-  <si>
-    <t>LGP4</t>
-  </si>
-  <si>
-    <t>Dr4</t>
-  </si>
-  <si>
-    <t>Fir</t>
-  </si>
-  <si>
-    <t>Wild</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Wisley</t>
-  </si>
-  <si>
-    <t>Larch</t>
-  </si>
-  <si>
-    <t>Elm</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequoia </t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Asphalt</t>
-  </si>
-  <si>
-    <t>NonVeg5</t>
-  </si>
-  <si>
-    <t>NonVeg6</t>
-  </si>
-  <si>
-    <t>NonVeg7</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>NonVeg8</t>
-  </si>
-  <si>
-    <t>NonVeg9</t>
-  </si>
-  <si>
-    <t>LeafGrowthPower1</t>
-  </si>
-  <si>
-    <t>LeafGrowthPower2</t>
-  </si>
-  <si>
-    <t>LeafOffPower1</t>
-  </si>
-  <si>
-    <t>LeafOffPower2</t>
-  </si>
-  <si>
-    <t>Swindon, Uk</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>DrainageCoef1</t>
-  </si>
-  <si>
-    <t>DrainageCoef2</t>
-  </si>
-  <si>
-    <t>DrainageEq</t>
-  </si>
-  <si>
-    <t>WetThreshold</t>
-  </si>
-  <si>
-    <t>12341wq</t>
-  </si>
-  <si>
-    <t>afsd</t>
-  </si>
-  <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>dsaf</t>
-  </si>
-  <si>
-    <t>Dr5</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>dsgfds</t>
-  </si>
-  <si>
-    <t>gfdsA</t>
-  </si>
-  <si>
-    <t>Dr6</t>
-  </si>
-  <si>
-    <t>fsda</t>
-  </si>
-  <si>
-    <t>afds</t>
-  </si>
-  <si>
-    <t>dsfafds</t>
-  </si>
-  <si>
-    <t>Dr7</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>342wre</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>436534</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>London,Uk</t>
-  </si>
-  <si>
-    <t>NewYork</t>
-  </si>
-  <si>
-    <t>Copenhagen</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>RoofWall</t>
-  </si>
-  <si>
-    <t>NonVeg10</t>
-  </si>
-  <si>
-    <t>Copacabanana</t>
-  </si>
-  <si>
-    <t>NonVeg11</t>
-  </si>
-  <si>
-    <t>Skogaryd, Sweden</t>
-  </si>
-  <si>
-    <t>NonVeg12</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Hindås, Sweden</t>
-  </si>
-  <si>
-    <t>Bsoil11</t>
-  </si>
-  <si>
-    <t>Bsoil12</t>
-  </si>
-  <si>
-    <t>SoilDepth</t>
-  </si>
-  <si>
-    <t>Water1</t>
-  </si>
-  <si>
-    <t>ESTM</t>
-  </si>
-  <si>
-    <t>ANOHM</t>
-  </si>
-  <si>
-    <t>ANOHM1</t>
-  </si>
-  <si>
-    <t>ESTM5</t>
-  </si>
-  <si>
-    <t>Water Depth</t>
-  </si>
-  <si>
-    <t>River</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,6 +1742,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1820,10 +1795,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1835,8 +1811,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2139,11 +2117,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="34.6328125" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2186,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -2214,8 +2197,8 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="H2" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -2233,7 +2216,7 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2277,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2302,6 +2285,9 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="H4" t="s">
+        <v>554</v>
+      </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2304,7 @@
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2329,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>555</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -2340,6 +2326,9 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
+      <c r="H5" t="s">
+        <v>556</v>
+      </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -2394,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -2432,7 +2421,7 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -2454,9 +2443,6 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2459,7 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2484,19 +2470,19 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -2511,7 +2497,7 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2522,19 +2508,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -2549,7 +2535,7 @@
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2560,19 +2546,19 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -2587,7 +2573,7 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2598,19 +2584,22 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
+      <c r="H12" t="s">
+        <v>559</v>
+      </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -2625,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2636,19 +2625,19 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -2663,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2671,25 +2660,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -2704,7 +2690,7 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2712,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -2727,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -2742,7 +2728,7 @@
         <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2750,22 +2736,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
+      <c r="H16" t="s">
+        <v>557</v>
+      </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -2780,7 +2769,7 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2788,22 +2777,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -2818,7 +2807,7 @@
         <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2826,25 +2815,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -2862,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2873,25 +2862,25 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>551</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>552</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
@@ -2906,7 +2895,7 @@
         <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2917,25 +2906,22 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -2950,7 +2936,7 @@
         <v>27</v>
       </c>
       <c r="N20" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2958,27 +2944,27 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3002,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3011,25 +2997,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3040,28 +3026,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3072,28 +3058,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3104,28 +3090,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3136,220 +3122,220 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="D5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I6" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G10" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="D11" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G11" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3348,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3372,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3381,57 +3367,57 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K2">
         <v>1.6</v>
@@ -3439,34 +3425,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K3">
         <v>0.88</v>
@@ -3492,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3501,63 +3487,63 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="K1" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="L1" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" t="s">
         <v>545</v>
       </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J2" t="s">
-        <v>568</v>
-      </c>
       <c r="K2" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -3581,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3593,33 +3579,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -3634,21 +3620,21 @@
         <v>1.5E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F3">
         <v>0.24</v>
@@ -3663,21 +3649,21 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -3692,21 +3678,21 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -3721,7 +3707,7 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3720,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3744,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3756,27 +3742,27 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -3794,143 +3780,26 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1234</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>532</v>
-      </c>
-      <c r="J3" t="s">
-        <v>349</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E4" t="s">
-        <v>534</v>
-      </c>
-      <c r="J4" t="s">
-        <v>181</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>535</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
-        <v>187</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" t="s">
-        <v>537</v>
-      </c>
-      <c r="G6" t="s">
-        <v>539</v>
-      </c>
-      <c r="J6" t="s">
-        <v>223</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J7" t="s">
-        <v>266</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C8" t="s">
-        <v>545</v>
-      </c>
-      <c r="D8" t="s">
-        <v>546</v>
-      </c>
-      <c r="E8" t="s">
-        <v>547</v>
-      </c>
-      <c r="F8" t="s">
-        <v>548</v>
-      </c>
-      <c r="J8" t="s">
-        <v>266</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3950,118 +3819,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>1987</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>1991</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -4070,30 +3939,30 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -4102,56 +3971,56 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
         <v>44211</v>
@@ -4160,30 +4029,30 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -4192,30 +4061,30 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>2011</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4224,59 +4093,59 @@
         <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>1991</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I10">
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -4285,27 +4154,27 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>2002</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -4314,30 +4183,30 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -4346,30 +4215,30 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>2005</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4378,30 +4247,30 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1986</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -4410,30 +4279,30 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4442,27 +4311,27 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2">
         <v>44227</v>
@@ -4474,27 +4343,27 @@
         <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2">
         <v>44219</v>
@@ -4503,82 +4372,82 @@
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>1974</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -4587,30 +4456,30 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>1985</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -4619,53 +4488,53 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>1971</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4674,53 +4543,53 @@
         <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>2000</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -4729,30 +4598,30 @@
         <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -4761,30 +4630,30 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H28">
         <v>9</v>
@@ -4793,30 +4662,30 @@
         <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>1998</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -4825,91 +4694,91 @@
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>1978</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C31">
         <v>1979</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>2003</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4918,30 +4787,30 @@
         <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>1986</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4950,30 +4819,30 @@
         <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>1976</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H34">
         <v>927</v>
@@ -4982,30 +4851,30 @@
         <v>273</v>
       </c>
       <c r="M34" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>1974</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -5014,30 +4883,30 @@
         <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>2006</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -5046,27 +4915,27 @@
         <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G37" s="2">
         <v>44210</v>
@@ -5075,27 +4944,27 @@
         <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>1990</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G38" s="2">
         <v>44203</v>
@@ -5107,30 +4976,30 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>2012</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -5139,30 +5008,30 @@
         <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>1988</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5171,30 +5040,30 @@
         <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
       <c r="D41" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5203,111 +5072,111 @@
         <v>164</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I42">
         <v>169</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>2000</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I43">
         <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>1995</v>
       </c>
       <c r="D44" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E44" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>2004</v>
       </c>
       <c r="D45" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H45">
         <v>17</v>
@@ -5316,59 +5185,59 @@
         <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I46">
         <v>236</v>
       </c>
       <c r="M46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>2002</v>
       </c>
       <c r="D47" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E47" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H47">
         <v>7</v>
@@ -5377,30 +5246,30 @@
         <v>8</v>
       </c>
       <c r="M47" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>2012</v>
       </c>
       <c r="D48" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -5409,56 +5278,56 @@
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>2005</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E49" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>2007</v>
       </c>
       <c r="D50" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G50" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5467,30 +5336,30 @@
         <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G51" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5499,30 +5368,30 @@
         <v>173</v>
       </c>
       <c r="M51" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G52" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -5531,59 +5400,59 @@
         <v>124</v>
       </c>
       <c r="M52" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E53" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I53">
         <v>105</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E54" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -5592,7 +5461,7 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5602,9 +5471,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5613,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -5625,157 +5496,157 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F2">
         <v>0.96</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F4">
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F5">
         <v>0.66</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F6">
         <v>0.98</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -5784,105 +5655,128 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F8">
         <v>0.89</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F9">
         <v>0.996</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>0.96</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F11">
         <v>0.77</v>
       </c>
       <c r="G11" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>550</v>
+      </c>
+      <c r="E13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13">
+        <v>0.81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5903,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -5915,39 +5809,39 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -5959,27 +5853,27 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -5991,27 +5885,27 @@
         <v>-6</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
         <v>419</v>
       </c>
-      <c r="D4" t="s">
-        <v>426</v>
-      </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -6023,21 +5917,21 @@
         <v>-6</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +5943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6058,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6070,39 +5966,39 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -6111,21 +6007,21 @@
         <v>0.09</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -6134,21 +6030,21 @@
         <v>0.15</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F4">
         <v>0.19</v>
@@ -6157,21 +6053,21 @@
         <v>0.19</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -6180,21 +6076,21 @@
         <v>0.12</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -6203,21 +6099,21 @@
         <v>0.15</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -6226,15 +6122,15 @@
         <v>0.21</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -6246,15 +6142,15 @@
         <v>0.1</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6266,15 +6162,15 @@
         <v>0.12</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -6286,21 +6182,21 @@
         <v>0.18</v>
       </c>
       <c r="L10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -6309,21 +6205,21 @@
         <v>0.1</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -6332,21 +6228,21 @@
         <v>0.16</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -6355,7 +6251,7 @@
         <v>0.19</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6376,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6388,24 +6284,24 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -6420,15 +6316,15 @@
         <v>0.77</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6443,24 +6339,24 @@
         <v>0.7</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6472,7 +6368,7 @@
         <v>0.66</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6500,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6512,21 +6408,21 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -6538,15 +6434,15 @@
         <v>1.3</v>
       </c>
       <c r="H2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6558,15 +6454,15 @@
         <v>0.8</v>
       </c>
       <c r="H3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -6578,7 +6474,7 @@
         <v>1.9</v>
       </c>
       <c r="H4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -6599,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6611,30 +6507,30 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -6658,12 +6554,12 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6687,12 +6583,12 @@
         <v>562356</v>
       </c>
       <c r="L3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -6716,12 +6612,12 @@
         <v>2345234</v>
       </c>
       <c r="L4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -6745,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6757,7 +6653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -6771,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6780,25 +6676,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6811,66 +6707,66 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -6881,31 +6777,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -6916,31 +6812,31 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" t="s">
+        <v>487</v>
+      </c>
+      <c r="I5" t="s">
+        <v>421</v>
+      </c>
+      <c r="J5" t="s">
+        <v>488</v>
+      </c>
+      <c r="K5" t="s">
         <v>489</v>
-      </c>
-      <c r="D5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H5" t="s">
-        <v>494</v>
-      </c>
-      <c r="I5" t="s">
-        <v>428</v>
-      </c>
-      <c r="J5" t="s">
-        <v>495</v>
-      </c>
-      <c r="K5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -6951,31 +6847,31 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K6" t="s">
         <v>489</v>
-      </c>
-      <c r="D6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" t="s">
-        <v>493</v>
-      </c>
-      <c r="H6" t="s">
-        <v>494</v>
-      </c>
-      <c r="I6" t="s">
-        <v>428</v>
-      </c>
-      <c r="J6" t="s">
-        <v>495</v>
-      </c>
-      <c r="K6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -6986,101 +6882,101 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I8" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I9" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -7091,31 +6987,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I10" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -7126,31 +7022,31 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H11" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J11" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -7161,31 +7057,31 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H12" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J12" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K12" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -7196,31 +7092,31 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H13" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I13" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J13" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K13" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/urban_type_creator/database_copy.xlsx
+++ b/urban_type_creator/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,16 @@
     <sheet name="Lod3_LGP" sheetId="11" r:id="rId13"/>
     <sheet name="Lod3_Drainage" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="570">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1306,18 +1303,6 @@
     <t>Alb_max</t>
   </si>
   <si>
-    <t>Alb_wall_min</t>
-  </si>
-  <si>
-    <t>Alb_wall_max</t>
-  </si>
-  <si>
-    <t>Alb_roof_min</t>
-  </si>
-  <si>
-    <t>Alb_roof_max</t>
-  </si>
-  <si>
     <t>Alb1</t>
   </si>
   <si>
@@ -1327,9 +1312,6 @@
     <t>Alb2</t>
   </si>
   <si>
-    <t>Buildings</t>
-  </si>
-  <si>
     <t>Alb3</t>
   </si>
   <si>
@@ -1627,9 +1609,6 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t>RoofWall</t>
-  </si>
-  <si>
     <t>NonVeg10</t>
   </si>
   <si>
@@ -1657,9 +1636,6 @@
     <t>Bsoil12</t>
   </si>
   <si>
-    <t>SoilDepth</t>
-  </si>
-  <si>
     <t>Water1</t>
   </si>
   <si>
@@ -1715,6 +1691,57 @@
   </si>
   <si>
     <t>Bag End</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>naafd</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Rocl</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Olso</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Alb13</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1787,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1783,32 +1810,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2117,14 +2130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="34.6328125" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="66.453125" customWidth="1"/>
     <col min="15" max="15" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2133,46 +2146,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2180,43 +2193,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>553</v>
+      <c r="H2" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2224,43 +2237,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2268,43 +2281,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>554</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
       <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
       <c r="N4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2312,40 +2325,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>556</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -2353,37 +2366,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -2391,37 +2404,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -2429,37 +2442,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2467,37 +2480,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2505,37 +2518,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
       <c r="N10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2543,37 +2556,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2581,40 +2594,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2622,37 +2635,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
       <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
         <v>27</v>
       </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
       <c r="N13" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2660,37 +2673,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2698,37 +2711,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
       <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
         <v>27</v>
       </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
       <c r="N15" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2736,40 +2749,40 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2777,37 +2790,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
       <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
         <v>27</v>
       </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
       <c r="N17" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2815,43 +2828,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>56</v>
       </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
       <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2859,43 +2872,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
       <c r="N19" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2903,40 +2916,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
-      </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2944,19 +2957,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>560</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
       <c r="N21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -2970,10 +2983,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2983,359 +2996,356 @@
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>469</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" t="s">
-        <v>452</v>
-      </c>
-      <c r="J2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" t="s">
+        <v>480</v>
+      </c>
+      <c r="I8" t="s">
+        <v>420</v>
+      </c>
+      <c r="J8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="C11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E5" t="s">
-        <v>502</v>
-      </c>
-      <c r="G5" t="s">
-        <v>433</v>
-      </c>
-      <c r="H5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J5" t="s">
-        <v>421</v>
-      </c>
-      <c r="K5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" t="s">
-        <v>509</v>
-      </c>
-      <c r="E6" t="s">
-        <v>502</v>
-      </c>
-      <c r="G6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I6" t="s">
-        <v>486</v>
-      </c>
-      <c r="J6" t="s">
-        <v>421</v>
-      </c>
-      <c r="K6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I7" t="s">
-        <v>486</v>
-      </c>
-      <c r="J7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D8" t="s">
-        <v>509</v>
-      </c>
-      <c r="E8" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I8" t="s">
-        <v>486</v>
-      </c>
-      <c r="J8" t="s">
-        <v>421</v>
-      </c>
-      <c r="K8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E9" t="s">
-        <v>504</v>
-      </c>
-      <c r="G9" t="s">
-        <v>430</v>
-      </c>
-      <c r="H9" t="s">
-        <v>374</v>
-      </c>
-      <c r="I9" t="s">
-        <v>452</v>
-      </c>
-      <c r="J9" t="s">
-        <v>411</v>
-      </c>
-      <c r="K9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E10" t="s">
-        <v>504</v>
-      </c>
-      <c r="G10" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" t="s">
-        <v>374</v>
-      </c>
-      <c r="I10" t="s">
-        <v>452</v>
-      </c>
-      <c r="J10" t="s">
-        <v>411</v>
-      </c>
-      <c r="K10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>533</v>
-      </c>
-      <c r="D11" t="s">
-        <v>505</v>
-      </c>
-      <c r="E11" t="s">
-        <v>504</v>
-      </c>
-      <c r="G11" t="s">
-        <v>433</v>
-      </c>
-      <c r="H11" t="s">
-        <v>386</v>
-      </c>
       <c r="I11" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="J11" t="s">
-        <v>421</v>
-      </c>
-      <c r="K11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3345,117 +3355,108 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" t="s">
         <v>387</v>
       </c>
-      <c r="C2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D2" t="s">
-        <v>388</v>
-      </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s">
         <v>386</v>
       </c>
-      <c r="H2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B3" t="s">
-        <v>387</v>
-      </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K3">
-        <v>0.88</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3478,72 +3479,72 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H1" t="s">
-        <v>474</v>
-      </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="K2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -3567,45 +3568,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -3620,21 +3621,21 @@
         <v>1.5E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F3">
         <v>0.24</v>
@@ -3649,21 +3650,21 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -3678,21 +3679,21 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -3707,7 +3708,7 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3730,42 +3731,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3780,7 +3781,7 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3810,7 +3811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3819,118 +3822,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
       </c>
       <c r="C2">
         <v>1987</v>
       </c>
       <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1991</v>
       </c>
       <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -3939,30 +3942,30 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -3971,56 +3974,56 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
       </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>2013</v>
       </c>
       <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>44211</v>
@@ -4029,30 +4032,30 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -4061,30 +4064,30 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>2011</v>
       </c>
       <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
         <v>120</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
         <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4093,59 +4096,59 @@
         <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>1991</v>
       </c>
       <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
         <v>125</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>127</v>
-      </c>
-      <c r="G10" t="s">
-        <v>128</v>
       </c>
       <c r="I10">
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -4154,27 +4157,27 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>2002</v>
       </c>
       <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
         <v>136</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>138</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -4183,30 +4186,30 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
         <v>141</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>142</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>144</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -4215,30 +4218,30 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>2005</v>
       </c>
       <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>149</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4247,30 +4250,30 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>1986</v>
       </c>
       <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
         <v>152</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
         <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -4279,30 +4282,30 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
         <v>157</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
         <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4311,27 +4314,27 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
         <v>162</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>163</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
       </c>
       <c r="G17" s="2">
         <v>44227</v>
@@ -4343,27 +4346,27 @@
         <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
         <v>167</v>
       </c>
-      <c r="E18" t="s">
-        <v>168</v>
-      </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2">
         <v>44219</v>
@@ -4372,82 +4375,82 @@
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
         <v>171</v>
       </c>
-      <c r="E19" t="s">
+      <c r="M19" t="s">
         <v>172</v>
-      </c>
-      <c r="M19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
         <v>175</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
         <v>176</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>177</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s">
         <v>178</v>
-      </c>
-      <c r="M20" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>1974</v>
       </c>
       <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
         <v>181</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
         <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>183</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -4456,30 +4459,30 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>1985</v>
       </c>
       <c r="D22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" t="s">
         <v>186</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
         <v>187</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
-        <v>188</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -4488,53 +4491,53 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
       <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
         <v>191</v>
       </c>
-      <c r="E23" t="s">
+      <c r="K23" t="s">
         <v>192</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>193</v>
-      </c>
-      <c r="M23" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>1971</v>
       </c>
       <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
         <v>196</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>197</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>198</v>
-      </c>
-      <c r="G24" t="s">
-        <v>199</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4543,53 +4546,53 @@
         <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>2000</v>
       </c>
       <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" t="s">
         <v>202</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>203</v>
       </c>
-      <c r="F25" t="s">
+      <c r="M25" t="s">
         <v>204</v>
-      </c>
-      <c r="M25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>2009</v>
       </c>
       <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
         <v>207</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
         <v>208</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" t="s">
-        <v>209</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -4598,30 +4601,30 @@
         <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>2007</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>212</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
         <v>213</v>
-      </c>
-      <c r="F27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" t="s">
-        <v>214</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -4630,30 +4633,30 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>216</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>217</v>
       </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
         <v>218</v>
-      </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" t="s">
-        <v>219</v>
       </c>
       <c r="H28">
         <v>9</v>
@@ -4662,30 +4665,30 @@
         <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>1998</v>
       </c>
       <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
         <v>222</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>223</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>224</v>
-      </c>
-      <c r="G29" t="s">
-        <v>225</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -4694,91 +4697,91 @@
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>1978</v>
       </c>
       <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>229</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>230</v>
       </c>
-      <c r="G30" t="s">
+      <c r="M30" t="s">
         <v>231</v>
-      </c>
-      <c r="M30" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
         <v>233</v>
-      </c>
-      <c r="B31" t="s">
-        <v>234</v>
       </c>
       <c r="C31">
         <v>1979</v>
       </c>
       <c r="D31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" t="s">
         <v>235</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>236</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>237</v>
-      </c>
-      <c r="G31" t="s">
-        <v>238</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
         <v>239</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>240</v>
-      </c>
-      <c r="M31" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>2003</v>
       </c>
       <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
         <v>243</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>244</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>245</v>
-      </c>
-      <c r="G32" t="s">
-        <v>246</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4787,30 +4790,30 @@
         <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>1986</v>
       </c>
       <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" t="s">
         <v>249</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
         <v>250</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" t="s">
-        <v>251</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4819,30 +4822,30 @@
         <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>1976</v>
       </c>
       <c r="D34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" t="s">
         <v>254</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>255</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>256</v>
-      </c>
-      <c r="G34" t="s">
-        <v>257</v>
       </c>
       <c r="H34">
         <v>927</v>
@@ -4851,30 +4854,30 @@
         <v>273</v>
       </c>
       <c r="M34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35">
         <v>1974</v>
       </c>
       <c r="D35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" t="s">
         <v>260</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>261</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>262</v>
-      </c>
-      <c r="G35" t="s">
-        <v>263</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -4883,30 +4886,30 @@
         <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>2006</v>
       </c>
       <c r="D36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>267</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>268</v>
-      </c>
-      <c r="G36" t="s">
-        <v>269</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -4915,27 +4918,27 @@
         <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
         <v>272</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>273</v>
-      </c>
-      <c r="F37" t="s">
-        <v>274</v>
       </c>
       <c r="G37" s="2">
         <v>44210</v>
@@ -4944,27 +4947,27 @@
         <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>1990</v>
       </c>
       <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
         <v>277</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>278</v>
-      </c>
-      <c r="F38" t="s">
-        <v>279</v>
       </c>
       <c r="G38" s="2">
         <v>44203</v>
@@ -4976,30 +4979,30 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>2012</v>
       </c>
       <c r="D39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" t="s">
         <v>282</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>283</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>284</v>
-      </c>
-      <c r="G39" t="s">
-        <v>285</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -5008,30 +5011,30 @@
         <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>1988</v>
       </c>
       <c r="D40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E40" t="s">
         <v>288</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
         <v>289</v>
-      </c>
-      <c r="F40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" t="s">
-        <v>290</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5040,30 +5043,30 @@
         <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
       <c r="D41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" t="s">
         <v>293</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" t="s">
         <v>294</v>
-      </c>
-      <c r="F41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" t="s">
-        <v>295</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5072,111 +5075,111 @@
         <v>164</v>
       </c>
       <c r="M41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="D42" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" t="s">
         <v>298</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>300</v>
-      </c>
-      <c r="G42" t="s">
-        <v>301</v>
       </c>
       <c r="I42">
         <v>169</v>
       </c>
       <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="s">
         <v>302</v>
-      </c>
-      <c r="M42" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>2000</v>
       </c>
       <c r="D43" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" t="s">
         <v>305</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>307</v>
-      </c>
-      <c r="G43" t="s">
-        <v>308</v>
       </c>
       <c r="I43">
         <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <v>1995</v>
       </c>
       <c r="D44" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" t="s">
         <v>311</v>
       </c>
-      <c r="E44" t="s">
+      <c r="M44" t="s">
         <v>312</v>
-      </c>
-      <c r="M44" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>2004</v>
       </c>
       <c r="D45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" t="s">
         <v>315</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" t="s">
         <v>316</v>
-      </c>
-      <c r="F45" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" t="s">
-        <v>317</v>
       </c>
       <c r="H45">
         <v>17</v>
@@ -5185,59 +5188,59 @@
         <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <v>2017</v>
       </c>
       <c r="D46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" t="s">
         <v>320</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" t="s">
         <v>321</v>
-      </c>
-      <c r="F46" t="s">
-        <v>307</v>
-      </c>
-      <c r="G46" t="s">
-        <v>322</v>
       </c>
       <c r="I46">
         <v>236</v>
       </c>
       <c r="M46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>2002</v>
       </c>
       <c r="D47" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>326</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>327</v>
-      </c>
-      <c r="G47" t="s">
-        <v>328</v>
       </c>
       <c r="H47">
         <v>7</v>
@@ -5246,30 +5249,30 @@
         <v>8</v>
       </c>
       <c r="M47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>2012</v>
       </c>
       <c r="D48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" t="s">
         <v>331</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>333</v>
-      </c>
-      <c r="G48" t="s">
-        <v>334</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -5278,56 +5281,56 @@
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49">
         <v>2005</v>
       </c>
       <c r="D49" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" t="s">
         <v>337</v>
       </c>
-      <c r="E49" t="s">
+      <c r="K49" t="s">
         <v>338</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>339</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>340</v>
-      </c>
-      <c r="M49" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50">
         <v>2007</v>
       </c>
       <c r="D50" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" t="s">
         <v>343</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" t="s">
         <v>344</v>
-      </c>
-      <c r="F50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" t="s">
-        <v>345</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5336,30 +5339,30 @@
         <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" t="s">
         <v>348</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" t="s">
         <v>349</v>
-      </c>
-      <c r="F51" t="s">
-        <v>164</v>
-      </c>
-      <c r="G51" t="s">
-        <v>350</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5368,30 +5371,30 @@
         <v>173</v>
       </c>
       <c r="M51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" t="s">
         <v>353</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>354</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>355</v>
-      </c>
-      <c r="G52" t="s">
-        <v>356</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -5400,59 +5403,59 @@
         <v>124</v>
       </c>
       <c r="M52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
       <c r="D53" t="s">
+        <v>358</v>
+      </c>
+      <c r="E53" t="s">
         <v>359</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>360</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>361</v>
-      </c>
-      <c r="G53" t="s">
-        <v>362</v>
       </c>
       <c r="I53">
         <v>105</v>
       </c>
       <c r="M53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
+        <v>364</v>
+      </c>
+      <c r="E54" t="s">
         <v>365</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>366</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>367</v>
-      </c>
-      <c r="G54" t="s">
-        <v>368</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -5461,7 +5464,7 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5477,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5484,299 +5487,299 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
         <v>374</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>376</v>
-      </c>
-      <c r="E2" t="s">
-        <v>377</v>
       </c>
       <c r="F2">
         <v>0.96</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>379</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>380</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>381</v>
-      </c>
-      <c r="E3" t="s">
-        <v>382</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>383</v>
       </c>
-      <c r="B4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" t="s">
-        <v>385</v>
       </c>
       <c r="F4">
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
         <v>386</v>
       </c>
-      <c r="B5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>387</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>388</v>
-      </c>
-      <c r="E5" t="s">
-        <v>389</v>
       </c>
       <c r="F5">
         <v>0.66</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>390</v>
       </c>
-      <c r="B6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>391</v>
-      </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6">
         <v>0.98</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>392</v>
       </c>
-      <c r="B7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>393</v>
-      </c>
-      <c r="E7" t="s">
-        <v>394</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>395</v>
-      </c>
-      <c r="B8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>396</v>
       </c>
       <c r="F8">
         <v>0.89</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9">
         <v>0.996</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>398</v>
       </c>
-      <c r="B10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>399</v>
-      </c>
-      <c r="E10" t="s">
-        <v>400</v>
       </c>
       <c r="F10">
         <v>0.96</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>401</v>
       </c>
-      <c r="B11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>402</v>
-      </c>
-      <c r="E11" t="s">
-        <v>403</v>
       </c>
       <c r="F11">
         <v>0.77</v>
       </c>
       <c r="G11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
         <v>404</v>
       </c>
-      <c r="B12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>405</v>
       </c>
-      <c r="F12" t="s">
-        <v>406</v>
-      </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F13">
         <v>0.81</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +5791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5797,51 +5802,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>412</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>414</v>
-      </c>
-      <c r="F2" t="s">
-        <v>415</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -5853,27 +5858,27 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" t="s">
         <v>416</v>
       </c>
-      <c r="B3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" t="s">
-        <v>417</v>
-      </c>
       <c r="E3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" t="s">
         <v>414</v>
-      </c>
-      <c r="F3" t="s">
-        <v>415</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -5885,27 +5890,27 @@
         <v>-6</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" t="s">
         <v>418</v>
       </c>
-      <c r="B4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" t="s">
         <v>419</v>
-      </c>
-      <c r="E4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" t="s">
-        <v>420</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -5917,21 +5922,39 @@
         <v>-6</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.26</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
       </c>
       <c r="J5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5941,64 +5964,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" t="s">
         <v>424</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>429</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -6006,22 +6020,25 @@
       <c r="G2">
         <v>0.09</v>
       </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>555</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -6029,22 +6046,25 @@
       <c r="G3">
         <v>0.15</v>
       </c>
-      <c r="L3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>556</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F4">
         <v>0.19</v>
@@ -6052,22 +6072,25 @@
       <c r="G4">
         <v>0.19</v>
       </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>556</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -6075,22 +6098,25 @@
       <c r="G5">
         <v>0.12</v>
       </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>557</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -6098,22 +6124,25 @@
       <c r="G6">
         <v>0.15</v>
       </c>
-      <c r="L6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>558</v>
       </c>
       <c r="E7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -6121,19 +6150,25 @@
       <c r="G7">
         <v>0.21</v>
       </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -6141,19 +6176,25 @@
       <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="L8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" t="s">
+        <v>424</v>
       </c>
       <c r="F9">
         <v>0.12</v>
@@ -6161,19 +6202,25 @@
       <c r="G9">
         <v>0.12</v>
       </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
       </c>
       <c r="F10">
         <v>0.18</v>
@@ -6181,22 +6228,25 @@
       <c r="G10">
         <v>0.18</v>
       </c>
-      <c r="L10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -6204,22 +6254,25 @@
       <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>558</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -6227,22 +6280,25 @@
       <c r="G12">
         <v>0.16</v>
       </c>
-      <c r="L12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>563</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -6250,8 +6306,34 @@
       <c r="G13">
         <v>0.19</v>
       </c>
-      <c r="L13" t="s">
-        <v>104</v>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>0.19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6263,7 +6345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6272,39 +6356,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6316,18 +6406,24 @@
         <v>0.77</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6339,24 +6435,24 @@
         <v>0.7</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>567</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6368,7 +6464,7 @@
         <v>0.66</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6477,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6396,36 +6492,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -6434,18 +6536,24 @@
         <v>1.3</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -6454,18 +6562,24 @@
         <v>0.8</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" t="s">
+        <v>567</v>
       </c>
       <c r="F4">
         <v>1.9</v>
@@ -6474,7 +6588,7 @@
         <v>1.9</v>
       </c>
       <c r="H4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -6495,45 +6609,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>13.8</v>
@@ -6554,15 +6668,15 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>16.8</v>
@@ -6583,15 +6697,15 @@
         <v>562356</v>
       </c>
       <c r="L3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>34</v>
@@ -6612,15 +6726,15 @@
         <v>2345234</v>
       </c>
       <c r="L4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1234</v>
@@ -6641,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6653,12 +6767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6667,456 +6780,456 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5" t="s">
+        <v>481</v>
+      </c>
+      <c r="I5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" t="s">
         <v>482</v>
       </c>
-      <c r="D5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G5" t="s">
-        <v>486</v>
-      </c>
-      <c r="H5" t="s">
-        <v>487</v>
-      </c>
-      <c r="I5" t="s">
-        <v>421</v>
-      </c>
-      <c r="J5" t="s">
-        <v>488</v>
-      </c>
       <c r="K5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" t="s">
         <v>482</v>
       </c>
-      <c r="D6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F6" t="s">
-        <v>386</v>
-      </c>
-      <c r="G6" t="s">
-        <v>486</v>
-      </c>
-      <c r="H6" t="s">
-        <v>487</v>
-      </c>
-      <c r="I6" t="s">
-        <v>421</v>
-      </c>
-      <c r="J6" t="s">
-        <v>488</v>
-      </c>
       <c r="K6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H11" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/urban_type_creator/database_copy.xlsx
+++ b/urban_type_creator/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="600">
   <si>
     <t>ID</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Veg6</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>TESTST</t>
   </si>
   <si>
@@ -1171,24 +1168,12 @@
     <t>NonVeg</t>
   </si>
   <si>
-    <t>Buidling</t>
-  </si>
-  <si>
-    <t>Brick Wall</t>
-  </si>
-  <si>
-    <t>Swindon, UK</t>
-  </si>
-  <si>
     <t>Em3</t>
   </si>
   <si>
     <t>Wood</t>
   </si>
   <si>
-    <t>Moscow, Russia</t>
-  </si>
-  <si>
     <t>Em4</t>
   </si>
   <si>
@@ -1198,9 +1183,6 @@
     <t>Gravel</t>
   </si>
   <si>
-    <t>Brisbane, Australia</t>
-  </si>
-  <si>
     <t>Em5</t>
   </si>
   <si>
@@ -1210,45 +1192,24 @@
     <t>Em6</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TEst</t>
-  </si>
-  <si>
     <t>Em7</t>
   </si>
   <si>
-    <t>Testsite</t>
-  </si>
-  <si>
     <t>Em8</t>
   </si>
   <si>
     <t>Em9</t>
   </si>
   <si>
-    <t>Mixed Evergreens</t>
-  </si>
-  <si>
-    <t>Sundsvall, Sweden</t>
-  </si>
-  <si>
     <t>Em10</t>
   </si>
   <si>
     <t>Cobblestone</t>
   </si>
   <si>
-    <t>sweden</t>
-  </si>
-  <si>
     <t>Em11</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>0.77</t>
   </si>
   <si>
@@ -1267,30 +1228,15 @@
     <t>OHM1</t>
   </si>
   <si>
-    <t>Roof</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
     <t>OHM2</t>
   </si>
   <si>
-    <t>Tiles</t>
-  </si>
-  <si>
     <t>OHM3</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
@@ -1318,9 +1264,6 @@
     <t>Alb4</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Alb5</t>
   </si>
   <si>
@@ -1363,9 +1306,6 @@
     <t>LAI3</t>
   </si>
   <si>
-    <t xml:space="preserve">Long </t>
-  </si>
-  <si>
     <t>StorageMin</t>
   </si>
   <si>
@@ -1387,9 +1327,6 @@
     <t>St3</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -1639,30 +1576,12 @@
     <t>Water1</t>
   </si>
   <si>
-    <t>ESTM</t>
-  </si>
-  <si>
-    <t>ANOHM</t>
-  </si>
-  <si>
-    <t>ANOHM1</t>
-  </si>
-  <si>
-    <t>ESTM5</t>
-  </si>
-  <si>
-    <t>Water Depth</t>
-  </si>
-  <si>
     <t>River</t>
   </si>
   <si>
     <t>Em12</t>
   </si>
   <si>
-    <t>elm</t>
-  </si>
-  <si>
     <t>Really nice Palace!</t>
   </si>
   <si>
@@ -1696,52 +1615,223 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>naafd</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>sdg</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>dg</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>Rocl</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>Olso</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>Alb13</t>
+  </si>
+  <si>
+    <t>PavedA</t>
+  </si>
+  <si>
+    <t>BuildingA</t>
+  </si>
+  <si>
+    <t>BareSoilA</t>
+  </si>
+  <si>
+    <t>PavedB</t>
+  </si>
+  <si>
+    <t>BuildingB</t>
+  </si>
+  <si>
+    <t>BaresoilB</t>
+  </si>
+  <si>
+    <t>EvergreenTreeA</t>
+  </si>
+  <si>
+    <t>DecTreeA</t>
+  </si>
+  <si>
+    <t>GrassA</t>
+  </si>
+  <si>
+    <t>EvergreenTreeB</t>
+  </si>
+  <si>
+    <t>DecTreeB</t>
+  </si>
+  <si>
+    <t>GrassB</t>
+  </si>
+  <si>
+    <t>WaterA</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>Alb14</t>
+  </si>
+  <si>
+    <t>WaterB</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>OHM5</t>
+  </si>
+  <si>
+    <t>OHM6</t>
+  </si>
+  <si>
+    <t>OHM7</t>
+  </si>
+  <si>
+    <t>OHM8</t>
+  </si>
+  <si>
+    <t>OHM9</t>
+  </si>
+  <si>
+    <t>OHM10</t>
+  </si>
+  <si>
+    <t>OHM11</t>
+  </si>
+  <si>
+    <t>OHM12</t>
+  </si>
+  <si>
+    <t>OHM13</t>
+  </si>
+  <si>
+    <t>OHM14</t>
+  </si>
+  <si>
+    <t>Em13</t>
+  </si>
+  <si>
+    <t>Em14</t>
+  </si>
+  <si>
+    <t>LAI5</t>
+  </si>
+  <si>
+    <t>LAI6</t>
+  </si>
+  <si>
+    <t>LAI7</t>
+  </si>
+  <si>
+    <t>LAI8</t>
+  </si>
+  <si>
+    <t>LAI9</t>
+  </si>
+  <si>
+    <t>LAI10</t>
+  </si>
+  <si>
+    <t>LAI11</t>
+  </si>
+  <si>
+    <t>LAI12</t>
+  </si>
+  <si>
+    <t>LAI13</t>
+  </si>
+  <si>
+    <t>LAI14</t>
+  </si>
+  <si>
+    <t>St5</t>
+  </si>
+  <si>
+    <t>St6</t>
+  </si>
+  <si>
+    <t>St7</t>
+  </si>
+  <si>
+    <t>St8</t>
+  </si>
+  <si>
+    <t>St9</t>
+  </si>
+  <si>
+    <t>St10</t>
+  </si>
+  <si>
+    <t>St11</t>
+  </si>
+  <si>
+    <t>St12</t>
+  </si>
+  <si>
+    <t>St13</t>
+  </si>
+  <si>
+    <t>St14</t>
+  </si>
+  <si>
+    <t>LGP5</t>
+  </si>
+  <si>
+    <t>LGP6</t>
+  </si>
+  <si>
+    <t>Dr5</t>
+  </si>
+  <si>
+    <t>Dr6</t>
+  </si>
+  <si>
+    <t>Dr7</t>
+  </si>
+  <si>
+    <t>Dr8</t>
+  </si>
+  <si>
+    <t>Dr9</t>
+  </si>
+  <si>
+    <t>Dr10</t>
+  </si>
+  <si>
+    <t>Dr11</t>
+  </si>
+  <si>
+    <t>Dr12</t>
+  </si>
+  <si>
+    <t>Dr13</t>
+  </si>
+  <si>
+    <t>Dr14</t>
+  </si>
+  <si>
+    <t>Water2</t>
+  </si>
+  <si>
+    <t>Lakes</t>
+  </si>
+  <si>
+    <t>Riga, Latvia</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1877,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1810,12 +1900,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1825,6 +1926,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -2146,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2182,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -2211,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -2229,7 +2333,7 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2273,7 +2377,7 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2299,7 +2403,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2317,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2328,28 +2432,28 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -2358,7 +2462,7 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -2369,13 +2473,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2384,10 +2488,10 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -2396,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -2407,13 +2511,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2425,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -2434,7 +2538,7 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -2442,16 +2546,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2472,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2480,22 +2584,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -2510,7 +2614,7 @@
         <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2518,22 +2622,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -2548,7 +2652,7 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2556,22 +2660,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -2586,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2594,31 +2698,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
         <v>26</v>
@@ -2627,7 +2731,7 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2635,22 +2739,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -2665,7 +2769,7 @@
         <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2673,22 +2777,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -2703,7 +2807,7 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2711,22 +2815,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -2741,7 +2845,7 @@
         <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2749,25 +2853,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -2782,7 +2886,7 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2790,22 +2894,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -2820,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2828,25 +2932,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -2864,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2872,28 +2976,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="F19" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
@@ -2908,7 +3012,7 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2919,22 +3023,22 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2949,7 +3053,7 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2957,19 +3061,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
-        <v>552</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
       <c r="N21" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -2983,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3001,31 +3105,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3036,28 +3140,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3068,28 +3172,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
         <v>476</v>
       </c>
-      <c r="D3" t="s">
-        <v>497</v>
-      </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="I3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -3100,28 +3204,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F4" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H4" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="I4" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -3132,220 +3236,252 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I6" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J7" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D8" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H8" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I8" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J8" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H10" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J10" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F11" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>483</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" t="s">
+        <v>459</v>
+      </c>
+      <c r="I12" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3357,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3368,95 +3504,95 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J2" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I3" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J3" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3466,88 +3602,99 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
-      </c>
-      <c r="J1" t="s">
-        <v>536</v>
-      </c>
-      <c r="K1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K2" t="s">
-        <v>538</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3557,56 +3704,70 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>537</v>
+      </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -3621,21 +3782,24 @@
         <v>1.5E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>540</v>
+      </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F3">
         <v>0.24</v>
@@ -3650,21 +3814,24 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>535</v>
+      </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -3679,21 +3846,24 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>536</v>
+      </c>
       <c r="E5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -3708,7 +3878,71 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J5" t="s">
-        <v>449</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6">
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="G6">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="J6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7">
+        <v>0.88</v>
+      </c>
+      <c r="G7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H7">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="I7">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="J7" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3718,89 +3952,496 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.123</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G3">
+        <v>0.12350999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="G4">
+        <v>0.1235</v>
+      </c>
+      <c r="H4">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-0.13569666666666699</v>
+      </c>
+      <c r="H5">
+        <v>0.1532</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-0.33009666666666698</v>
+      </c>
+      <c r="H6">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>-0.52449666666666706</v>
+      </c>
+      <c r="H7">
+        <v>0.38527</v>
+      </c>
+      <c r="I7">
+        <v>17.3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-0.71889666666666696</v>
+      </c>
+      <c r="H8">
+        <v>0.41324</v>
+      </c>
+      <c r="I8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-0.91329666666666698</v>
+      </c>
+      <c r="H9">
+        <v>0.44120999999999999</v>
+      </c>
+      <c r="I9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-1.1076966666666701</v>
+      </c>
+      <c r="H10">
+        <v>0.46917999999999999</v>
+      </c>
+      <c r="I10">
+        <v>21.2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-1.30209666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.49714999999999998</v>
+      </c>
+      <c r="I11">
+        <v>22.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>-1.4964966666666699</v>
+      </c>
+      <c r="H12">
+        <v>0.52512000000000003</v>
+      </c>
+      <c r="I12">
+        <v>23.8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>-1.69089666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.55308999999999997</v>
+      </c>
+      <c r="I13">
+        <v>25.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>-1.88529666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.58106000000000002</v>
+      </c>
+      <c r="I14">
+        <v>26.4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>-2.0796966666666701</v>
+      </c>
+      <c r="H15">
+        <v>0.60902999999999996</v>
+      </c>
+      <c r="I15">
+        <v>27.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3812,7 +4453,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3822,118 +4463,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2">
         <v>1987</v>
       </c>
       <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1991</v>
       </c>
       <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -3942,30 +4583,30 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -3974,56 +4615,56 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
       </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>2013</v>
       </c>
       <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
         <v>44211</v>
@@ -4032,30 +4673,30 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -4064,30 +4705,30 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>2011</v>
       </c>
       <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
         <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4096,59 +4737,59 @@
         <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>1991</v>
       </c>
       <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>125</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>126</v>
-      </c>
-      <c r="G10" t="s">
-        <v>127</v>
       </c>
       <c r="I10">
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
         <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>132</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -4157,27 +4798,27 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>2002</v>
       </c>
       <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
         <v>135</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -4186,30 +4827,30 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
         <v>140</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>141</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>143</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -4218,30 +4859,30 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>2005</v>
       </c>
       <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
         <v>147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>148</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4250,30 +4891,30 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>1986</v>
       </c>
       <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
         <v>151</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
         <v>152</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -4282,30 +4923,30 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
         <v>156</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
         <v>157</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" t="s">
-        <v>158</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4314,27 +4955,27 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
         <v>161</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>162</v>
-      </c>
-      <c r="F17" t="s">
-        <v>163</v>
       </c>
       <c r="G17" s="2">
         <v>44227</v>
@@ -4346,27 +4987,27 @@
         <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
         <v>166</v>
       </c>
-      <c r="E18" t="s">
-        <v>167</v>
-      </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="2">
         <v>44219</v>
@@ -4375,82 +5016,82 @@
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
         <v>170</v>
       </c>
-      <c r="E19" t="s">
+      <c r="M19" t="s">
         <v>171</v>
-      </c>
-      <c r="M19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
         <v>174</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
         <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>176</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="s">
         <v>177</v>
-      </c>
-      <c r="M20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>1974</v>
       </c>
       <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
         <v>180</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
         <v>181</v>
-      </c>
-      <c r="F21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" t="s">
-        <v>182</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -4459,30 +5100,30 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22">
         <v>1985</v>
       </c>
       <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
         <v>185</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
         <v>186</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>187</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -4491,53 +5132,53 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
       <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
         <v>190</v>
       </c>
-      <c r="E23" t="s">
+      <c r="K23" t="s">
         <v>191</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>192</v>
-      </c>
-      <c r="M23" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>1971</v>
       </c>
       <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
         <v>195</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>196</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>197</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4546,53 +5187,53 @@
         <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>2000</v>
       </c>
       <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
         <v>201</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>202</v>
       </c>
-      <c r="F25" t="s">
+      <c r="M25" t="s">
         <v>203</v>
-      </c>
-      <c r="M25" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>2009</v>
       </c>
       <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" t="s">
         <v>206</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
         <v>207</v>
-      </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>208</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -4601,30 +5242,30 @@
         <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>2007</v>
       </c>
       <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
         <v>211</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
         <v>212</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>213</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -4633,30 +5274,30 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>215</v>
       </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" t="s">
         <v>217</v>
-      </c>
-      <c r="F28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" t="s">
-        <v>218</v>
       </c>
       <c r="H28">
         <v>9</v>
@@ -4665,30 +5306,30 @@
         <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>1998</v>
       </c>
       <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
         <v>221</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>222</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>223</v>
-      </c>
-      <c r="G29" t="s">
-        <v>224</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -4697,91 +5338,91 @@
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1978</v>
       </c>
       <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
         <v>227</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>228</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>229</v>
       </c>
-      <c r="G30" t="s">
+      <c r="M30" t="s">
         <v>230</v>
-      </c>
-      <c r="M30" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
         <v>232</v>
-      </c>
-      <c r="B31" t="s">
-        <v>233</v>
       </c>
       <c r="C31">
         <v>1979</v>
       </c>
       <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
         <v>234</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>235</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>236</v>
-      </c>
-      <c r="G31" t="s">
-        <v>237</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
         <v>238</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>239</v>
-      </c>
-      <c r="M31" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>2003</v>
       </c>
       <c r="D32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
         <v>242</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>243</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>244</v>
-      </c>
-      <c r="G32" t="s">
-        <v>245</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4790,30 +5431,30 @@
         <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>1986</v>
       </c>
       <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" t="s">
         <v>248</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
         <v>249</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" t="s">
-        <v>250</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4822,30 +5463,30 @@
         <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>1976</v>
       </c>
       <c r="D34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" t="s">
         <v>253</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>254</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>255</v>
-      </c>
-      <c r="G34" t="s">
-        <v>256</v>
       </c>
       <c r="H34">
         <v>927</v>
@@ -4854,30 +5495,30 @@
         <v>273</v>
       </c>
       <c r="M34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>1974</v>
       </c>
       <c r="D35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" t="s">
         <v>259</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>260</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>261</v>
-      </c>
-      <c r="G35" t="s">
-        <v>262</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -4886,30 +5527,30 @@
         <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36">
         <v>2006</v>
       </c>
       <c r="D36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" t="s">
         <v>265</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>266</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>267</v>
-      </c>
-      <c r="G36" t="s">
-        <v>268</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -4918,27 +5559,27 @@
         <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" t="s">
         <v>271</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>272</v>
-      </c>
-      <c r="F37" t="s">
-        <v>273</v>
       </c>
       <c r="G37" s="2">
         <v>44210</v>
@@ -4947,27 +5588,27 @@
         <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>1990</v>
       </c>
       <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" t="s">
         <v>276</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>277</v>
-      </c>
-      <c r="F38" t="s">
-        <v>278</v>
       </c>
       <c r="G38" s="2">
         <v>44203</v>
@@ -4979,30 +5620,30 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>2012</v>
       </c>
       <c r="D39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" t="s">
         <v>281</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>282</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>283</v>
-      </c>
-      <c r="G39" t="s">
-        <v>284</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -5011,30 +5652,30 @@
         <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1988</v>
       </c>
       <c r="D40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" t="s">
         <v>287</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
         <v>288</v>
-      </c>
-      <c r="F40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" t="s">
-        <v>289</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5043,30 +5684,30 @@
         <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
       <c r="D41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
         <v>293</v>
-      </c>
-      <c r="F41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" t="s">
-        <v>294</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5075,111 +5716,111 @@
         <v>164</v>
       </c>
       <c r="M41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="D42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" t="s">
         <v>297</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>298</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>299</v>
-      </c>
-      <c r="G42" t="s">
-        <v>300</v>
       </c>
       <c r="I42">
         <v>169</v>
       </c>
       <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="s">
         <v>301</v>
-      </c>
-      <c r="M42" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>2000</v>
       </c>
       <c r="D43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>305</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>306</v>
-      </c>
-      <c r="G43" t="s">
-        <v>307</v>
       </c>
       <c r="I43">
         <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>1995</v>
       </c>
       <c r="D44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" t="s">
         <v>310</v>
       </c>
-      <c r="E44" t="s">
+      <c r="M44" t="s">
         <v>311</v>
-      </c>
-      <c r="M44" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45">
         <v>2004</v>
       </c>
       <c r="D45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
         <v>314</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" t="s">
         <v>315</v>
-      </c>
-      <c r="F45" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" t="s">
-        <v>316</v>
       </c>
       <c r="H45">
         <v>17</v>
@@ -5188,59 +5829,59 @@
         <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46">
         <v>2017</v>
       </c>
       <c r="D46" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" t="s">
         <v>319</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
         <v>320</v>
-      </c>
-      <c r="F46" t="s">
-        <v>306</v>
-      </c>
-      <c r="G46" t="s">
-        <v>321</v>
       </c>
       <c r="I46">
         <v>236</v>
       </c>
       <c r="M46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>2002</v>
       </c>
       <c r="D47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E47" t="s">
         <v>324</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>325</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>326</v>
-      </c>
-      <c r="G47" t="s">
-        <v>327</v>
       </c>
       <c r="H47">
         <v>7</v>
@@ -5249,30 +5890,30 @@
         <v>8</v>
       </c>
       <c r="M47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>2012</v>
       </c>
       <c r="D48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" t="s">
         <v>330</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>331</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>332</v>
-      </c>
-      <c r="G48" t="s">
-        <v>333</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -5281,56 +5922,56 @@
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <v>2005</v>
       </c>
       <c r="D49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" t="s">
         <v>336</v>
       </c>
-      <c r="E49" t="s">
+      <c r="K49" t="s">
         <v>337</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>338</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>339</v>
-      </c>
-      <c r="M49" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50">
         <v>2007</v>
       </c>
       <c r="D50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" t="s">
         <v>342</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" t="s">
         <v>343</v>
-      </c>
-      <c r="F50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" t="s">
-        <v>344</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5339,30 +5980,30 @@
         <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" t="s">
+        <v>346</v>
+      </c>
+      <c r="E51" t="s">
         <v>347</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
         <v>348</v>
-      </c>
-      <c r="F51" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" t="s">
-        <v>349</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5371,30 +6012,30 @@
         <v>173</v>
       </c>
       <c r="M51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" t="s">
         <v>352</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>353</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>354</v>
-      </c>
-      <c r="G52" t="s">
-        <v>355</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -5403,59 +6044,59 @@
         <v>124</v>
       </c>
       <c r="M52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
       <c r="D53" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" t="s">
         <v>358</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>359</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>360</v>
-      </c>
-      <c r="G53" t="s">
-        <v>361</v>
       </c>
       <c r="I53">
         <v>105</v>
       </c>
       <c r="M53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" t="s">
         <v>364</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>365</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>366</v>
-      </c>
-      <c r="G54" t="s">
-        <v>367</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -5464,7 +6105,7 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5474,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5487,299 +6128,345 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="F2">
         <v>0.96</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
         <v>377</v>
       </c>
-      <c r="B3" t="s">
-        <v>378</v>
-      </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>542</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>532</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>543</v>
       </c>
       <c r="F5">
         <v>0.66</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="F6">
         <v>0.98</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>535</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="F8">
         <v>0.89</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>536</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="F9">
         <v>0.996</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>398</v>
+        <v>537</v>
       </c>
       <c r="E10" t="s">
-        <v>399</v>
+        <v>503</v>
       </c>
       <c r="F10">
         <v>0.96</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>538</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="F11">
         <v>0.77</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" t="s">
         <v>392</v>
       </c>
-      <c r="E12" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" t="s">
-        <v>405</v>
-      </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>550</v>
       </c>
       <c r="F13">
         <v>0.81</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14">
+        <v>0.79213333333333302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>0.78830303030303095</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5789,10 +6476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5802,51 +6489,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -5858,27 +6545,27 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -5890,27 +6577,27 @@
         <v>-6</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -5922,27 +6609,27 @@
         <v>-6</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="E5" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="F5" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="G5">
         <v>7.0000000000000007E-2</v>
@@ -5954,7 +6641,327 @@
         <v>-6</v>
       </c>
       <c r="J5" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6">
+        <v>0.06</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>-8.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I7">
+        <v>-10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I8">
+        <v>-11.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.372</v>
+      </c>
+      <c r="I9">
+        <v>-13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I10">
+        <v>-14.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="H11">
+        <v>0.42</v>
+      </c>
+      <c r="I11">
+        <v>-16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I12">
+        <v>-17.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" t="s">
+        <v>527</v>
+      </c>
+      <c r="G13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I13">
+        <v>-19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I14">
+        <v>-20.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15">
+        <v>6.0000000000000097E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I15">
+        <v>-22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5964,55 +6971,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -6021,24 +7032,24 @@
         <v>0.09</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -6047,24 +7058,24 @@
         <v>0.15</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>0.19</v>
@@ -6073,24 +7084,24 @@
         <v>0.19</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -6099,24 +7110,24 @@
         <v>0.12</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -6125,24 +7136,24 @@
         <v>0.15</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -6151,24 +7162,24 @@
         <v>0.21</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -6177,24 +7188,24 @@
         <v>0.1</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="F9">
         <v>0.12</v>
@@ -6203,24 +7214,24 @@
         <v>0.12</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="F10">
         <v>0.18</v>
@@ -6229,24 +7240,24 @@
         <v>0.18</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>548</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -6255,24 +7266,24 @@
         <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>549</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -6281,24 +7292,24 @@
         <v>0.16</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>550</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -6307,24 +7318,24 @@
         <v>0.19</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="E14" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -6333,7 +7344,33 @@
         <v>0.19</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>0.19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6343,10 +7380,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6356,45 +7393,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6406,24 +7443,24 @@
         <v>0.77</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6435,24 +7472,24 @@
         <v>0.7</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6464,7 +7501,326 @@
         <v>0.66</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.36</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.39</v>
+      </c>
+      <c r="H6">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.42</v>
+      </c>
+      <c r="H7">
+        <v>0.49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.45</v>
+      </c>
+      <c r="H8">
+        <v>0.435</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.48</v>
+      </c>
+      <c r="H9">
+        <v>0.38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.51</v>
+      </c>
+      <c r="H10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.54</v>
+      </c>
+      <c r="H11">
+        <v>0.27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.215</v>
+      </c>
+      <c r="I12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>0.16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.63</v>
+      </c>
+      <c r="H14">
+        <v>0.105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.66</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6474,10 +7830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6492,42 +7848,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -6536,24 +7892,24 @@
         <v>1.3</v>
       </c>
       <c r="H2" t="s">
-        <v>447</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -6562,24 +7918,24 @@
         <v>0.8</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>1.9</v>
@@ -6588,7 +7944,293 @@
         <v>1.9</v>
       </c>
       <c r="H4" t="s">
-        <v>451</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F5">
+        <v>1.7666666666666699</v>
+      </c>
+      <c r="G5">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="G6">
+        <v>2.2333333333333298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7">
+        <v>2.3666666666666698</v>
+      </c>
+      <c r="G7">
+        <v>2.5333333333333301</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="G8">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9">
+        <v>2.9666666666666699</v>
+      </c>
+      <c r="G9">
+        <v>3.1333333333333302</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10">
+        <v>3.2666666666666702</v>
+      </c>
+      <c r="G10">
+        <v>3.43333333333333</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11">
+        <v>3.56666666666667</v>
+      </c>
+      <c r="G11">
+        <v>3.7333333333333298</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12">
+        <v>3.8666666666666698</v>
+      </c>
+      <c r="G12">
+        <v>4.0333333333333297</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="G13">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14">
+        <v>4.4666666666666703</v>
+      </c>
+      <c r="G14">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15">
+        <v>4.7666666666666702</v>
+      </c>
+      <c r="G15">
+        <v>4.93333333333333</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6609,42 +8251,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -6668,12 +8310,12 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -6697,12 +8339,12 @@
         <v>562356</v>
       </c>
       <c r="L3" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -6726,12 +8368,12 @@
         <v>2345234</v>
       </c>
       <c r="L4" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -6755,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6767,7 +8409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6780,34 +8424,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6820,66 +8464,66 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="K2" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="K3" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -6890,31 +8534,31 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4" t="s">
         <v>423</v>
       </c>
-      <c r="F4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H4" t="s">
-        <v>442</v>
-      </c>
       <c r="I4" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="K4" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -6925,31 +8569,31 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H5" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -6960,31 +8604,31 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G6" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="I6" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K6" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -6995,136 +8639,136 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="H7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="I7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="H8" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J8" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="K8" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G9" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="H9" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I9" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="K9" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" t="s">
         <v>423</v>
       </c>
-      <c r="F10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H10" t="s">
-        <v>442</v>
-      </c>
       <c r="I10" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J10" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="K10" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -7135,101 +8779,101 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D11" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G11" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H11" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K11" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G12" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H12" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="I12" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J12" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K12" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" t="s">
         <v>430</v>
       </c>
-      <c r="F13" t="s">
-        <v>382</v>
-      </c>
-      <c r="G13" t="s">
-        <v>450</v>
-      </c>
       <c r="H13" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="I13" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J13" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="K13" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/urban_type_creator/database_copy.xlsx
+++ b/urban_type_creator/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="596">
   <si>
     <t>ID</t>
   </si>
@@ -1315,15 +1315,9 @@
     <t>St1</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>St2</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>St3</t>
   </si>
   <si>
@@ -1504,13 +1498,7 @@
     <t>Swindon, Uk</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>Gothenburg, Sweden</t>
-  </si>
-  <si>
-    <t>R3</t>
   </si>
   <si>
     <t>veg</t>
@@ -2238,19 +2226,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.6328125" customWidth="1"/>
-    <col min="8" max="8" width="66.453125" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="66.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2292,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2315,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -2333,10 +2321,10 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2377,10 +2365,10 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2403,7 +2391,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2421,10 +2409,10 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2444,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -2462,10 +2450,10 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2500,10 +2488,10 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2538,10 +2526,10 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2576,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2614,10 +2602,10 @@
         <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2652,10 +2640,10 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2690,10 +2678,10 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2713,7 +2701,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
@@ -2731,10 +2719,10 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2769,10 +2757,10 @@
         <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2807,10 +2795,10 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2845,10 +2833,10 @@
         <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2868,7 +2856,7 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
@@ -2886,10 +2874,10 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2924,10 +2912,10 @@
         <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2968,10 +2956,10 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2985,16 +2973,16 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
@@ -3012,10 +3000,10 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3053,10 +3041,10 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3064,7 +3052,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -3073,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3089,18 +3077,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,31 +3096,31 @@
         <v>369</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -3140,13 +3128,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
         <v>405</v>
@@ -3161,10 +3149,10 @@
         <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3172,13 +3160,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F3" t="s">
         <v>407</v>
@@ -3187,16 +3175,16 @@
         <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
         <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -3204,13 +3192,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D4" t="s">
         <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F4" t="s">
         <v>408</v>
@@ -3219,16 +3207,16 @@
         <v>378</v>
       </c>
       <c r="H4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I4" t="s">
         <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3236,13 +3224,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F5" t="s">
         <v>409</v>
@@ -3251,30 +3239,30 @@
         <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I5" t="s">
         <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F6" t="s">
         <v>409</v>
@@ -3283,30 +3271,30 @@
         <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I6" t="s">
         <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F7" t="s">
         <v>408</v>
@@ -3315,18 +3303,18 @@
         <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
         <v>402</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3335,10 +3323,10 @@
         <v>406</v>
       </c>
       <c r="D8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F8" t="s">
         <v>407</v>
@@ -3347,30 +3335,30 @@
         <v>380</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I8" t="s">
         <v>402</v>
       </c>
       <c r="J8" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F9" t="s">
         <v>407</v>
@@ -3385,24 +3373,24 @@
         <v>397</v>
       </c>
       <c r="J9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D10" t="s">
         <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F10" t="s">
         <v>407</v>
@@ -3417,24 +3405,24 @@
         <v>397</v>
       </c>
       <c r="J10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F11" t="s">
         <v>409</v>
@@ -3443,30 +3431,30 @@
         <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I11" t="s">
         <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B12" t="s">
         <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D12" t="s">
         <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
         <v>409</v>
@@ -3475,13 +3463,13 @@
         <v>380</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I12" t="s">
         <v>402</v>
       </c>
       <c r="J12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3497,9 +3485,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3507,45 +3495,45 @@
         <v>369</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
         <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D2" t="s">
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
         <v>409</v>
@@ -3554,30 +3542,30 @@
         <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I2" t="s">
         <v>402</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
         <v>409</v>
@@ -3586,13 +3574,13 @@
         <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I3" t="s">
         <v>402</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3605,12 +3593,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3618,39 +3606,39 @@
         <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" t="s">
         <v>441</v>
       </c>
-      <c r="F1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
         <v>443</v>
       </c>
-      <c r="H1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
         <v>405</v>
@@ -3662,24 +3650,24 @@
         <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
         <v>405</v>
@@ -3691,7 +3679,7 @@
         <v>426</v>
       </c>
       <c r="H3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I3" t="s">
         <v>397</v>
@@ -3706,22 +3694,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3735,27 +3723,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>373</v>
@@ -3764,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -3782,12 +3770,12 @@
         <v>1.5E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>373</v>
@@ -3796,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
         <v>375</v>
@@ -3814,12 +3802,12 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
@@ -3828,10 +3816,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -3846,24 +3834,24 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -3878,12 +3866,12 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B6" t="s">
         <v>373</v>
@@ -3892,10 +3880,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F6">
         <v>0.44000000000000011</v>
@@ -3910,24 +3898,24 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F7">
         <v>0.88</v>
@@ -3942,7 +3930,7 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J7" t="s">
-        <v>429</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3958,12 +3946,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,27 +3965,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
         <v>377</v>
@@ -4006,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -4027,9 +4015,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>377</v>
@@ -4038,10 +4026,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -4059,9 +4047,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>377</v>
@@ -4070,7 +4058,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -4091,9 +4079,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>377</v>
@@ -4102,10 +4090,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4123,9 +4111,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -4134,10 +4122,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4155,9 +4143,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
@@ -4166,10 +4154,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -4187,9 +4175,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -4198,10 +4186,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4219,9 +4207,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -4230,10 +4218,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4251,9 +4239,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B10" t="s">
         <v>373</v>
@@ -4262,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -4283,9 +4271,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s">
         <v>373</v>
@@ -4294,10 +4282,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4315,9 +4303,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B12" t="s">
         <v>373</v>
@@ -4326,10 +4314,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -4347,9 +4335,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B13" t="s">
         <v>373</v>
@@ -4358,10 +4346,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -4379,21 +4367,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -4411,21 +4399,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4453,12 +4441,12 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -4525,7 +4513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,7 +4542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -4586,7 +4574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -4618,7 +4606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -4647,7 +4635,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -4676,7 +4664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -4708,7 +4696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -4740,7 +4728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -4769,7 +4757,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -4801,7 +4789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
@@ -4830,7 +4818,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -4862,7 +4850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -4894,7 +4882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>149</v>
       </c>
@@ -4926,7 +4914,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -4958,7 +4946,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -4990,7 +4978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>164</v>
       </c>
@@ -5019,7 +5007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -5039,7 +5027,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>172</v>
       </c>
@@ -5071,7 +5059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>178</v>
       </c>
@@ -5103,7 +5091,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
@@ -5135,7 +5123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -5158,7 +5146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>193</v>
       </c>
@@ -5190,7 +5178,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -5213,7 +5201,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -5245,7 +5233,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>209</v>
       </c>
@@ -5277,7 +5265,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>214</v>
       </c>
@@ -5309,7 +5297,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>219</v>
       </c>
@@ -5341,7 +5329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
@@ -5367,7 +5355,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>231</v>
       </c>
@@ -5402,7 +5390,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
@@ -5434,7 +5422,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>246</v>
       </c>
@@ -5466,7 +5454,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>251</v>
       </c>
@@ -5498,7 +5486,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>257</v>
       </c>
@@ -5530,7 +5518,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>263</v>
       </c>
@@ -5562,7 +5550,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
@@ -5591,7 +5579,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>274</v>
       </c>
@@ -5623,7 +5611,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>279</v>
       </c>
@@ -5655,7 +5643,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>285</v>
       </c>
@@ -5687,7 +5675,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>290</v>
       </c>
@@ -5719,7 +5707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>295</v>
       </c>
@@ -5751,7 +5739,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>302</v>
       </c>
@@ -5780,7 +5768,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>308</v>
       </c>
@@ -5800,7 +5788,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>312</v>
       </c>
@@ -5832,7 +5820,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>317</v>
       </c>
@@ -5861,7 +5849,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>322</v>
       </c>
@@ -5893,7 +5881,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>328</v>
       </c>
@@ -5925,7 +5913,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>334</v>
       </c>
@@ -5951,7 +5939,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
@@ -5983,7 +5971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>345</v>
       </c>
@@ -6015,7 +6003,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>350</v>
       </c>
@@ -6047,7 +6035,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>356</v>
       </c>
@@ -6076,7 +6064,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>362</v>
       </c>
@@ -6121,9 +6109,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6137,7 +6125,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>370</v>
@@ -6147,7 +6135,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>372</v>
       </c>
@@ -6158,7 +6146,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -6170,7 +6158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>376</v>
       </c>
@@ -6181,10 +6169,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
@@ -6193,7 +6181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>378</v>
       </c>
@@ -6204,7 +6192,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -6216,7 +6204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>380</v>
       </c>
@@ -6227,10 +6215,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5">
         <v>0.66</v>
@@ -6239,7 +6227,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>383</v>
       </c>
@@ -6250,10 +6238,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>0.98</v>
@@ -6262,7 +6250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>385</v>
       </c>
@@ -6273,10 +6261,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -6285,7 +6273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>386</v>
       </c>
@@ -6296,10 +6284,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8">
         <v>0.89</v>
@@ -6308,7 +6296,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>387</v>
       </c>
@@ -6319,10 +6307,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>0.996</v>
@@ -6331,7 +6319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -6342,10 +6330,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>0.96</v>
@@ -6354,7 +6342,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>389</v>
       </c>
@@ -6365,10 +6353,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>0.77</v>
@@ -6377,7 +6365,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
@@ -6388,10 +6376,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12" t="s">
         <v>392</v>
@@ -6400,9 +6388,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
         <v>373</v>
@@ -6411,10 +6399,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>0.81</v>
@@ -6423,21 +6411,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>0.79213333333333302</v>
@@ -6446,21 +6434,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>0.78830303030303095</v>
@@ -6482,9 +6470,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6498,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>393</v>
@@ -6516,7 +6504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>397</v>
       </c>
@@ -6527,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -6548,7 +6536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>399</v>
       </c>
@@ -6559,10 +6547,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
         <v>398</v>
@@ -6580,7 +6568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>400</v>
       </c>
@@ -6591,7 +6579,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -6612,7 +6600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>402</v>
       </c>
@@ -6623,13 +6611,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G5">
         <v>7.0000000000000007E-2</v>
@@ -6644,9 +6632,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -6655,10 +6643,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6" t="s">
         <v>398</v>
@@ -6676,9 +6664,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
@@ -6687,10 +6675,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7" t="s">
         <v>398</v>
@@ -6708,9 +6696,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -6719,10 +6707,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8" t="s">
         <v>401</v>
@@ -6740,9 +6728,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -6751,13 +6739,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G9">
         <v>4.2000000000000003E-2</v>
@@ -6772,9 +6760,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B10" t="s">
         <v>373</v>
@@ -6783,10 +6771,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10" t="s">
         <v>398</v>
@@ -6804,9 +6792,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
         <v>373</v>
@@ -6815,10 +6803,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
         <v>398</v>
@@ -6836,9 +6824,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
         <v>373</v>
@@ -6847,10 +6835,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12" t="s">
         <v>401</v>
@@ -6868,9 +6856,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
         <v>373</v>
@@ -6879,13 +6867,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G13">
         <v>1.7999999999999999E-2</v>
@@ -6900,21 +6888,21 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14" t="s">
         <v>398</v>
@@ -6932,21 +6920,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15" t="s">
         <v>398</v>
@@ -6977,13 +6965,13 @@
       <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6997,7 +6985,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>403</v>
@@ -7009,7 +6997,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>405</v>
       </c>
@@ -7020,7 +7008,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -7035,7 +7023,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -7046,10 +7034,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -7061,7 +7049,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>408</v>
       </c>
@@ -7072,7 +7060,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -7087,7 +7075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>409</v>
       </c>
@@ -7098,10 +7086,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -7113,7 +7101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>410</v>
       </c>
@@ -7124,10 +7112,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -7139,7 +7127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>411</v>
       </c>
@@ -7150,10 +7138,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -7165,7 +7153,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>412</v>
       </c>
@@ -7176,10 +7164,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -7191,7 +7179,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>413</v>
       </c>
@@ -7202,10 +7190,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>0.12</v>
@@ -7217,7 +7205,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>414</v>
       </c>
@@ -7228,10 +7216,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>0.18</v>
@@ -7243,7 +7231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>415</v>
       </c>
@@ -7254,10 +7242,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -7269,7 +7257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>416</v>
       </c>
@@ -7280,10 +7268,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -7295,7 +7283,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>417</v>
       </c>
@@ -7306,10 +7294,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -7321,21 +7309,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -7347,21 +7335,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>0.1</v>
@@ -7386,9 +7374,9 @@
       <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7402,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>418</v>
@@ -7417,7 +7405,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>421</v>
       </c>
@@ -7428,7 +7416,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -7446,7 +7434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>422</v>
       </c>
@@ -7457,10 +7445,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7475,7 +7463,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>423</v>
       </c>
@@ -7486,7 +7474,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -7504,9 +7492,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>377</v>
@@ -7515,10 +7503,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7533,9 +7521,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -7544,10 +7532,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7562,9 +7550,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
@@ -7573,10 +7561,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -7591,9 +7579,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -7602,10 +7590,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7620,9 +7608,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -7631,10 +7619,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7649,9 +7637,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B10" t="s">
         <v>373</v>
@@ -7660,10 +7648,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -7678,9 +7666,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
         <v>373</v>
@@ -7689,10 +7677,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -7707,9 +7695,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s">
         <v>373</v>
@@ -7718,10 +7706,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7736,9 +7724,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B13" t="s">
         <v>373</v>
@@ -7747,10 +7735,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7765,21 +7753,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -7794,21 +7782,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -7836,14 +7824,14 @@
       <selection activeCell="C2" sqref="C2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7857,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>424</v>
@@ -7869,7 +7857,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>426</v>
       </c>
@@ -7880,7 +7868,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -7895,9 +7883,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>377</v>
@@ -7906,10 +7894,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -7921,9 +7909,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>377</v>
@@ -7932,7 +7920,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -7947,9 +7935,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>377</v>
@@ -7958,10 +7946,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F5">
         <v>1.7666666666666699</v>
@@ -7973,9 +7961,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -7984,10 +7972,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>2.06666666666667</v>
@@ -7999,9 +7987,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
@@ -8010,10 +7998,10 @@
         <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7">
         <v>2.3666666666666698</v>
@@ -8025,9 +8013,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -8036,10 +8024,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8">
         <v>2.6666666666666701</v>
@@ -8051,9 +8039,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -8062,10 +8050,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F9">
         <v>2.9666666666666699</v>
@@ -8077,9 +8065,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
         <v>373</v>
@@ -8088,10 +8076,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>3.2666666666666702</v>
@@ -8103,9 +8091,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
         <v>373</v>
@@ -8114,10 +8102,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>3.56666666666667</v>
@@ -8129,9 +8117,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s">
         <v>373</v>
@@ -8140,10 +8128,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12">
         <v>3.8666666666666698</v>
@@ -8155,9 +8143,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
         <v>373</v>
@@ -8166,10 +8154,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F13">
         <v>4.1666666666666696</v>
@@ -8181,21 +8169,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B14" t="s">
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F14">
         <v>4.4666666666666703</v>
@@ -8207,21 +8195,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <v>4.7666666666666702</v>
@@ -8242,11 +8230,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8260,33 +8250,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -8310,12 +8300,12 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -8339,12 +8329,12 @@
         <v>562356</v>
       </c>
       <c r="L3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -8368,12 +8358,12 @@
         <v>2345234</v>
       </c>
       <c r="L4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -8397,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>429</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8413,13 +8403,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8427,36 +8417,36 @@
         <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -8464,7 +8454,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
         <v>374</v>
@@ -8485,13 +8475,13 @@
         <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -8499,10 +8489,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E3" t="s">
         <v>407</v>
@@ -8511,7 +8501,7 @@
         <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H3" t="s">
         <v>422</v>
@@ -8520,13 +8510,13 @@
         <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8534,10 +8524,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
         <v>405</v>
@@ -8546,7 +8536,7 @@
         <v>378</v>
       </c>
       <c r="G4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H4" t="s">
         <v>423</v>
@@ -8555,13 +8545,13 @@
         <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -8569,10 +8559,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
         <v>407</v>
@@ -8581,22 +8571,22 @@
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I5" t="s">
         <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -8604,7 +8594,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" t="s">
         <v>384</v>
@@ -8616,22 +8606,22 @@
         <v>380</v>
       </c>
       <c r="G6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I6" t="s">
         <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -8639,10 +8629,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E7" t="s">
         <v>408</v>
@@ -8651,7 +8641,7 @@
         <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
         <v>423</v>
@@ -8660,13 +8650,13 @@
         <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -8677,7 +8667,7 @@
         <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
         <v>405</v>
@@ -8695,13 +8685,13 @@
         <v>397</v>
       </c>
       <c r="J8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -8709,10 +8699,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E9" t="s">
         <v>407</v>
@@ -8721,7 +8711,7 @@
         <v>376</v>
       </c>
       <c r="G9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H9" t="s">
         <v>422</v>
@@ -8730,13 +8720,13 @@
         <v>399</v>
       </c>
       <c r="J9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -8747,7 +8737,7 @@
         <v>406</v>
       </c>
       <c r="D10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E10" t="s">
         <v>405</v>
@@ -8756,7 +8746,7 @@
         <v>378</v>
       </c>
       <c r="G10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H10" t="s">
         <v>423</v>
@@ -8765,13 +8755,13 @@
         <v>400</v>
       </c>
       <c r="J10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -8782,7 +8772,7 @@
         <v>406</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E11" t="s">
         <v>409</v>
@@ -8791,22 +8781,22 @@
         <v>380</v>
       </c>
       <c r="G11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I11" t="s">
         <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -8814,10 +8804,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E12" t="s">
         <v>408</v>
@@ -8826,22 +8816,22 @@
         <v>380</v>
       </c>
       <c r="G12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I12" t="s">
         <v>402</v>
       </c>
       <c r="J12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -8849,10 +8839,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
         <v>411</v>
@@ -8861,7 +8851,7 @@
         <v>378</v>
       </c>
       <c r="G13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H13" t="s">
         <v>423</v>
@@ -8870,10 +8860,10 @@
         <v>400</v>
       </c>
       <c r="J13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
